--- a/05. 설계 - 데이터베이스_설계서.xlsx
+++ b/05. 설계 - 데이터베이스_설계서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\SWDO_PJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="3192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="제∙개정 이력서" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="201">
   <si>
     <t>내용</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -841,6 +841,42 @@
   </si>
   <si>
     <t>회원 정보 관리 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>note_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>note_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>note_receiver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk member(member_id)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1408,7 +1444,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1483,20 +1519,35 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1519,51 +1570,78 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1573,15 +1651,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1600,33 +1669,10 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1651,10 +1697,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2164,133 +2206,123 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A7" s="6"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A8" s="6"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A9" s="6"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A10" s="6"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A11" s="6"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A12" s="6"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A13" s="6"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A14" s="6"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A15" s="6"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A16" s="6"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A17" s="6"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A18" s="6"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A19" s="6"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="16.2" thickBot="1">
       <c r="A20" s="4"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
@@ -2299,6 +2331,16 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2313,10 +2355,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J155"/>
+  <dimension ref="A1:J170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2327,59 +2369,59 @@
     <col min="4" max="4" width="12.09765625" customWidth="1"/>
     <col min="5" max="5" width="7.796875" customWidth="1"/>
     <col min="6" max="6" width="8.796875" customWidth="1"/>
-    <col min="7" max="7" width="19.296875" customWidth="1"/>
+    <col min="7" max="7" width="24.19921875" customWidth="1"/>
     <col min="8" max="10" width="7.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="75"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="71"/>
     </row>
     <row r="2" spans="1:10" ht="17.399999999999999">
       <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
       <c r="F2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="76"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="72"/>
     </row>
     <row r="3" spans="1:10" ht="18" thickBot="1">
       <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="78" t="s">
+      <c r="G3" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="H3" s="78"/>
+      <c r="H3" s="74"/>
       <c r="I3" s="16" t="s">
         <v>10</v>
       </c>
@@ -2388,172 +2430,172 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
     </row>
     <row r="6" spans="1:10" ht="17.399999999999999">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="66"/>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="80"/>
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46" t="s">
+      <c r="B8" s="59"/>
+      <c r="C8" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="72"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="83"/>
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="46"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="79"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="65" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="66"/>
       <c r="C14" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="67" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="66"/>
       <c r="F14" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="59"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="47" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="49"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="23"/>
       <c r="J15" s="24"/>
     </row>
@@ -2567,235 +2609,235 @@
       <c r="C16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="81"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="81" t="s">
+      <c r="G16" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81" t="s">
+      <c r="H16" s="63"/>
+      <c r="I16" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="81"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="60"/>
+      <c r="E17" s="64"/>
       <c r="F17" s="27"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="60"/>
+      <c r="E18" s="64"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="60"/>
+      <c r="E19" s="64"/>
       <c r="F19" s="27"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="27"/>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="60"/>
+      <c r="E20" s="64"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="27"/>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="60"/>
+      <c r="E21" s="64"/>
       <c r="F21" s="27"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="60"/>
+      <c r="E22" s="64"/>
       <c r="F22" s="27"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="E23" s="60"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="27"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="E24" s="60"/>
+      <c r="E24" s="64"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="79"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
     </row>
     <row r="27" spans="1:10" ht="17.399999999999999">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
     </row>
     <row r="28" spans="1:10" ht="17.399999999999999">
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="56"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="61"/>
       <c r="F28" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="57" t="s">
+      <c r="G28" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="59"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="53"/>
     </row>
     <row r="29" spans="1:10" ht="17.399999999999999">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="49"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
       <c r="E29" s="22"/>
       <c r="F29" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="59"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="53"/>
     </row>
     <row r="30" spans="1:10" ht="17.399999999999999">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="41"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="46"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="39" t="s">
+      <c r="B31" s="59"/>
+      <c r="C31" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="41"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:10" ht="17.399999999999999">
       <c r="A32" s="13" t="s">
@@ -2813,13 +2855,13 @@
       <c r="E32" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="47" t="s">
+      <c r="F32" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="49"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="43"/>
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1">
       <c r="A33" s="26"/>
@@ -2827,55 +2869,55 @@
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="41"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="46"/>
     </row>
     <row r="34" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="E34" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="42" t="s">
+      <c r="F34" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="42" t="s">
+      <c r="G34" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="42" t="s">
+      <c r="H34" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="I34" s="42" t="s">
+      <c r="I34" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="42" t="s">
+      <c r="J34" s="47" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="12" t="s">
@@ -3068,80 +3110,80 @@
       <c r="J46" s="12"/>
     </row>
     <row r="49" spans="1:10" ht="17.399999999999999">
-      <c r="A49" s="50" t="s">
+      <c r="A49" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
     </row>
     <row r="50" spans="1:10" ht="17.399999999999999">
       <c r="A50" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="56"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="61"/>
       <c r="F50" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G50" s="57" t="s">
+      <c r="G50" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="59"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="53"/>
     </row>
     <row r="51" spans="1:10" ht="17.399999999999999">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="49"/>
+      <c r="B51" s="43"/>
       <c r="C51" s="21"/>
       <c r="D51" s="21"/>
       <c r="E51" s="22"/>
       <c r="F51" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G51" s="57"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="59"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="53"/>
     </row>
     <row r="52" spans="1:10" ht="17.399999999999999">
-      <c r="A52" s="46" t="s">
+      <c r="A52" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="46"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="41"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="46"/>
     </row>
     <row r="53" spans="1:10" ht="17.399999999999999">
-      <c r="A53" s="46" t="s">
+      <c r="A53" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="46"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="41"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="46"/>
     </row>
     <row r="54" spans="1:10" ht="17.399999999999999">
       <c r="A54" s="31" t="s">
@@ -3159,13 +3201,13 @@
       <c r="E54" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F54" s="47" t="s">
+      <c r="F54" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="49"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="43"/>
     </row>
     <row r="55" spans="1:10" ht="17.399999999999999">
       <c r="A55" s="26"/>
@@ -3173,55 +3215,55 @@
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
       <c r="E55" s="20"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="41"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="46"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="42" t="s">
+      <c r="C56" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="44" t="s">
+      <c r="D56" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="E56" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F56" s="42" t="s">
+      <c r="F56" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="42" t="s">
+      <c r="G56" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H56" s="42" t="s">
+      <c r="H56" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="I56" s="42" t="s">
+      <c r="I56" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J56" s="42" t="s">
+      <c r="J56" s="47" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="48"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="12" t="s">
@@ -3294,80 +3336,80 @@
       <c r="J61" s="12"/>
     </row>
     <row r="64" spans="1:10" ht="17.399999999999999">
-      <c r="A64" s="50" t="s">
+      <c r="A64" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="54"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+      <c r="J64" s="58"/>
     </row>
     <row r="65" spans="1:10" ht="17.399999999999999">
       <c r="A65" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="55"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="56"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="61"/>
       <c r="F65" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G65" s="57" t="s">
+      <c r="G65" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="H65" s="58"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="59"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="53"/>
     </row>
     <row r="66" spans="1:10" ht="17.399999999999999">
-      <c r="A66" s="47" t="s">
+      <c r="A66" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B66" s="49"/>
+      <c r="B66" s="43"/>
       <c r="C66" s="21"/>
       <c r="D66" s="21"/>
       <c r="E66" s="22"/>
       <c r="F66" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G66" s="57"/>
-      <c r="H66" s="58"/>
-      <c r="I66" s="58"/>
-      <c r="J66" s="59"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="53"/>
     </row>
     <row r="67" spans="1:10" ht="17.399999999999999">
-      <c r="A67" s="46" t="s">
+      <c r="A67" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B67" s="46"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="41"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="45"/>
+      <c r="J67" s="46"/>
     </row>
     <row r="68" spans="1:10" ht="17.399999999999999">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="B68" s="46"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="45"/>
+      <c r="J68" s="46"/>
     </row>
     <row r="69" spans="1:10" ht="17.399999999999999">
       <c r="A69" s="31" t="s">
@@ -3385,13 +3427,13 @@
       <c r="E69" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F69" s="47" t="s">
+      <c r="F69" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="49"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="43"/>
     </row>
     <row r="70" spans="1:10" ht="17.399999999999999">
       <c r="A70" s="26"/>
@@ -3399,55 +3441,55 @@
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
       <c r="E70" s="20"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="41"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="46"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="42" t="s">
+      <c r="A71" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C71" s="42" t="s">
+      <c r="C71" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D71" s="44" t="s">
+      <c r="D71" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E71" s="42" t="s">
+      <c r="E71" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F71" s="42" t="s">
+      <c r="F71" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G71" s="42" t="s">
+      <c r="G71" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H71" s="42" t="s">
+      <c r="H71" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="I71" s="42" t="s">
+      <c r="I71" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J71" s="42" t="s">
+      <c r="J71" s="47" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="43"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
+      <c r="A72" s="48"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="48"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="12" t="s">
@@ -3538,80 +3580,80 @@
       <c r="J77" s="12"/>
     </row>
     <row r="80" spans="1:10" ht="17.399999999999999">
-      <c r="A80" s="50" t="s">
+      <c r="A80" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="51"/>
-      <c r="C80" s="51"/>
-      <c r="D80" s="51"/>
-      <c r="E80" s="52"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="54"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="54"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="58"/>
+      <c r="H80" s="58"/>
+      <c r="I80" s="58"/>
+      <c r="J80" s="58"/>
     </row>
     <row r="81" spans="1:10" ht="17.399999999999999">
       <c r="A81" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B81" s="55"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="56"/>
+      <c r="B81" s="60"/>
+      <c r="C81" s="60"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="61"/>
       <c r="F81" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G81" s="57" t="s">
+      <c r="G81" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="H81" s="58"/>
-      <c r="I81" s="58"/>
-      <c r="J81" s="59"/>
+      <c r="H81" s="52"/>
+      <c r="I81" s="52"/>
+      <c r="J81" s="53"/>
     </row>
     <row r="82" spans="1:10" ht="17.399999999999999">
-      <c r="A82" s="47" t="s">
+      <c r="A82" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B82" s="49"/>
+      <c r="B82" s="43"/>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
       <c r="E82" s="22"/>
       <c r="F82" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G82" s="57"/>
-      <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="59"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="52"/>
+      <c r="I82" s="52"/>
+      <c r="J82" s="53"/>
     </row>
     <row r="83" spans="1:10" ht="17.399999999999999">
-      <c r="A83" s="46" t="s">
+      <c r="A83" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B83" s="46"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="40"/>
-      <c r="G83" s="40"/>
-      <c r="H83" s="40"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="41"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="45"/>
+      <c r="F83" s="45"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="45"/>
+      <c r="I83" s="45"/>
+      <c r="J83" s="46"/>
     </row>
     <row r="84" spans="1:10" ht="17.399999999999999">
-      <c r="A84" s="46" t="s">
+      <c r="A84" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="B84" s="46"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="40"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="41"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="45"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="45"/>
+      <c r="I84" s="45"/>
+      <c r="J84" s="46"/>
     </row>
     <row r="85" spans="1:10" ht="17.399999999999999">
       <c r="A85" s="31" t="s">
@@ -3629,13 +3671,13 @@
       <c r="E85" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F85" s="47" t="s">
+      <c r="F85" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G85" s="48"/>
-      <c r="H85" s="48"/>
-      <c r="I85" s="48"/>
-      <c r="J85" s="49"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="43"/>
     </row>
     <row r="86" spans="1:10" ht="17.399999999999999">
       <c r="A86" s="26"/>
@@ -3643,55 +3685,55 @@
       <c r="C86" s="27"/>
       <c r="D86" s="27"/>
       <c r="E86" s="20"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="45"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="46"/>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="42" t="s">
+      <c r="A87" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B87" s="42" t="s">
+      <c r="B87" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C87" s="42" t="s">
+      <c r="C87" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D87" s="44" t="s">
+      <c r="D87" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E87" s="42" t="s">
+      <c r="E87" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F87" s="42" t="s">
+      <c r="F87" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G87" s="42" t="s">
+      <c r="G87" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H87" s="42" t="s">
+      <c r="H87" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="I87" s="42" t="s">
+      <c r="I87" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J87" s="42" t="s">
+      <c r="J87" s="47" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="43"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="43"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="43"/>
-      <c r="H88" s="43"/>
-      <c r="I88" s="43"/>
-      <c r="J88" s="43"/>
+      <c r="A88" s="48"/>
+      <c r="B88" s="48"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="50"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="48"/>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="12" t="s">
@@ -3820,80 +3862,80 @@
       <c r="J95" s="12"/>
     </row>
     <row r="98" spans="1:10" ht="17.399999999999999">
-      <c r="A98" s="50" t="s">
+      <c r="A98" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B98" s="51"/>
-      <c r="C98" s="51"/>
-      <c r="D98" s="51"/>
-      <c r="E98" s="52"/>
-      <c r="F98" s="53"/>
-      <c r="G98" s="54"/>
-      <c r="H98" s="54"/>
-      <c r="I98" s="54"/>
-      <c r="J98" s="54"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="57"/>
+      <c r="G98" s="58"/>
+      <c r="H98" s="58"/>
+      <c r="I98" s="58"/>
+      <c r="J98" s="58"/>
     </row>
     <row r="99" spans="1:10" ht="17.399999999999999">
       <c r="A99" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B99" s="55"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="55"/>
-      <c r="E99" s="56"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="60"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="61"/>
       <c r="F99" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G99" s="57" t="s">
+      <c r="G99" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="H99" s="58"/>
-      <c r="I99" s="58"/>
-      <c r="J99" s="59"/>
+      <c r="H99" s="52"/>
+      <c r="I99" s="52"/>
+      <c r="J99" s="53"/>
     </row>
     <row r="100" spans="1:10" ht="17.399999999999999">
-      <c r="A100" s="47" t="s">
+      <c r="A100" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B100" s="49"/>
+      <c r="B100" s="43"/>
       <c r="C100" s="21"/>
       <c r="D100" s="21"/>
       <c r="E100" s="22"/>
       <c r="F100" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G100" s="57"/>
-      <c r="H100" s="58"/>
-      <c r="I100" s="58"/>
-      <c r="J100" s="59"/>
+      <c r="G100" s="51"/>
+      <c r="H100" s="52"/>
+      <c r="I100" s="52"/>
+      <c r="J100" s="53"/>
     </row>
     <row r="101" spans="1:10" ht="17.399999999999999">
-      <c r="A101" s="46" t="s">
+      <c r="A101" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B101" s="46"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="40"/>
-      <c r="E101" s="40"/>
-      <c r="F101" s="40"/>
-      <c r="G101" s="40"/>
-      <c r="H101" s="40"/>
-      <c r="I101" s="40"/>
-      <c r="J101" s="41"/>
+      <c r="B101" s="59"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="45"/>
+      <c r="E101" s="45"/>
+      <c r="F101" s="45"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="45"/>
+      <c r="I101" s="45"/>
+      <c r="J101" s="46"/>
     </row>
     <row r="102" spans="1:10" ht="17.399999999999999">
-      <c r="A102" s="46" t="s">
+      <c r="A102" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="B102" s="46"/>
-      <c r="C102" s="39"/>
-      <c r="D102" s="40"/>
-      <c r="E102" s="40"/>
-      <c r="F102" s="40"/>
-      <c r="G102" s="40"/>
-      <c r="H102" s="40"/>
-      <c r="I102" s="40"/>
-      <c r="J102" s="41"/>
+      <c r="B102" s="59"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="45"/>
+      <c r="E102" s="45"/>
+      <c r="F102" s="45"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="45"/>
+      <c r="I102" s="45"/>
+      <c r="J102" s="46"/>
     </row>
     <row r="103" spans="1:10" ht="17.399999999999999">
       <c r="A103" s="31" t="s">
@@ -3911,13 +3953,13 @@
       <c r="E103" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F103" s="47" t="s">
+      <c r="F103" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G103" s="48"/>
-      <c r="H103" s="48"/>
-      <c r="I103" s="48"/>
-      <c r="J103" s="49"/>
+      <c r="G103" s="42"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="42"/>
+      <c r="J103" s="43"/>
     </row>
     <row r="104" spans="1:10" ht="17.399999999999999">
       <c r="A104" s="26"/>
@@ -3925,55 +3967,55 @@
       <c r="C104" s="27"/>
       <c r="D104" s="27"/>
       <c r="E104" s="20"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="40"/>
-      <c r="H104" s="40"/>
-      <c r="I104" s="40"/>
-      <c r="J104" s="41"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="45"/>
+      <c r="I104" s="45"/>
+      <c r="J104" s="46"/>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="42" t="s">
+      <c r="A105" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B105" s="42" t="s">
+      <c r="B105" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C105" s="42" t="s">
+      <c r="C105" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D105" s="44" t="s">
+      <c r="D105" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E105" s="42" t="s">
+      <c r="E105" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F105" s="42" t="s">
+      <c r="F105" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G105" s="42" t="s">
+      <c r="G105" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H105" s="42" t="s">
+      <c r="H105" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="I105" s="42" t="s">
+      <c r="I105" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J105" s="42" t="s">
+      <c r="J105" s="47" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="43"/>
-      <c r="B106" s="43"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="45"/>
-      <c r="E106" s="43"/>
-      <c r="F106" s="43"/>
-      <c r="G106" s="43"/>
-      <c r="H106" s="43"/>
-      <c r="I106" s="43"/>
-      <c r="J106" s="43"/>
+      <c r="A106" s="48"/>
+      <c r="B106" s="48"/>
+      <c r="C106" s="48"/>
+      <c r="D106" s="50"/>
+      <c r="E106" s="48"/>
+      <c r="F106" s="48"/>
+      <c r="G106" s="48"/>
+      <c r="H106" s="48"/>
+      <c r="I106" s="48"/>
+      <c r="J106" s="48"/>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="12" t="s">
@@ -4048,80 +4090,80 @@
       <c r="J110" s="12"/>
     </row>
     <row r="113" spans="1:10" ht="17.399999999999999">
-      <c r="A113" s="50" t="s">
+      <c r="A113" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B113" s="51"/>
-      <c r="C113" s="51"/>
-      <c r="D113" s="51"/>
-      <c r="E113" s="52"/>
-      <c r="F113" s="53"/>
-      <c r="G113" s="54"/>
-      <c r="H113" s="54"/>
-      <c r="I113" s="54"/>
-      <c r="J113" s="54"/>
+      <c r="B113" s="55"/>
+      <c r="C113" s="55"/>
+      <c r="D113" s="55"/>
+      <c r="E113" s="56"/>
+      <c r="F113" s="57"/>
+      <c r="G113" s="58"/>
+      <c r="H113" s="58"/>
+      <c r="I113" s="58"/>
+      <c r="J113" s="58"/>
     </row>
     <row r="114" spans="1:10" ht="17.399999999999999">
       <c r="A114" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B114" s="55"/>
-      <c r="C114" s="55"/>
-      <c r="D114" s="55"/>
-      <c r="E114" s="56"/>
+      <c r="B114" s="60"/>
+      <c r="C114" s="60"/>
+      <c r="D114" s="60"/>
+      <c r="E114" s="61"/>
       <c r="F114" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G114" s="57" t="s">
+      <c r="G114" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="H114" s="58"/>
-      <c r="I114" s="58"/>
-      <c r="J114" s="59"/>
+      <c r="H114" s="52"/>
+      <c r="I114" s="52"/>
+      <c r="J114" s="53"/>
     </row>
     <row r="115" spans="1:10" ht="17.399999999999999">
-      <c r="A115" s="47" t="s">
+      <c r="A115" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B115" s="49"/>
+      <c r="B115" s="43"/>
       <c r="C115" s="21"/>
       <c r="D115" s="21"/>
       <c r="E115" s="22"/>
       <c r="F115" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G115" s="57"/>
-      <c r="H115" s="58"/>
-      <c r="I115" s="58"/>
-      <c r="J115" s="59"/>
+      <c r="G115" s="51"/>
+      <c r="H115" s="52"/>
+      <c r="I115" s="52"/>
+      <c r="J115" s="53"/>
     </row>
     <row r="116" spans="1:10" ht="17.399999999999999">
-      <c r="A116" s="46" t="s">
+      <c r="A116" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B116" s="46"/>
-      <c r="C116" s="39"/>
-      <c r="D116" s="40"/>
-      <c r="E116" s="40"/>
-      <c r="F116" s="40"/>
-      <c r="G116" s="40"/>
-      <c r="H116" s="40"/>
-      <c r="I116" s="40"/>
-      <c r="J116" s="41"/>
+      <c r="B116" s="59"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="45"/>
+      <c r="E116" s="45"/>
+      <c r="F116" s="45"/>
+      <c r="G116" s="45"/>
+      <c r="H116" s="45"/>
+      <c r="I116" s="45"/>
+      <c r="J116" s="46"/>
     </row>
     <row r="117" spans="1:10" ht="17.399999999999999">
-      <c r="A117" s="46" t="s">
+      <c r="A117" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="B117" s="46"/>
-      <c r="C117" s="39"/>
-      <c r="D117" s="40"/>
-      <c r="E117" s="40"/>
-      <c r="F117" s="40"/>
-      <c r="G117" s="40"/>
-      <c r="H117" s="40"/>
-      <c r="I117" s="40"/>
-      <c r="J117" s="41"/>
+      <c r="B117" s="59"/>
+      <c r="C117" s="44"/>
+      <c r="D117" s="45"/>
+      <c r="E117" s="45"/>
+      <c r="F117" s="45"/>
+      <c r="G117" s="45"/>
+      <c r="H117" s="45"/>
+      <c r="I117" s="45"/>
+      <c r="J117" s="46"/>
     </row>
     <row r="118" spans="1:10" ht="17.399999999999999">
       <c r="A118" s="31" t="s">
@@ -4139,13 +4181,13 @@
       <c r="E118" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F118" s="47" t="s">
+      <c r="F118" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G118" s="48"/>
-      <c r="H118" s="48"/>
-      <c r="I118" s="48"/>
-      <c r="J118" s="49"/>
+      <c r="G118" s="42"/>
+      <c r="H118" s="42"/>
+      <c r="I118" s="42"/>
+      <c r="J118" s="43"/>
     </row>
     <row r="119" spans="1:10" ht="17.399999999999999">
       <c r="A119" s="26"/>
@@ -4153,55 +4195,55 @@
       <c r="C119" s="27"/>
       <c r="D119" s="27"/>
       <c r="E119" s="20"/>
-      <c r="F119" s="39"/>
-      <c r="G119" s="40"/>
-      <c r="H119" s="40"/>
-      <c r="I119" s="40"/>
-      <c r="J119" s="41"/>
+      <c r="F119" s="44"/>
+      <c r="G119" s="45"/>
+      <c r="H119" s="45"/>
+      <c r="I119" s="45"/>
+      <c r="J119" s="46"/>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="42" t="s">
+      <c r="A120" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B120" s="42" t="s">
+      <c r="B120" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C120" s="42" t="s">
+      <c r="C120" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D120" s="44" t="s">
+      <c r="D120" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E120" s="42" t="s">
+      <c r="E120" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F120" s="42" t="s">
+      <c r="F120" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G120" s="42" t="s">
+      <c r="G120" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H120" s="42" t="s">
+      <c r="H120" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="I120" s="42" t="s">
+      <c r="I120" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J120" s="42" t="s">
+      <c r="J120" s="47" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121" s="43"/>
-      <c r="B121" s="43"/>
-      <c r="C121" s="43"/>
-      <c r="D121" s="45"/>
-      <c r="E121" s="43"/>
-      <c r="F121" s="43"/>
-      <c r="G121" s="43"/>
-      <c r="H121" s="43"/>
-      <c r="I121" s="43"/>
-      <c r="J121" s="43"/>
+      <c r="A121" s="48"/>
+      <c r="B121" s="48"/>
+      <c r="C121" s="48"/>
+      <c r="D121" s="50"/>
+      <c r="E121" s="48"/>
+      <c r="F121" s="48"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="48"/>
+      <c r="I121" s="48"/>
+      <c r="J121" s="48"/>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="12" t="s">
@@ -4292,80 +4334,80 @@
       <c r="J126" s="12"/>
     </row>
     <row r="129" spans="1:10" ht="17.399999999999999">
-      <c r="A129" s="50" t="s">
+      <c r="A129" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B129" s="51"/>
-      <c r="C129" s="51"/>
-      <c r="D129" s="51"/>
-      <c r="E129" s="52"/>
-      <c r="F129" s="53"/>
-      <c r="G129" s="54"/>
-      <c r="H129" s="54"/>
-      <c r="I129" s="54"/>
-      <c r="J129" s="54"/>
+      <c r="B129" s="55"/>
+      <c r="C129" s="55"/>
+      <c r="D129" s="55"/>
+      <c r="E129" s="56"/>
+      <c r="F129" s="57"/>
+      <c r="G129" s="58"/>
+      <c r="H129" s="58"/>
+      <c r="I129" s="58"/>
+      <c r="J129" s="58"/>
     </row>
     <row r="130" spans="1:10" ht="17.399999999999999">
       <c r="A130" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B130" s="55"/>
-      <c r="C130" s="55"/>
-      <c r="D130" s="55"/>
-      <c r="E130" s="56"/>
+      <c r="B130" s="60"/>
+      <c r="C130" s="60"/>
+      <c r="D130" s="60"/>
+      <c r="E130" s="61"/>
       <c r="F130" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G130" s="57" t="s">
+      <c r="G130" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="H130" s="58"/>
-      <c r="I130" s="58"/>
-      <c r="J130" s="59"/>
+      <c r="H130" s="52"/>
+      <c r="I130" s="52"/>
+      <c r="J130" s="53"/>
     </row>
     <row r="131" spans="1:10" ht="17.399999999999999">
-      <c r="A131" s="47" t="s">
+      <c r="A131" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B131" s="49"/>
+      <c r="B131" s="43"/>
       <c r="C131" s="21"/>
       <c r="D131" s="21"/>
       <c r="E131" s="22"/>
       <c r="F131" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G131" s="57"/>
-      <c r="H131" s="58"/>
-      <c r="I131" s="58"/>
-      <c r="J131" s="59"/>
+      <c r="G131" s="51"/>
+      <c r="H131" s="52"/>
+      <c r="I131" s="52"/>
+      <c r="J131" s="53"/>
     </row>
     <row r="132" spans="1:10" ht="17.399999999999999">
-      <c r="A132" s="46" t="s">
+      <c r="A132" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B132" s="46"/>
-      <c r="C132" s="39"/>
-      <c r="D132" s="40"/>
-      <c r="E132" s="40"/>
-      <c r="F132" s="40"/>
-      <c r="G132" s="40"/>
-      <c r="H132" s="40"/>
-      <c r="I132" s="40"/>
-      <c r="J132" s="41"/>
+      <c r="B132" s="59"/>
+      <c r="C132" s="44"/>
+      <c r="D132" s="45"/>
+      <c r="E132" s="45"/>
+      <c r="F132" s="45"/>
+      <c r="G132" s="45"/>
+      <c r="H132" s="45"/>
+      <c r="I132" s="45"/>
+      <c r="J132" s="46"/>
     </row>
     <row r="133" spans="1:10" ht="17.399999999999999">
-      <c r="A133" s="46" t="s">
+      <c r="A133" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="B133" s="46"/>
-      <c r="C133" s="39"/>
-      <c r="D133" s="40"/>
-      <c r="E133" s="40"/>
-      <c r="F133" s="40"/>
-      <c r="G133" s="40"/>
-      <c r="H133" s="40"/>
-      <c r="I133" s="40"/>
-      <c r="J133" s="41"/>
+      <c r="B133" s="59"/>
+      <c r="C133" s="44"/>
+      <c r="D133" s="45"/>
+      <c r="E133" s="45"/>
+      <c r="F133" s="45"/>
+      <c r="G133" s="45"/>
+      <c r="H133" s="45"/>
+      <c r="I133" s="45"/>
+      <c r="J133" s="46"/>
     </row>
     <row r="134" spans="1:10" ht="17.399999999999999">
       <c r="A134" s="31" t="s">
@@ -4383,13 +4425,13 @@
       <c r="E134" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F134" s="47" t="s">
+      <c r="F134" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G134" s="48"/>
-      <c r="H134" s="48"/>
-      <c r="I134" s="48"/>
-      <c r="J134" s="49"/>
+      <c r="G134" s="42"/>
+      <c r="H134" s="42"/>
+      <c r="I134" s="42"/>
+      <c r="J134" s="43"/>
     </row>
     <row r="135" spans="1:10" ht="17.399999999999999">
       <c r="A135" s="26"/>
@@ -4397,55 +4439,55 @@
       <c r="C135" s="27"/>
       <c r="D135" s="27"/>
       <c r="E135" s="20"/>
-      <c r="F135" s="39"/>
-      <c r="G135" s="40"/>
-      <c r="H135" s="40"/>
-      <c r="I135" s="40"/>
-      <c r="J135" s="41"/>
+      <c r="F135" s="44"/>
+      <c r="G135" s="45"/>
+      <c r="H135" s="45"/>
+      <c r="I135" s="45"/>
+      <c r="J135" s="46"/>
     </row>
     <row r="136" spans="1:10">
-      <c r="A136" s="42" t="s">
+      <c r="A136" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B136" s="42" t="s">
+      <c r="B136" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C136" s="42" t="s">
+      <c r="C136" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D136" s="44" t="s">
+      <c r="D136" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E136" s="42" t="s">
+      <c r="E136" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F136" s="42" t="s">
+      <c r="F136" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G136" s="42" t="s">
+      <c r="G136" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H136" s="42" t="s">
+      <c r="H136" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="I136" s="42" t="s">
+      <c r="I136" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J136" s="42" t="s">
+      <c r="J136" s="47" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:10">
-      <c r="A137" s="43"/>
-      <c r="B137" s="43"/>
-      <c r="C137" s="43"/>
-      <c r="D137" s="45"/>
-      <c r="E137" s="43"/>
-      <c r="F137" s="43"/>
-      <c r="G137" s="43"/>
-      <c r="H137" s="43"/>
-      <c r="I137" s="43"/>
-      <c r="J137" s="43"/>
+      <c r="A137" s="48"/>
+      <c r="B137" s="48"/>
+      <c r="C137" s="48"/>
+      <c r="D137" s="50"/>
+      <c r="E137" s="48"/>
+      <c r="F137" s="48"/>
+      <c r="G137" s="48"/>
+      <c r="H137" s="48"/>
+      <c r="I137" s="48"/>
+      <c r="J137" s="48"/>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="12" t="s">
@@ -4520,80 +4562,80 @@
       <c r="J141" s="12"/>
     </row>
     <row r="144" spans="1:10" ht="17.399999999999999">
-      <c r="A144" s="50" t="s">
+      <c r="A144" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B144" s="51"/>
-      <c r="C144" s="51"/>
-      <c r="D144" s="51"/>
-      <c r="E144" s="52"/>
-      <c r="F144" s="53"/>
-      <c r="G144" s="54"/>
-      <c r="H144" s="54"/>
-      <c r="I144" s="54"/>
-      <c r="J144" s="54"/>
+      <c r="B144" s="55"/>
+      <c r="C144" s="55"/>
+      <c r="D144" s="55"/>
+      <c r="E144" s="56"/>
+      <c r="F144" s="57"/>
+      <c r="G144" s="58"/>
+      <c r="H144" s="58"/>
+      <c r="I144" s="58"/>
+      <c r="J144" s="58"/>
     </row>
     <row r="145" spans="1:10" ht="17.399999999999999">
       <c r="A145" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B145" s="55"/>
-      <c r="C145" s="55"/>
-      <c r="D145" s="55"/>
-      <c r="E145" s="56"/>
+      <c r="B145" s="60"/>
+      <c r="C145" s="60"/>
+      <c r="D145" s="60"/>
+      <c r="E145" s="61"/>
       <c r="F145" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G145" s="57" t="s">
+      <c r="G145" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="H145" s="58"/>
-      <c r="I145" s="58"/>
-      <c r="J145" s="59"/>
+      <c r="H145" s="52"/>
+      <c r="I145" s="52"/>
+      <c r="J145" s="53"/>
     </row>
     <row r="146" spans="1:10" ht="17.399999999999999">
-      <c r="A146" s="47" t="s">
+      <c r="A146" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B146" s="49"/>
+      <c r="B146" s="43"/>
       <c r="C146" s="21"/>
       <c r="D146" s="21"/>
       <c r="E146" s="22"/>
       <c r="F146" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G146" s="57"/>
-      <c r="H146" s="58"/>
-      <c r="I146" s="58"/>
-      <c r="J146" s="59"/>
+      <c r="G146" s="51"/>
+      <c r="H146" s="52"/>
+      <c r="I146" s="52"/>
+      <c r="J146" s="53"/>
     </row>
     <row r="147" spans="1:10" ht="17.399999999999999">
-      <c r="A147" s="46" t="s">
+      <c r="A147" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B147" s="46"/>
-      <c r="C147" s="39"/>
-      <c r="D147" s="40"/>
-      <c r="E147" s="40"/>
-      <c r="F147" s="40"/>
-      <c r="G147" s="40"/>
-      <c r="H147" s="40"/>
-      <c r="I147" s="40"/>
-      <c r="J147" s="41"/>
+      <c r="B147" s="59"/>
+      <c r="C147" s="44"/>
+      <c r="D147" s="45"/>
+      <c r="E147" s="45"/>
+      <c r="F147" s="45"/>
+      <c r="G147" s="45"/>
+      <c r="H147" s="45"/>
+      <c r="I147" s="45"/>
+      <c r="J147" s="46"/>
     </row>
     <row r="148" spans="1:10" ht="17.399999999999999">
-      <c r="A148" s="46" t="s">
+      <c r="A148" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="B148" s="46"/>
-      <c r="C148" s="39"/>
-      <c r="D148" s="40"/>
-      <c r="E148" s="40"/>
-      <c r="F148" s="40"/>
-      <c r="G148" s="40"/>
-      <c r="H148" s="40"/>
-      <c r="I148" s="40"/>
-      <c r="J148" s="41"/>
+      <c r="B148" s="59"/>
+      <c r="C148" s="44"/>
+      <c r="D148" s="45"/>
+      <c r="E148" s="45"/>
+      <c r="F148" s="45"/>
+      <c r="G148" s="45"/>
+      <c r="H148" s="45"/>
+      <c r="I148" s="45"/>
+      <c r="J148" s="46"/>
     </row>
     <row r="149" spans="1:10" ht="17.399999999999999">
       <c r="A149" s="31" t="s">
@@ -4611,13 +4653,13 @@
       <c r="E149" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F149" s="47" t="s">
+      <c r="F149" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G149" s="48"/>
-      <c r="H149" s="48"/>
-      <c r="I149" s="48"/>
-      <c r="J149" s="49"/>
+      <c r="G149" s="42"/>
+      <c r="H149" s="42"/>
+      <c r="I149" s="42"/>
+      <c r="J149" s="43"/>
     </row>
     <row r="150" spans="1:10" ht="17.399999999999999">
       <c r="A150" s="26"/>
@@ -4625,55 +4667,55 @@
       <c r="C150" s="27"/>
       <c r="D150" s="27"/>
       <c r="E150" s="20"/>
-      <c r="F150" s="39"/>
-      <c r="G150" s="40"/>
-      <c r="H150" s="40"/>
-      <c r="I150" s="40"/>
-      <c r="J150" s="41"/>
+      <c r="F150" s="44"/>
+      <c r="G150" s="45"/>
+      <c r="H150" s="45"/>
+      <c r="I150" s="45"/>
+      <c r="J150" s="46"/>
     </row>
     <row r="151" spans="1:10">
-      <c r="A151" s="42" t="s">
+      <c r="A151" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B151" s="42" t="s">
+      <c r="B151" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C151" s="42" t="s">
+      <c r="C151" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D151" s="44" t="s">
+      <c r="D151" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E151" s="42" t="s">
+      <c r="E151" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F151" s="42" t="s">
+      <c r="F151" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G151" s="42" t="s">
+      <c r="G151" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H151" s="42" t="s">
+      <c r="H151" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="I151" s="42" t="s">
+      <c r="I151" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J151" s="42" t="s">
+      <c r="J151" s="47" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:10">
-      <c r="A152" s="43"/>
-      <c r="B152" s="43"/>
-      <c r="C152" s="43"/>
-      <c r="D152" s="45"/>
-      <c r="E152" s="43"/>
-      <c r="F152" s="43"/>
-      <c r="G152" s="43"/>
-      <c r="H152" s="43"/>
-      <c r="I152" s="43"/>
-      <c r="J152" s="43"/>
+      <c r="A152" s="48"/>
+      <c r="B152" s="48"/>
+      <c r="C152" s="48"/>
+      <c r="D152" s="50"/>
+      <c r="E152" s="48"/>
+      <c r="F152" s="48"/>
+      <c r="G152" s="48"/>
+      <c r="H152" s="48"/>
+      <c r="I152" s="48"/>
+      <c r="J152" s="48"/>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="12" t="s">
@@ -4727,53 +4769,414 @@
       <c r="I155" s="12"/>
       <c r="J155" s="12"/>
     </row>
+    <row r="158" spans="1:10" ht="17.399999999999999">
+      <c r="A158" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B158" s="55"/>
+      <c r="C158" s="55"/>
+      <c r="D158" s="55"/>
+      <c r="E158" s="56"/>
+      <c r="F158" s="57"/>
+      <c r="G158" s="58"/>
+      <c r="H158" s="58"/>
+      <c r="I158" s="58"/>
+      <c r="J158" s="58"/>
+    </row>
+    <row r="159" spans="1:10" ht="17.399999999999999">
+      <c r="A159" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B159" s="60"/>
+      <c r="C159" s="60"/>
+      <c r="D159" s="60"/>
+      <c r="E159" s="61"/>
+      <c r="F159" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G159" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="H159" s="52"/>
+      <c r="I159" s="52"/>
+      <c r="J159" s="53"/>
+    </row>
+    <row r="160" spans="1:10" ht="17.399999999999999">
+      <c r="A160" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B160" s="43"/>
+      <c r="C160" s="21"/>
+      <c r="D160" s="21"/>
+      <c r="E160" s="22"/>
+      <c r="F160" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G160" s="51"/>
+      <c r="H160" s="52"/>
+      <c r="I160" s="52"/>
+      <c r="J160" s="53"/>
+    </row>
+    <row r="161" spans="1:10" ht="17.399999999999999">
+      <c r="A161" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B161" s="59"/>
+      <c r="C161" s="44"/>
+      <c r="D161" s="45"/>
+      <c r="E161" s="45"/>
+      <c r="F161" s="45"/>
+      <c r="G161" s="45"/>
+      <c r="H161" s="45"/>
+      <c r="I161" s="45"/>
+      <c r="J161" s="46"/>
+    </row>
+    <row r="162" spans="1:10" ht="17.399999999999999">
+      <c r="A162" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B162" s="59"/>
+      <c r="C162" s="44"/>
+      <c r="D162" s="45"/>
+      <c r="E162" s="45"/>
+      <c r="F162" s="45"/>
+      <c r="G162" s="45"/>
+      <c r="H162" s="45"/>
+      <c r="I162" s="45"/>
+      <c r="J162" s="46"/>
+    </row>
+    <row r="163" spans="1:10" ht="17.399999999999999">
+      <c r="A163" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B163" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C163" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D163" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E163" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F163" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G163" s="42"/>
+      <c r="H163" s="42"/>
+      <c r="I163" s="42"/>
+      <c r="J163" s="43"/>
+    </row>
+    <row r="164" spans="1:10" ht="17.399999999999999">
+      <c r="A164" s="26"/>
+      <c r="B164" s="26"/>
+      <c r="C164" s="27"/>
+      <c r="D164" s="27"/>
+      <c r="E164" s="20"/>
+      <c r="F164" s="44"/>
+      <c r="G164" s="45"/>
+      <c r="H164" s="45"/>
+      <c r="I164" s="45"/>
+      <c r="J164" s="46"/>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B165" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C165" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D165" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="E165" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="F165" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G165" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H165" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="I165" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="J165" s="47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" s="48"/>
+      <c r="B166" s="48"/>
+      <c r="C166" s="48"/>
+      <c r="D166" s="50"/>
+      <c r="E166" s="48"/>
+      <c r="F166" s="48"/>
+      <c r="G166" s="48"/>
+      <c r="H166" s="48"/>
+      <c r="I166" s="48"/>
+      <c r="J166" s="48"/>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B167" s="12"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G167" s="12"/>
+      <c r="H167" s="29"/>
+      <c r="I167" s="12"/>
+      <c r="J167" s="12"/>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B168" s="12"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="29"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="H169" s="29"/>
+      <c r="I169" s="12"/>
+      <c r="J169" s="12"/>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E170" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="H170" s="29"/>
+      <c r="I170" s="12"/>
+      <c r="J170" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="232">
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="A25:J26"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
+  <mergeCells count="254">
+    <mergeCell ref="F163:J163"/>
+    <mergeCell ref="F164:J164"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="D165:D166"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="G165:G166"/>
+    <mergeCell ref="H165:H166"/>
+    <mergeCell ref="I165:I166"/>
+    <mergeCell ref="J165:J166"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="F158:J158"/>
+    <mergeCell ref="B159:E159"/>
+    <mergeCell ref="G159:J159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="G160:J160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="C161:J161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="C162:J162"/>
+    <mergeCell ref="F150:J150"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:J147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="C148:J148"/>
+    <mergeCell ref="F149:J149"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="F144:J144"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="G145:J145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="G146:J146"/>
+    <mergeCell ref="F135:J135"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="H136:H137"/>
+    <mergeCell ref="I136:I137"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:J132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:J133"/>
+    <mergeCell ref="F134:J134"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="F129:J129"/>
+    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="G130:J130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="G131:J131"/>
+    <mergeCell ref="F119:J119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="I120:I121"/>
+    <mergeCell ref="J120:J121"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:J116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:J117"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="F113:J113"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="G114:J114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="G115:J115"/>
+    <mergeCell ref="F104:J104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:J101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:J102"/>
+    <mergeCell ref="F103:J103"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="F98:J98"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="G99:J99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="G100:J100"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="G81:J81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="G82:J82"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="G66:J66"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="G51:J51"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:J2"/>
@@ -4795,6 +5198,29 @@
     <mergeCell ref="F7:J8"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A25:J26"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="I23:J23"/>
@@ -4807,160 +5233,28 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="G66:J66"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="G81:J81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="G82:J82"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:J101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:J102"/>
-    <mergeCell ref="F103:J103"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="F98:J98"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="G99:J99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="G100:J100"/>
-    <mergeCell ref="F104:J104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="C116:J116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="C117:J117"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="F113:J113"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="G114:J114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="G115:J115"/>
-    <mergeCell ref="F119:J119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="I120:I121"/>
-    <mergeCell ref="J120:J121"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C132:J132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C133:J133"/>
-    <mergeCell ref="F134:J134"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="F129:J129"/>
-    <mergeCell ref="B130:E130"/>
-    <mergeCell ref="G130:J130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="G131:J131"/>
-    <mergeCell ref="F135:J135"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="H136:H137"/>
-    <mergeCell ref="I136:I137"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="C147:J147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="C148:J148"/>
-    <mergeCell ref="F149:J149"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="F144:J144"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="G145:J145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="G146:J146"/>
-    <mergeCell ref="F150:J150"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="J34:J35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4986,1193 +5280,1254 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="85"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="88"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
     </row>
     <row r="3" spans="1:10" ht="6" customHeight="1"/>
     <row r="4" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" s="32" customFormat="1" ht="13.2">
       <c r="A6" s="33"/>
     </row>
     <row r="7" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
     </row>
     <row r="9" spans="1:10" s="32" customFormat="1" ht="13.2">
       <c r="A9" s="33"/>
     </row>
     <row r="10" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
     </row>
     <row r="12" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
     </row>
     <row r="13" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
     </row>
     <row r="14" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
     </row>
     <row r="15" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
     </row>
     <row r="16" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
     </row>
     <row r="17" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
     </row>
     <row r="18" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
     </row>
     <row r="19" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
     </row>
     <row r="20" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
     </row>
     <row r="21" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
     </row>
     <row r="22" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
     </row>
     <row r="23" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
     </row>
     <row r="24" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
     </row>
     <row r="25" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A25" s="90" t="s">
+      <c r="A25" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
     </row>
     <row r="26" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
     </row>
     <row r="27" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A27" s="90" t="s">
+      <c r="A27" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
     </row>
     <row r="28" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
     </row>
     <row r="29" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A29" s="90" t="s">
+      <c r="A29" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
     </row>
     <row r="30" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A30" s="90" t="s">
+      <c r="A30" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
     </row>
     <row r="31" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A31" s="90" t="s">
+      <c r="A31" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
     </row>
     <row r="32" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A32" s="90" t="s">
+      <c r="A32" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
     </row>
     <row r="33" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
     </row>
     <row r="34" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A34" s="90" t="s">
+      <c r="A34" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
     </row>
     <row r="35" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A35" s="90" t="s">
+      <c r="A35" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
     </row>
     <row r="36" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A36" s="90" t="s">
+      <c r="A36" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="90"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
     </row>
     <row r="37" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A37" s="90" t="s">
+      <c r="A37" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
     </row>
     <row r="38" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A38" s="90" t="s">
+      <c r="A38" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="90"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
     </row>
     <row r="39" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A39" s="90" t="s">
+      <c r="A39" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="90"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
     </row>
     <row r="40" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A40" s="90" t="s">
+      <c r="A40" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="90"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
     </row>
     <row r="41" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A41" s="90" t="s">
+      <c r="A41" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="90"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="90"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
     </row>
     <row r="42" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A42" s="90" t="s">
+      <c r="A42" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="90"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="84"/>
     </row>
     <row r="43" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A43" s="90" t="s">
+      <c r="A43" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="90"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="90"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
     </row>
     <row r="44" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A44" s="90" t="s">
+      <c r="A44" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="90"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="90"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="84"/>
     </row>
     <row r="45" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A45" s="90" t="s">
+      <c r="A45" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="90"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="90"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="84"/>
     </row>
     <row r="46" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A46" s="90" t="s">
+      <c r="A46" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="90"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="90"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="90"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="84"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="84"/>
     </row>
     <row r="47" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A47" s="90" t="s">
+      <c r="A47" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="90"/>
-      <c r="C47" s="90"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="90"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="84"/>
     </row>
     <row r="48" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A48" s="90" t="s">
+      <c r="A48" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="90"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="90"/>
-      <c r="J48" s="90"/>
+      <c r="B48" s="84"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="84"/>
     </row>
     <row r="49" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A49" s="90" t="s">
+      <c r="A49" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="90"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="90"/>
-      <c r="J49" s="90"/>
+      <c r="B49" s="84"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
     </row>
     <row r="50" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A50" s="90" t="s">
+      <c r="A50" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="90"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="90"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="84"/>
     </row>
     <row r="51" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A51" s="90" t="s">
+      <c r="A51" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="90"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="90"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="84"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="84"/>
+      <c r="J51" s="84"/>
     </row>
     <row r="52" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A52" s="90" t="s">
+      <c r="A52" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="90"/>
-      <c r="C52" s="90"/>
-      <c r="D52" s="90"/>
-      <c r="E52" s="90"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="90"/>
-      <c r="H52" s="90"/>
-      <c r="I52" s="90"/>
-      <c r="J52" s="90"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="84"/>
     </row>
     <row r="53" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A53" s="90" t="s">
+      <c r="A53" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="B53" s="90"/>
-      <c r="C53" s="90"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="90"/>
-      <c r="H53" s="90"/>
-      <c r="I53" s="90"/>
-      <c r="J53" s="90"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="84"/>
     </row>
     <row r="54" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A54" s="90" t="s">
+      <c r="A54" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="90"/>
-      <c r="C54" s="90"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="90"/>
-      <c r="I54" s="90"/>
-      <c r="J54" s="90"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="84"/>
     </row>
     <row r="55" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A55" s="90" t="s">
+      <c r="A55" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="90"/>
-      <c r="C55" s="90"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="90"/>
-      <c r="H55" s="90"/>
-      <c r="I55" s="90"/>
-      <c r="J55" s="90"/>
+      <c r="B55" s="84"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="84"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="84"/>
+      <c r="J55" s="84"/>
     </row>
     <row r="56" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A56" s="90" t="s">
+      <c r="A56" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="90"/>
-      <c r="C56" s="90"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="90"/>
-      <c r="F56" s="90"/>
-      <c r="G56" s="90"/>
-      <c r="H56" s="90"/>
-      <c r="I56" s="90"/>
-      <c r="J56" s="90"/>
+      <c r="B56" s="84"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="84"/>
+      <c r="J56" s="84"/>
     </row>
     <row r="57" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A57" s="90" t="s">
+      <c r="A57" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="90"/>
-      <c r="C57" s="90"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90"/>
-      <c r="J57" s="90"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="84"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="84"/>
+      <c r="J57" s="84"/>
     </row>
     <row r="58" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A58" s="90" t="s">
+      <c r="A58" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="90"/>
-      <c r="C58" s="90"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="90"/>
-      <c r="H58" s="90"/>
-      <c r="I58" s="90"/>
-      <c r="J58" s="90"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="84"/>
+      <c r="H58" s="84"/>
+      <c r="I58" s="84"/>
+      <c r="J58" s="84"/>
     </row>
     <row r="59" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A59" s="90" t="s">
+      <c r="A59" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="90"/>
-      <c r="C59" s="90"/>
-      <c r="D59" s="90"/>
-      <c r="E59" s="90"/>
-      <c r="F59" s="90"/>
-      <c r="G59" s="90"/>
-      <c r="H59" s="90"/>
-      <c r="I59" s="90"/>
-      <c r="J59" s="90"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="84"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="84"/>
+      <c r="J59" s="84"/>
     </row>
     <row r="60" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A60" s="90" t="s">
+      <c r="A60" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="90"/>
-      <c r="C60" s="90"/>
-      <c r="D60" s="90"/>
-      <c r="E60" s="90"/>
-      <c r="F60" s="90"/>
-      <c r="G60" s="90"/>
-      <c r="H60" s="90"/>
-      <c r="I60" s="90"/>
-      <c r="J60" s="90"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="84"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="84"/>
+      <c r="J60" s="84"/>
     </row>
     <row r="61" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A61" s="90" t="s">
+      <c r="A61" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="B61" s="90"/>
-      <c r="C61" s="90"/>
-      <c r="D61" s="90"/>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="90"/>
-      <c r="H61" s="90"/>
-      <c r="I61" s="90"/>
-      <c r="J61" s="90"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="84"/>
+      <c r="H61" s="84"/>
+      <c r="I61" s="84"/>
+      <c r="J61" s="84"/>
     </row>
     <row r="62" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A62" s="90" t="s">
+      <c r="A62" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="90"/>
-      <c r="C62" s="90"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="90"/>
-      <c r="H62" s="90"/>
-      <c r="I62" s="90"/>
-      <c r="J62" s="90"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="84"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="84"/>
+      <c r="H62" s="84"/>
+      <c r="I62" s="84"/>
+      <c r="J62" s="84"/>
     </row>
     <row r="63" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A63" s="90" t="s">
+      <c r="A63" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="B63" s="90"/>
-      <c r="C63" s="90"/>
-      <c r="D63" s="90"/>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="90"/>
-      <c r="H63" s="90"/>
-      <c r="I63" s="90"/>
-      <c r="J63" s="90"/>
+      <c r="B63" s="84"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="84"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="84"/>
+      <c r="J63" s="84"/>
     </row>
     <row r="64" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A64" s="90" t="s">
+      <c r="A64" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="B64" s="90"/>
-      <c r="C64" s="90"/>
-      <c r="D64" s="90"/>
-      <c r="E64" s="90"/>
-      <c r="F64" s="90"/>
-      <c r="G64" s="90"/>
-      <c r="H64" s="90"/>
-      <c r="I64" s="90"/>
-      <c r="J64" s="90"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="84"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="84"/>
+      <c r="J64" s="84"/>
     </row>
     <row r="65" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A65" s="90" t="s">
+      <c r="A65" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="B65" s="90"/>
-      <c r="C65" s="90"/>
-      <c r="D65" s="90"/>
-      <c r="E65" s="90"/>
-      <c r="F65" s="90"/>
-      <c r="G65" s="90"/>
-      <c r="H65" s="90"/>
-      <c r="I65" s="90"/>
-      <c r="J65" s="90"/>
+      <c r="B65" s="84"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="84"/>
+      <c r="H65" s="84"/>
+      <c r="I65" s="84"/>
+      <c r="J65" s="84"/>
     </row>
     <row r="66" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A66" s="90" t="s">
+      <c r="A66" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="B66" s="90"/>
-      <c r="C66" s="90"/>
-      <c r="D66" s="90"/>
-      <c r="E66" s="90"/>
-      <c r="F66" s="90"/>
-      <c r="G66" s="90"/>
-      <c r="H66" s="90"/>
-      <c r="I66" s="90"/>
-      <c r="J66" s="90"/>
+      <c r="B66" s="84"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="84"/>
+      <c r="G66" s="84"/>
+      <c r="H66" s="84"/>
+      <c r="I66" s="84"/>
+      <c r="J66" s="84"/>
     </row>
     <row r="67" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A67" s="90" t="s">
+      <c r="A67" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="B67" s="90"/>
-      <c r="C67" s="90"/>
-      <c r="D67" s="90"/>
-      <c r="E67" s="90"/>
-      <c r="F67" s="90"/>
-      <c r="G67" s="90"/>
-      <c r="H67" s="90"/>
-      <c r="I67" s="90"/>
-      <c r="J67" s="90"/>
+      <c r="B67" s="84"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="84"/>
+      <c r="F67" s="84"/>
+      <c r="G67" s="84"/>
+      <c r="H67" s="84"/>
+      <c r="I67" s="84"/>
+      <c r="J67" s="84"/>
     </row>
     <row r="68" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A68" s="90" t="s">
+      <c r="A68" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="B68" s="90"/>
-      <c r="C68" s="90"/>
-      <c r="D68" s="90"/>
-      <c r="E68" s="90"/>
-      <c r="F68" s="90"/>
-      <c r="G68" s="90"/>
-      <c r="H68" s="90"/>
-      <c r="I68" s="90"/>
-      <c r="J68" s="90"/>
+      <c r="B68" s="84"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="84"/>
+      <c r="F68" s="84"/>
+      <c r="G68" s="84"/>
+      <c r="H68" s="84"/>
+      <c r="I68" s="84"/>
+      <c r="J68" s="84"/>
     </row>
     <row r="69" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A69" s="90" t="s">
+      <c r="A69" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="B69" s="90"/>
-      <c r="C69" s="90"/>
-      <c r="D69" s="90"/>
-      <c r="E69" s="90"/>
-      <c r="F69" s="90"/>
-      <c r="G69" s="90"/>
-      <c r="H69" s="90"/>
-      <c r="I69" s="90"/>
-      <c r="J69" s="90"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="84"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="84"/>
+      <c r="J69" s="84"/>
     </row>
     <row r="70" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A70" s="90" t="s">
+      <c r="A70" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="B70" s="90"/>
-      <c r="C70" s="90"/>
-      <c r="D70" s="90"/>
-      <c r="E70" s="90"/>
-      <c r="F70" s="90"/>
-      <c r="G70" s="90"/>
-      <c r="H70" s="90"/>
-      <c r="I70" s="90"/>
-      <c r="J70" s="90"/>
+      <c r="B70" s="84"/>
+      <c r="C70" s="84"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="84"/>
+      <c r="H70" s="84"/>
+      <c r="I70" s="84"/>
+      <c r="J70" s="84"/>
     </row>
     <row r="71" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A71" s="90" t="s">
+      <c r="A71" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="B71" s="90"/>
-      <c r="C71" s="90"/>
-      <c r="D71" s="90"/>
-      <c r="E71" s="90"/>
-      <c r="F71" s="90"/>
-      <c r="G71" s="90"/>
-      <c r="H71" s="90"/>
-      <c r="I71" s="90"/>
-      <c r="J71" s="90"/>
+      <c r="B71" s="84"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="84"/>
+      <c r="H71" s="84"/>
+      <c r="I71" s="84"/>
+      <c r="J71" s="84"/>
     </row>
     <row r="72" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A72" s="90" t="s">
+      <c r="A72" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="B72" s="90"/>
-      <c r="C72" s="90"/>
-      <c r="D72" s="90"/>
-      <c r="E72" s="90"/>
-      <c r="F72" s="90"/>
-      <c r="G72" s="90"/>
-      <c r="H72" s="90"/>
-      <c r="I72" s="90"/>
-      <c r="J72" s="90"/>
+      <c r="B72" s="84"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="84"/>
+      <c r="H72" s="84"/>
+      <c r="I72" s="84"/>
+      <c r="J72" s="84"/>
     </row>
     <row r="73" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A73" s="90" t="s">
+      <c r="A73" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="B73" s="90"/>
-      <c r="C73" s="90"/>
-      <c r="D73" s="90"/>
-      <c r="E73" s="90"/>
-      <c r="F73" s="90"/>
-      <c r="G73" s="90"/>
-      <c r="H73" s="90"/>
-      <c r="I73" s="90"/>
-      <c r="J73" s="90"/>
+      <c r="B73" s="84"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="84"/>
+      <c r="F73" s="84"/>
+      <c r="G73" s="84"/>
+      <c r="H73" s="84"/>
+      <c r="I73" s="84"/>
+      <c r="J73" s="84"/>
     </row>
     <row r="74" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A74" s="90" t="s">
+      <c r="A74" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="B74" s="90"/>
-      <c r="C74" s="90"/>
-      <c r="D74" s="90"/>
-      <c r="E74" s="90"/>
-      <c r="F74" s="90"/>
-      <c r="G74" s="90"/>
-      <c r="H74" s="90"/>
-      <c r="I74" s="90"/>
-      <c r="J74" s="90"/>
+      <c r="B74" s="84"/>
+      <c r="C74" s="84"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="84"/>
+      <c r="G74" s="84"/>
+      <c r="H74" s="84"/>
+      <c r="I74" s="84"/>
+      <c r="J74" s="84"/>
     </row>
     <row r="75" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A75" s="90" t="s">
+      <c r="A75" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="B75" s="90"/>
-      <c r="C75" s="90"/>
-      <c r="D75" s="90"/>
-      <c r="E75" s="90"/>
-      <c r="F75" s="90"/>
-      <c r="G75" s="90"/>
-      <c r="H75" s="90"/>
-      <c r="I75" s="90"/>
-      <c r="J75" s="90"/>
+      <c r="B75" s="84"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="84"/>
+      <c r="F75" s="84"/>
+      <c r="G75" s="84"/>
+      <c r="H75" s="84"/>
+      <c r="I75" s="84"/>
+      <c r="J75" s="84"/>
     </row>
     <row r="76" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A76" s="90" t="s">
+      <c r="A76" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="B76" s="90"/>
-      <c r="C76" s="90"/>
-      <c r="D76" s="90"/>
-      <c r="E76" s="90"/>
-      <c r="F76" s="90"/>
-      <c r="G76" s="90"/>
-      <c r="H76" s="90"/>
-      <c r="I76" s="90"/>
-      <c r="J76" s="90"/>
+      <c r="B76" s="84"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="84"/>
+      <c r="E76" s="84"/>
+      <c r="F76" s="84"/>
+      <c r="G76" s="84"/>
+      <c r="H76" s="84"/>
+      <c r="I76" s="84"/>
+      <c r="J76" s="84"/>
     </row>
     <row r="77" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A77" s="90" t="s">
+      <c r="A77" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="B77" s="90"/>
-      <c r="C77" s="90"/>
-      <c r="D77" s="90"/>
-      <c r="E77" s="90"/>
-      <c r="F77" s="90"/>
-      <c r="G77" s="90"/>
-      <c r="H77" s="90"/>
-      <c r="I77" s="90"/>
-      <c r="J77" s="90"/>
+      <c r="B77" s="84"/>
+      <c r="C77" s="84"/>
+      <c r="D77" s="84"/>
+      <c r="E77" s="84"/>
+      <c r="F77" s="84"/>
+      <c r="G77" s="84"/>
+      <c r="H77" s="84"/>
+      <c r="I77" s="84"/>
+      <c r="J77" s="84"/>
     </row>
     <row r="78" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A78" s="90" t="s">
+      <c r="A78" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="B78" s="90"/>
-      <c r="C78" s="90"/>
-      <c r="D78" s="90"/>
-      <c r="E78" s="90"/>
-      <c r="F78" s="90"/>
-      <c r="G78" s="90"/>
-      <c r="H78" s="90"/>
-      <c r="I78" s="90"/>
-      <c r="J78" s="90"/>
+      <c r="B78" s="84"/>
+      <c r="C78" s="84"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="84"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="84"/>
+      <c r="H78" s="84"/>
+      <c r="I78" s="84"/>
+      <c r="J78" s="84"/>
     </row>
     <row r="79" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A79" s="90" t="s">
+      <c r="A79" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="B79" s="90"/>
-      <c r="C79" s="90"/>
-      <c r="D79" s="90"/>
-      <c r="E79" s="90"/>
-      <c r="F79" s="90"/>
-      <c r="G79" s="90"/>
-      <c r="H79" s="90"/>
-      <c r="I79" s="90"/>
-      <c r="J79" s="90"/>
+      <c r="B79" s="84"/>
+      <c r="C79" s="84"/>
+      <c r="D79" s="84"/>
+      <c r="E79" s="84"/>
+      <c r="F79" s="84"/>
+      <c r="G79" s="84"/>
+      <c r="H79" s="84"/>
+      <c r="I79" s="84"/>
+      <c r="J79" s="84"/>
     </row>
     <row r="80" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A80" s="90" t="s">
+      <c r="A80" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="B80" s="90"/>
-      <c r="C80" s="90"/>
-      <c r="D80" s="90"/>
-      <c r="E80" s="90"/>
-      <c r="F80" s="90"/>
-      <c r="G80" s="90"/>
-      <c r="H80" s="90"/>
-      <c r="I80" s="90"/>
-      <c r="J80" s="90"/>
+      <c r="B80" s="84"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="84"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="84"/>
+      <c r="H80" s="84"/>
+      <c r="I80" s="84"/>
+      <c r="J80" s="84"/>
     </row>
     <row r="81" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A81" s="90" t="s">
+      <c r="A81" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="B81" s="90"/>
-      <c r="C81" s="90"/>
-      <c r="D81" s="90"/>
-      <c r="E81" s="90"/>
-      <c r="F81" s="90"/>
-      <c r="G81" s="90"/>
-      <c r="H81" s="90"/>
-      <c r="I81" s="90"/>
-      <c r="J81" s="90"/>
+      <c r="B81" s="84"/>
+      <c r="C81" s="84"/>
+      <c r="D81" s="84"/>
+      <c r="E81" s="84"/>
+      <c r="F81" s="84"/>
+      <c r="G81" s="84"/>
+      <c r="H81" s="84"/>
+      <c r="I81" s="84"/>
+      <c r="J81" s="84"/>
     </row>
     <row r="82" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A82" s="90" t="s">
+      <c r="A82" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="B82" s="90"/>
-      <c r="C82" s="90"/>
-      <c r="D82" s="90"/>
-      <c r="E82" s="90"/>
-      <c r="F82" s="90"/>
-      <c r="G82" s="90"/>
-      <c r="H82" s="90"/>
-      <c r="I82" s="90"/>
-      <c r="J82" s="90"/>
+      <c r="B82" s="84"/>
+      <c r="C82" s="84"/>
+      <c r="D82" s="84"/>
+      <c r="E82" s="84"/>
+      <c r="F82" s="84"/>
+      <c r="G82" s="84"/>
+      <c r="H82" s="84"/>
+      <c r="I82" s="84"/>
+      <c r="J82" s="84"/>
     </row>
     <row r="83" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A83" s="90" t="s">
+      <c r="A83" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="B83" s="90"/>
-      <c r="C83" s="90"/>
-      <c r="D83" s="90"/>
-      <c r="E83" s="90"/>
-      <c r="F83" s="90"/>
-      <c r="G83" s="90"/>
-      <c r="H83" s="90"/>
-      <c r="I83" s="90"/>
-      <c r="J83" s="90"/>
+      <c r="B83" s="84"/>
+      <c r="C83" s="84"/>
+      <c r="D83" s="84"/>
+      <c r="E83" s="84"/>
+      <c r="F83" s="84"/>
+      <c r="G83" s="84"/>
+      <c r="H83" s="84"/>
+      <c r="I83" s="84"/>
+      <c r="J83" s="84"/>
     </row>
     <row r="84" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A84" s="90" t="s">
+      <c r="A84" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="B84" s="90"/>
-      <c r="C84" s="90"/>
-      <c r="D84" s="90"/>
-      <c r="E84" s="90"/>
-      <c r="F84" s="90"/>
-      <c r="G84" s="90"/>
-      <c r="H84" s="90"/>
-      <c r="I84" s="90"/>
-      <c r="J84" s="90"/>
+      <c r="B84" s="84"/>
+      <c r="C84" s="84"/>
+      <c r="D84" s="84"/>
+      <c r="E84" s="84"/>
+      <c r="F84" s="84"/>
+      <c r="G84" s="84"/>
+      <c r="H84" s="84"/>
+      <c r="I84" s="84"/>
+      <c r="J84" s="84"/>
     </row>
     <row r="85" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A85" s="90" t="s">
+      <c r="A85" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="B85" s="90"/>
-      <c r="C85" s="90"/>
-      <c r="D85" s="90"/>
-      <c r="E85" s="90"/>
-      <c r="F85" s="90"/>
-      <c r="G85" s="90"/>
-      <c r="H85" s="90"/>
-      <c r="I85" s="90"/>
-      <c r="J85" s="90"/>
+      <c r="B85" s="84"/>
+      <c r="C85" s="84"/>
+      <c r="D85" s="84"/>
+      <c r="E85" s="84"/>
+      <c r="F85" s="84"/>
+      <c r="G85" s="84"/>
+      <c r="H85" s="84"/>
+      <c r="I85" s="84"/>
+      <c r="J85" s="84"/>
     </row>
     <row r="86" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A86" s="90" t="s">
+      <c r="A86" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="B86" s="90"/>
-      <c r="C86" s="90"/>
-      <c r="D86" s="90"/>
-      <c r="E86" s="90"/>
-      <c r="F86" s="90"/>
-      <c r="G86" s="90"/>
-      <c r="H86" s="90"/>
-      <c r="I86" s="90"/>
-      <c r="J86" s="90"/>
+      <c r="B86" s="84"/>
+      <c r="C86" s="84"/>
+      <c r="D86" s="84"/>
+      <c r="E86" s="84"/>
+      <c r="F86" s="84"/>
+      <c r="G86" s="84"/>
+      <c r="H86" s="84"/>
+      <c r="I86" s="84"/>
+      <c r="J86" s="84"/>
     </row>
     <row r="87" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A87" s="90" t="s">
+      <c r="A87" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="B87" s="90"/>
-      <c r="C87" s="90"/>
-      <c r="D87" s="90"/>
-      <c r="E87" s="90"/>
-      <c r="F87" s="90"/>
-      <c r="G87" s="90"/>
-      <c r="H87" s="90"/>
-      <c r="I87" s="90"/>
-      <c r="J87" s="90"/>
+      <c r="B87" s="84"/>
+      <c r="C87" s="84"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="84"/>
+      <c r="F87" s="84"/>
+      <c r="G87" s="84"/>
+      <c r="H87" s="84"/>
+      <c r="I87" s="84"/>
+      <c r="J87" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A83:J83"/>
-    <mergeCell ref="A84:J84"/>
-    <mergeCell ref="A85:J85"/>
-    <mergeCell ref="A86:J86"/>
-    <mergeCell ref="A87:J87"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="A69:J69"/>
     <mergeCell ref="A82:J82"/>
     <mergeCell ref="A71:J71"/>
     <mergeCell ref="A72:J72"/>
@@ -6185,72 +6540,11 @@
     <mergeCell ref="A79:J79"/>
     <mergeCell ref="A80:J80"/>
     <mergeCell ref="A81:J81"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A83:J83"/>
+    <mergeCell ref="A84:J84"/>
+    <mergeCell ref="A85:J85"/>
+    <mergeCell ref="A86:J86"/>
+    <mergeCell ref="A87:J87"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/05. 설계 - 데이터베이스_설계서.xlsx
+++ b/05. 설계 - 데이터베이스_설계서.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="206">
   <si>
     <t>내용</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -692,10 +692,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>memo_no</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -877,6 +873,30 @@
   </si>
   <si>
     <t>fk member(member_id)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_wdraw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(8)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_codedate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysdate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1525,6 +1545,12 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1534,12 +1560,6 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1570,6 +1590,27 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1579,124 +1620,103 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2148,14 +2168,14 @@
       <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="21">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:6" ht="18" thickBot="1">
       <c r="A3" s="11"/>
@@ -2178,151 +2198,161 @@
       <c r="D4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="37"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A5" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="F5" s="38"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A6" s="6"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A7" s="6"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A8" s="6"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A9" s="6"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A10" s="6"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A11" s="6"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A12" s="6"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A13" s="6"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A14" s="6"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A15" s="6"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A16" s="6"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A17" s="6"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A18" s="6"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A19" s="6"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="16.2" thickBot="1">
       <c r="A20" s="4"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
@@ -2331,16 +2361,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2355,10 +2375,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J170"/>
+  <dimension ref="A1:J173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F155" sqref="F155"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C178" sqref="C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2374,54 +2394,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="71"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:10" ht="17.399999999999999">
       <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
       <c r="F2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="64" t="s">
-        <v>187</v>
-      </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="72"/>
+      <c r="G2" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="18" thickBot="1">
       <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="74" t="s">
-        <v>188</v>
-      </c>
-      <c r="H3" s="74"/>
+      <c r="G3" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="H3" s="68"/>
       <c r="I3" s="16" t="s">
         <v>10</v>
       </c>
@@ -2430,78 +2450,78 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
     </row>
     <row r="6" spans="1:10" ht="17.399999999999999">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="78" t="s">
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="61"/>
+      <c r="C8" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="83"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999">
-      <c r="A9" s="75"/>
-      <c r="B9" s="75"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="44"/>
       <c r="D9" s="45"/>
       <c r="E9" s="46"/>
@@ -2512,8 +2532,8 @@
       <c r="J9" s="46"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="44"/>
       <c r="D10" s="45"/>
       <c r="E10" s="46"/>
@@ -2524,55 +2544,55 @@
       <c r="J10" s="46"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="66"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="66"/>
+      <c r="E14" s="75"/>
       <c r="F14" s="25" t="s">
         <v>128</v>
       </c>
@@ -2580,18 +2600,18 @@
         <v>25</v>
       </c>
       <c r="H14" s="43"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="60"/>
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="41" t="s">
         <v>27</v>
       </c>
@@ -2609,189 +2629,189 @@
       <c r="C16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="63"/>
+      <c r="E16" s="83"/>
       <c r="F16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="63" t="s">
+      <c r="G16" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63" t="s">
+      <c r="H16" s="83"/>
+      <c r="I16" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="63"/>
+      <c r="J16" s="83"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="64"/>
+      <c r="E17" s="65"/>
       <c r="F17" s="27"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="64"/>
+      <c r="E18" s="65"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="64"/>
+      <c r="E19" s="65"/>
       <c r="F19" s="27"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="27"/>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="64"/>
+      <c r="E20" s="65"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="27"/>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="64"/>
+      <c r="E21" s="65"/>
       <c r="F21" s="27"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="64"/>
+      <c r="E22" s="65"/>
       <c r="F22" s="27"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="E23" s="64"/>
+      <c r="E23" s="65"/>
       <c r="F23" s="27"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="E24" s="64"/>
+      <c r="E24" s="65"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
     </row>
     <row r="27" spans="1:10" ht="17.399999999999999">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
     </row>
     <row r="28" spans="1:10" ht="17.399999999999999">
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="61"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
       <c r="F28" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="51" t="s">
+      <c r="G28" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="53"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="60"/>
     </row>
     <row r="29" spans="1:10" ht="17.399999999999999">
       <c r="A29" s="41" t="s">
@@ -2804,16 +2824,16 @@
       <c r="F29" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="51"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="53"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="60"/>
     </row>
     <row r="30" spans="1:10" ht="17.399999999999999">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="59"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="44"/>
       <c r="D30" s="45"/>
       <c r="E30" s="45"/>
@@ -2824,12 +2844,12 @@
       <c r="J30" s="46"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="59"/>
+      <c r="B31" s="61"/>
       <c r="C31" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D31" s="45"/>
       <c r="E31" s="45"/>
@@ -3048,15 +3068,15 @@
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>148</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="29"/>
-      <c r="I43" s="12"/>
+      <c r="I43" s="12">
+        <v>0</v>
+      </c>
       <c r="J43" s="12"/>
     </row>
     <row r="44" spans="1:10">
@@ -3109,73 +3129,77 @@
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
     </row>
-    <row r="49" spans="1:10" ht="17.399999999999999">
-      <c r="A49" s="54" t="s">
+    <row r="47" spans="1:10">
+      <c r="A47" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12">
+        <v>0</v>
+      </c>
+      <c r="J47" s="12"/>
+    </row>
+    <row r="50" spans="1:10" ht="17.399999999999999">
+      <c r="A50" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-    </row>
-    <row r="50" spans="1:10" ht="17.399999999999999">
-      <c r="A50" s="31" t="s">
+      <c r="B50" s="52"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+    </row>
+    <row r="51" spans="1:10" ht="17.399999999999999">
+      <c r="A51" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="31" t="s">
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G50" s="51" t="s">
+      <c r="G51" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="H50" s="52"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="53"/>
-    </row>
-    <row r="51" spans="1:10" ht="17.399999999999999">
-      <c r="A51" s="41" t="s">
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="60"/>
+    </row>
+    <row r="52" spans="1:10" ht="17.399999999999999">
+      <c r="A52" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="31" t="s">
+      <c r="B52" s="43"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G51" s="51"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="53"/>
-    </row>
-    <row r="52" spans="1:10" ht="17.399999999999999">
-      <c r="A52" s="59" t="s">
+      <c r="G52" s="58"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="60"/>
+    </row>
+    <row r="53" spans="1:10" ht="17.399999999999999">
+      <c r="A53" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="59"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="46"/>
-    </row>
-    <row r="53" spans="1:10" ht="17.399999999999999">
-      <c r="A53" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="59"/>
+      <c r="B53" s="61"/>
       <c r="C53" s="44"/>
       <c r="D53" s="45"/>
       <c r="E53" s="45"/>
@@ -3186,124 +3210,120 @@
       <c r="J53" s="46"/>
     </row>
     <row r="54" spans="1:10" ht="17.399999999999999">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="61"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="46"/>
+    </row>
+    <row r="55" spans="1:10" ht="17.399999999999999">
+      <c r="A55" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B55" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C55" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D55" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E55" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F54" s="41" t="s">
+      <c r="F55" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="43"/>
-    </row>
-    <row r="55" spans="1:10" ht="17.399999999999999">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="46"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="47" t="s">
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="43"/>
+    </row>
+    <row r="56" spans="1:10" ht="17.399999999999999">
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="46"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="47" t="s">
+      <c r="B57" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C57" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="49" t="s">
+      <c r="D57" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E56" s="47" t="s">
+      <c r="E57" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F56" s="47" t="s">
+      <c r="F57" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="47" t="s">
+      <c r="G57" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H56" s="47" t="s">
+      <c r="H57" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="I56" s="47" t="s">
+      <c r="I57" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J56" s="47" t="s">
+      <c r="J57" s="47" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="48"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="48"/>
-    </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G58" s="12"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
+      <c r="A58" s="48"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="12" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12" t="s">
-        <v>159</v>
-      </c>
+      <c r="F59" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G59" s="12"/>
       <c r="H59" s="29"/>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="12" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -3313,7 +3333,7 @@
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H60" s="29"/>
       <c r="I60" s="12"/>
@@ -3321,7 +3341,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -3330,78 +3350,82 @@
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
+      <c r="G61" s="12" t="s">
+        <v>158</v>
+      </c>
       <c r="H61" s="29"/>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
     </row>
-    <row r="64" spans="1:10" ht="17.399999999999999">
-      <c r="A64" s="54" t="s">
+    <row r="62" spans="1:10">
+      <c r="A62" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+    </row>
+    <row r="65" spans="1:10" ht="17.399999999999999">
+      <c r="A65" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="55"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
-      <c r="J64" s="58"/>
-    </row>
-    <row r="65" spans="1:10" ht="17.399999999999999">
-      <c r="A65" s="31" t="s">
+      <c r="B65" s="52"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="55"/>
+    </row>
+    <row r="66" spans="1:10" ht="17.399999999999999">
+      <c r="A66" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="60"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="31" t="s">
+      <c r="B66" s="56"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G65" s="51" t="s">
+      <c r="G66" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="53"/>
-    </row>
-    <row r="66" spans="1:10" ht="17.399999999999999">
-      <c r="A66" s="41" t="s">
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="60"/>
+    </row>
+    <row r="67" spans="1:10" ht="17.399999999999999">
+      <c r="A67" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B66" s="43"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="31" t="s">
+      <c r="B67" s="43"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G66" s="51"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="52"/>
-      <c r="J66" s="53"/>
-    </row>
-    <row r="67" spans="1:10" ht="17.399999999999999">
-      <c r="A67" s="59" t="s">
+      <c r="G67" s="58"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="60"/>
+    </row>
+    <row r="68" spans="1:10" ht="17.399999999999999">
+      <c r="A68" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B67" s="59"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="46"/>
-    </row>
-    <row r="68" spans="1:10" ht="17.399999999999999">
-      <c r="A68" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B68" s="59"/>
+      <c r="B68" s="61"/>
       <c r="C68" s="44"/>
       <c r="D68" s="45"/>
       <c r="E68" s="45"/>
@@ -3412,116 +3436,112 @@
       <c r="J68" s="46"/>
     </row>
     <row r="69" spans="1:10" ht="17.399999999999999">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="61"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="45"/>
+      <c r="J69" s="46"/>
+    </row>
+    <row r="70" spans="1:10" ht="17.399999999999999">
+      <c r="A70" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B70" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C70" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D69" s="31" t="s">
+      <c r="D70" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="30" t="s">
+      <c r="E70" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F69" s="41" t="s">
+      <c r="F70" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="43"/>
-    </row>
-    <row r="70" spans="1:10" ht="17.399999999999999">
-      <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="45"/>
-      <c r="J70" s="46"/>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="47" t="s">
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="43"/>
+    </row>
+    <row r="71" spans="1:10" ht="17.399999999999999">
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="45"/>
+      <c r="J71" s="46"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B71" s="47" t="s">
+      <c r="B72" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C71" s="47" t="s">
+      <c r="C72" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D71" s="49" t="s">
+      <c r="D72" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E71" s="47" t="s">
+      <c r="E72" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F71" s="47" t="s">
+      <c r="F72" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G71" s="47" t="s">
+      <c r="G72" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H71" s="47" t="s">
+      <c r="H72" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="I71" s="47" t="s">
+      <c r="I72" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J71" s="47" t="s">
+      <c r="J72" s="47" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="48"/>
-      <c r="B72" s="48"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="48"/>
-    </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G73" s="12"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
+      <c r="A73" s="48"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="48"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E74" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="F74" s="12"/>
       <c r="G74" s="12"/>
       <c r="H74" s="29"/>
       <c r="I74" s="12"/>
@@ -3529,14 +3549,16 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E75" s="12"/>
+        <v>150</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>148</v>
+      </c>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
       <c r="H75" s="29"/>
@@ -3545,16 +3567,14 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>148</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E76" s="12"/>
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
       <c r="H76" s="29"/>
@@ -3563,294 +3583,292 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="E77" s="12"/>
+        <v>165</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>148</v>
+      </c>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
       <c r="H77" s="29"/>
-      <c r="I77" s="12" t="s">
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="J77" s="12"/>
-    </row>
-    <row r="80" spans="1:10" ht="17.399999999999999">
-      <c r="A80" s="54" t="s">
+      <c r="J78" s="12"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="J80" s="12"/>
+    </row>
+    <row r="83" spans="1:10" ht="17.399999999999999">
+      <c r="A83" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="55"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="57"/>
-      <c r="G80" s="58"/>
-      <c r="H80" s="58"/>
-      <c r="I80" s="58"/>
-      <c r="J80" s="58"/>
-    </row>
-    <row r="81" spans="1:10" ht="17.399999999999999">
-      <c r="A81" s="31" t="s">
+      <c r="B83" s="52"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="55"/>
+      <c r="I83" s="55"/>
+      <c r="J83" s="55"/>
+    </row>
+    <row r="84" spans="1:10" ht="17.399999999999999">
+      <c r="A84" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B81" s="60"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="60"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="31" t="s">
+      <c r="B84" s="56"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G81" s="51" t="s">
+      <c r="G84" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="H81" s="52"/>
-      <c r="I81" s="52"/>
-      <c r="J81" s="53"/>
-    </row>
-    <row r="82" spans="1:10" ht="17.399999999999999">
-      <c r="A82" s="41" t="s">
+      <c r="H84" s="59"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="60"/>
+    </row>
+    <row r="85" spans="1:10" ht="17.399999999999999">
+      <c r="A85" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B82" s="43"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="31" t="s">
+      <c r="B85" s="43"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G82" s="51"/>
-      <c r="H82" s="52"/>
-      <c r="I82" s="52"/>
-      <c r="J82" s="53"/>
-    </row>
-    <row r="83" spans="1:10" ht="17.399999999999999">
-      <c r="A83" s="59" t="s">
+      <c r="G85" s="58"/>
+      <c r="H85" s="59"/>
+      <c r="I85" s="59"/>
+      <c r="J85" s="60"/>
+    </row>
+    <row r="86" spans="1:10" ht="17.399999999999999">
+      <c r="A86" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B83" s="59"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="45"/>
-      <c r="F83" s="45"/>
-      <c r="G83" s="45"/>
-      <c r="H83" s="45"/>
-      <c r="I83" s="45"/>
-      <c r="J83" s="46"/>
-    </row>
-    <row r="84" spans="1:10" ht="17.399999999999999">
-      <c r="A84" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B84" s="59"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="45"/>
-      <c r="J84" s="46"/>
-    </row>
-    <row r="85" spans="1:10" ht="17.399999999999999">
-      <c r="A85" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C85" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D85" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E85" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F85" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" s="42"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="43"/>
-    </row>
-    <row r="86" spans="1:10" ht="17.399999999999999">
-      <c r="A86" s="26"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="44"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="45"/>
       <c r="G86" s="45"/>
       <c r="H86" s="45"/>
       <c r="I86" s="45"/>
       <c r="J86" s="46"/>
     </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="47" t="s">
+    <row r="87" spans="1:10" ht="17.399999999999999">
+      <c r="A87" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" s="61"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="45"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="45"/>
+      <c r="I87" s="45"/>
+      <c r="J87" s="46"/>
+    </row>
+    <row r="88" spans="1:10" ht="17.399999999999999">
+      <c r="A88" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D88" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="43"/>
+    </row>
+    <row r="89" spans="1:10" ht="17.399999999999999">
+      <c r="A89" s="26"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="45"/>
+      <c r="H89" s="45"/>
+      <c r="I89" s="45"/>
+      <c r="J89" s="46"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B87" s="47" t="s">
+      <c r="B90" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C87" s="47" t="s">
+      <c r="C90" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D87" s="49" t="s">
+      <c r="D90" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E87" s="47" t="s">
+      <c r="E90" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F87" s="47" t="s">
+      <c r="F90" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G87" s="47" t="s">
+      <c r="G90" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H87" s="47" t="s">
+      <c r="H90" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="I87" s="47" t="s">
+      <c r="I90" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J87" s="47" t="s">
+      <c r="J90" s="47" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
-      <c r="A88" s="48"/>
-      <c r="B88" s="48"/>
-      <c r="C88" s="48"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="48"/>
-      <c r="F88" s="48"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="48"/>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="H89" s="29"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G90" s="12"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-    </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="H91" s="29"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
+      <c r="A91" s="48"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="48"/>
+      <c r="I91" s="48"/>
+      <c r="J91" s="48"/>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="12" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
       <c r="D92" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>148</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E92" s="12"/>
       <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
+      <c r="G92" s="12" t="s">
+        <v>171</v>
+      </c>
       <c r="H92" s="29"/>
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
       <c r="D93" s="12" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
+      <c r="F93" s="12" t="s">
+        <v>148</v>
+      </c>
       <c r="G93" s="12"/>
       <c r="H93" s="29"/>
-      <c r="I93" s="12" t="s">
-        <v>149</v>
-      </c>
+      <c r="I93" s="12"/>
       <c r="J93" s="12"/>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="12" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
       <c r="D94" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
+      <c r="G94" s="12" t="s">
+        <v>158</v>
+      </c>
       <c r="H94" s="29"/>
-      <c r="I94" s="12" t="s">
-        <v>149</v>
-      </c>
+      <c r="I94" s="12"/>
       <c r="J94" s="12"/>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
       <c r="D95" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>148</v>
@@ -3861,1354 +3879,1222 @@
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
     </row>
-    <row r="98" spans="1:10" ht="17.399999999999999">
-      <c r="A98" s="54" t="s">
+    <row r="96" spans="1:10">
+      <c r="A96" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="J96" s="12"/>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="J97" s="12"/>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+    </row>
+    <row r="101" spans="1:10" ht="17.399999999999999">
+      <c r="A101" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B98" s="55"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="55"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="57"/>
-      <c r="G98" s="58"/>
-      <c r="H98" s="58"/>
-      <c r="I98" s="58"/>
-      <c r="J98" s="58"/>
-    </row>
-    <row r="99" spans="1:10" ht="17.399999999999999">
-      <c r="A99" s="31" t="s">
+      <c r="B101" s="52"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="52"/>
+      <c r="E101" s="53"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="55"/>
+      <c r="H101" s="55"/>
+      <c r="I101" s="55"/>
+      <c r="J101" s="55"/>
+    </row>
+    <row r="102" spans="1:10" ht="17.399999999999999">
+      <c r="A102" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B99" s="60"/>
-      <c r="C99" s="60"/>
-      <c r="D99" s="60"/>
-      <c r="E99" s="61"/>
-      <c r="F99" s="31" t="s">
+      <c r="B102" s="56"/>
+      <c r="C102" s="56"/>
+      <c r="D102" s="56"/>
+      <c r="E102" s="57"/>
+      <c r="F102" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G99" s="51" t="s">
+      <c r="G102" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="H99" s="52"/>
-      <c r="I99" s="52"/>
-      <c r="J99" s="53"/>
-    </row>
-    <row r="100" spans="1:10" ht="17.399999999999999">
-      <c r="A100" s="41" t="s">
+      <c r="H102" s="59"/>
+      <c r="I102" s="59"/>
+      <c r="J102" s="60"/>
+    </row>
+    <row r="103" spans="1:10" ht="17.399999999999999">
+      <c r="A103" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B100" s="43"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="31" t="s">
+      <c r="B103" s="43"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G100" s="51"/>
-      <c r="H100" s="52"/>
-      <c r="I100" s="52"/>
-      <c r="J100" s="53"/>
-    </row>
-    <row r="101" spans="1:10" ht="17.399999999999999">
-      <c r="A101" s="59" t="s">
+      <c r="G103" s="58"/>
+      <c r="H103" s="59"/>
+      <c r="I103" s="59"/>
+      <c r="J103" s="60"/>
+    </row>
+    <row r="104" spans="1:10" ht="17.399999999999999">
+      <c r="A104" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B101" s="59"/>
-      <c r="C101" s="44"/>
-      <c r="D101" s="45"/>
-      <c r="E101" s="45"/>
-      <c r="F101" s="45"/>
-      <c r="G101" s="45"/>
-      <c r="H101" s="45"/>
-      <c r="I101" s="45"/>
-      <c r="J101" s="46"/>
-    </row>
-    <row r="102" spans="1:10" ht="17.399999999999999">
-      <c r="A102" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B102" s="59"/>
-      <c r="C102" s="44"/>
-      <c r="D102" s="45"/>
-      <c r="E102" s="45"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="45"/>
-      <c r="H102" s="45"/>
-      <c r="I102" s="45"/>
-      <c r="J102" s="46"/>
-    </row>
-    <row r="103" spans="1:10" ht="17.399999999999999">
-      <c r="A103" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C103" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D103" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E103" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F103" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" s="42"/>
-      <c r="H103" s="42"/>
-      <c r="I103" s="42"/>
-      <c r="J103" s="43"/>
-    </row>
-    <row r="104" spans="1:10" ht="17.399999999999999">
-      <c r="A104" s="26"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="44"/>
+      <c r="B104" s="61"/>
+      <c r="C104" s="44"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="45"/>
+      <c r="F104" s="45"/>
       <c r="G104" s="45"/>
       <c r="H104" s="45"/>
       <c r="I104" s="45"/>
       <c r="J104" s="46"/>
     </row>
-    <row r="105" spans="1:10">
-      <c r="A105" s="47" t="s">
+    <row r="105" spans="1:10" ht="17.399999999999999">
+      <c r="A105" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B105" s="61"/>
+      <c r="C105" s="44"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="45"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="45"/>
+      <c r="I105" s="45"/>
+      <c r="J105" s="46"/>
+    </row>
+    <row r="106" spans="1:10" ht="17.399999999999999">
+      <c r="A106" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C106" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D106" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E106" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G106" s="42"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="43"/>
+    </row>
+    <row r="107" spans="1:10" ht="17.399999999999999">
+      <c r="A107" s="26"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="44"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="45"/>
+      <c r="I107" s="45"/>
+      <c r="J107" s="46"/>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B105" s="47" t="s">
+      <c r="B108" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C105" s="47" t="s">
+      <c r="C108" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D105" s="49" t="s">
+      <c r="D108" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E105" s="47" t="s">
+      <c r="E108" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F105" s="47" t="s">
+      <c r="F108" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G105" s="47" t="s">
+      <c r="G108" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H105" s="47" t="s">
+      <c r="H108" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="I105" s="47" t="s">
+      <c r="I108" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J105" s="47" t="s">
+      <c r="J108" s="47" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
-      <c r="A106" s="48"/>
-      <c r="B106" s="48"/>
-      <c r="C106" s="48"/>
-      <c r="D106" s="50"/>
-      <c r="E106" s="48"/>
-      <c r="F106" s="48"/>
-      <c r="G106" s="48"/>
-      <c r="H106" s="48"/>
-      <c r="I106" s="48"/>
-      <c r="J106" s="48"/>
-    </row>
-    <row r="107" spans="1:10">
-      <c r="A107" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H107" s="29"/>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
-    </row>
-    <row r="108" spans="1:10">
-      <c r="A108" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="B108" s="12"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="H108" s="29"/>
-      <c r="I108" s="12"/>
-      <c r="J108" s="12"/>
-    </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="H109" s="29"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
+      <c r="A109" s="48"/>
+      <c r="B109" s="48"/>
+      <c r="C109" s="48"/>
+      <c r="D109" s="50"/>
+      <c r="E109" s="48"/>
+      <c r="F109" s="48"/>
+      <c r="G109" s="48"/>
+      <c r="H109" s="48"/>
+      <c r="I109" s="48"/>
+      <c r="J109" s="48"/>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="12" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
       <c r="D110" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E110" s="12"/>
-      <c r="F110" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="H110" s="29"/>
       <c r="I110" s="12"/>
       <c r="J110" s="12"/>
     </row>
-    <row r="113" spans="1:10" ht="17.399999999999999">
-      <c r="A113" s="54" t="s">
+    <row r="111" spans="1:10">
+      <c r="A111" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H111" s="29"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H112" s="29"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G113" s="12"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+    </row>
+    <row r="116" spans="1:10" ht="17.399999999999999">
+      <c r="A116" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B113" s="55"/>
-      <c r="C113" s="55"/>
-      <c r="D113" s="55"/>
-      <c r="E113" s="56"/>
-      <c r="F113" s="57"/>
-      <c r="G113" s="58"/>
-      <c r="H113" s="58"/>
-      <c r="I113" s="58"/>
-      <c r="J113" s="58"/>
-    </row>
-    <row r="114" spans="1:10" ht="17.399999999999999">
-      <c r="A114" s="31" t="s">
+      <c r="B116" s="52"/>
+      <c r="C116" s="52"/>
+      <c r="D116" s="52"/>
+      <c r="E116" s="53"/>
+      <c r="F116" s="54"/>
+      <c r="G116" s="55"/>
+      <c r="H116" s="55"/>
+      <c r="I116" s="55"/>
+      <c r="J116" s="55"/>
+    </row>
+    <row r="117" spans="1:10" ht="17.399999999999999">
+      <c r="A117" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B114" s="60"/>
-      <c r="C114" s="60"/>
-      <c r="D114" s="60"/>
-      <c r="E114" s="61"/>
-      <c r="F114" s="31" t="s">
+      <c r="B117" s="56"/>
+      <c r="C117" s="56"/>
+      <c r="D117" s="56"/>
+      <c r="E117" s="57"/>
+      <c r="F117" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G114" s="51" t="s">
+      <c r="G117" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="H114" s="52"/>
-      <c r="I114" s="52"/>
-      <c r="J114" s="53"/>
-    </row>
-    <row r="115" spans="1:10" ht="17.399999999999999">
-      <c r="A115" s="41" t="s">
+      <c r="H117" s="59"/>
+      <c r="I117" s="59"/>
+      <c r="J117" s="60"/>
+    </row>
+    <row r="118" spans="1:10" ht="17.399999999999999">
+      <c r="A118" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B115" s="43"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="31" t="s">
+      <c r="B118" s="43"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G115" s="51"/>
-      <c r="H115" s="52"/>
-      <c r="I115" s="52"/>
-      <c r="J115" s="53"/>
-    </row>
-    <row r="116" spans="1:10" ht="17.399999999999999">
-      <c r="A116" s="59" t="s">
+      <c r="G118" s="58"/>
+      <c r="H118" s="59"/>
+      <c r="I118" s="59"/>
+      <c r="J118" s="60"/>
+    </row>
+    <row r="119" spans="1:10" ht="17.399999999999999">
+      <c r="A119" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B116" s="59"/>
-      <c r="C116" s="44"/>
-      <c r="D116" s="45"/>
-      <c r="E116" s="45"/>
-      <c r="F116" s="45"/>
-      <c r="G116" s="45"/>
-      <c r="H116" s="45"/>
-      <c r="I116" s="45"/>
-      <c r="J116" s="46"/>
-    </row>
-    <row r="117" spans="1:10" ht="17.399999999999999">
-      <c r="A117" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B117" s="59"/>
-      <c r="C117" s="44"/>
-      <c r="D117" s="45"/>
-      <c r="E117" s="45"/>
-      <c r="F117" s="45"/>
-      <c r="G117" s="45"/>
-      <c r="H117" s="45"/>
-      <c r="I117" s="45"/>
-      <c r="J117" s="46"/>
-    </row>
-    <row r="118" spans="1:10" ht="17.399999999999999">
-      <c r="A118" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C118" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D118" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E118" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F118" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" s="42"/>
-      <c r="H118" s="42"/>
-      <c r="I118" s="42"/>
-      <c r="J118" s="43"/>
-    </row>
-    <row r="119" spans="1:10" ht="17.399999999999999">
-      <c r="A119" s="26"/>
-      <c r="B119" s="26"/>
-      <c r="C119" s="27"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="44"/>
+      <c r="B119" s="61"/>
+      <c r="C119" s="44"/>
+      <c r="D119" s="45"/>
+      <c r="E119" s="45"/>
+      <c r="F119" s="45"/>
       <c r="G119" s="45"/>
       <c r="H119" s="45"/>
       <c r="I119" s="45"/>
       <c r="J119" s="46"/>
     </row>
-    <row r="120" spans="1:10">
-      <c r="A120" s="47" t="s">
+    <row r="120" spans="1:10" ht="17.399999999999999">
+      <c r="A120" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B120" s="61"/>
+      <c r="C120" s="44"/>
+      <c r="D120" s="45"/>
+      <c r="E120" s="45"/>
+      <c r="F120" s="45"/>
+      <c r="G120" s="45"/>
+      <c r="H120" s="45"/>
+      <c r="I120" s="45"/>
+      <c r="J120" s="46"/>
+    </row>
+    <row r="121" spans="1:10" ht="17.399999999999999">
+      <c r="A121" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C121" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D121" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E121" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F121" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G121" s="42"/>
+      <c r="H121" s="42"/>
+      <c r="I121" s="42"/>
+      <c r="J121" s="43"/>
+    </row>
+    <row r="122" spans="1:10" ht="17.399999999999999">
+      <c r="A122" s="26"/>
+      <c r="B122" s="26"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="27"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="45"/>
+      <c r="H122" s="45"/>
+      <c r="I122" s="45"/>
+      <c r="J122" s="46"/>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B120" s="47" t="s">
+      <c r="B123" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C120" s="47" t="s">
+      <c r="C123" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D120" s="49" t="s">
+      <c r="D123" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E120" s="47" t="s">
+      <c r="E123" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F120" s="47" t="s">
+      <c r="F123" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G120" s="47" t="s">
+      <c r="G123" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H120" s="47" t="s">
+      <c r="H123" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="I120" s="47" t="s">
+      <c r="I123" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J120" s="47" t="s">
+      <c r="J123" s="47" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
-      <c r="A121" s="48"/>
-      <c r="B121" s="48"/>
-      <c r="C121" s="48"/>
-      <c r="D121" s="50"/>
-      <c r="E121" s="48"/>
-      <c r="F121" s="48"/>
-      <c r="G121" s="48"/>
-      <c r="H121" s="48"/>
-      <c r="I121" s="48"/>
-      <c r="J121" s="48"/>
-    </row>
-    <row r="122" spans="1:10">
-      <c r="A122" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B122" s="12"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E122" s="12"/>
-      <c r="F122" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G122" s="12"/>
-      <c r="H122" s="29"/>
-      <c r="I122" s="12"/>
-      <c r="J122" s="12"/>
-    </row>
-    <row r="123" spans="1:10">
-      <c r="A123" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B123" s="12"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E123" s="12"/>
-      <c r="F123" s="12"/>
-      <c r="G123" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H123" s="29"/>
-      <c r="I123" s="12"/>
-      <c r="J123" s="12"/>
-    </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B124" s="12"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E124" s="12"/>
-      <c r="F124" s="12"/>
-      <c r="G124" s="12"/>
-      <c r="H124" s="29"/>
-      <c r="I124" s="12"/>
-      <c r="J124" s="12"/>
+      <c r="A124" s="48"/>
+      <c r="B124" s="48"/>
+      <c r="C124" s="48"/>
+      <c r="D124" s="50"/>
+      <c r="E124" s="48"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="48"/>
+      <c r="J124" s="48"/>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
       <c r="D125" s="12" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E125" s="12"/>
-      <c r="F125" s="12"/>
+      <c r="F125" s="12" t="s">
+        <v>148</v>
+      </c>
       <c r="G125" s="12"/>
       <c r="H125" s="29"/>
-      <c r="I125" s="12" t="s">
-        <v>149</v>
-      </c>
+      <c r="I125" s="12"/>
       <c r="J125" s="12"/>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="12" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
       <c r="D126" s="12" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
       <c r="G126" s="12" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="H126" s="29"/>
       <c r="I126" s="12"/>
       <c r="J126" s="12"/>
     </row>
-    <row r="129" spans="1:10" ht="17.399999999999999">
-      <c r="A129" s="54" t="s">
+    <row r="127" spans="1:10">
+      <c r="A127" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="29"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="12"/>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="29"/>
+      <c r="I128" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="J128" s="12"/>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H129" s="29"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+    </row>
+    <row r="132" spans="1:10" ht="17.399999999999999">
+      <c r="A132" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B129" s="55"/>
-      <c r="C129" s="55"/>
-      <c r="D129" s="55"/>
-      <c r="E129" s="56"/>
-      <c r="F129" s="57"/>
-      <c r="G129" s="58"/>
-      <c r="H129" s="58"/>
-      <c r="I129" s="58"/>
-      <c r="J129" s="58"/>
-    </row>
-    <row r="130" spans="1:10" ht="17.399999999999999">
-      <c r="A130" s="31" t="s">
+      <c r="B132" s="52"/>
+      <c r="C132" s="52"/>
+      <c r="D132" s="52"/>
+      <c r="E132" s="53"/>
+      <c r="F132" s="54"/>
+      <c r="G132" s="55"/>
+      <c r="H132" s="55"/>
+      <c r="I132" s="55"/>
+      <c r="J132" s="55"/>
+    </row>
+    <row r="133" spans="1:10" ht="17.399999999999999">
+      <c r="A133" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B130" s="60"/>
-      <c r="C130" s="60"/>
-      <c r="D130" s="60"/>
-      <c r="E130" s="61"/>
-      <c r="F130" s="31" t="s">
+      <c r="B133" s="56"/>
+      <c r="C133" s="56"/>
+      <c r="D133" s="56"/>
+      <c r="E133" s="57"/>
+      <c r="F133" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G130" s="51" t="s">
+      <c r="G133" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="H130" s="52"/>
-      <c r="I130" s="52"/>
-      <c r="J130" s="53"/>
-    </row>
-    <row r="131" spans="1:10" ht="17.399999999999999">
-      <c r="A131" s="41" t="s">
+      <c r="H133" s="59"/>
+      <c r="I133" s="59"/>
+      <c r="J133" s="60"/>
+    </row>
+    <row r="134" spans="1:10" ht="17.399999999999999">
+      <c r="A134" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B131" s="43"/>
-      <c r="C131" s="21"/>
-      <c r="D131" s="21"/>
-      <c r="E131" s="22"/>
-      <c r="F131" s="31" t="s">
+      <c r="B134" s="43"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G131" s="51"/>
-      <c r="H131" s="52"/>
-      <c r="I131" s="52"/>
-      <c r="J131" s="53"/>
-    </row>
-    <row r="132" spans="1:10" ht="17.399999999999999">
-      <c r="A132" s="59" t="s">
+      <c r="G134" s="58"/>
+      <c r="H134" s="59"/>
+      <c r="I134" s="59"/>
+      <c r="J134" s="60"/>
+    </row>
+    <row r="135" spans="1:10" ht="17.399999999999999">
+      <c r="A135" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B132" s="59"/>
-      <c r="C132" s="44"/>
-      <c r="D132" s="45"/>
-      <c r="E132" s="45"/>
-      <c r="F132" s="45"/>
-      <c r="G132" s="45"/>
-      <c r="H132" s="45"/>
-      <c r="I132" s="45"/>
-      <c r="J132" s="46"/>
-    </row>
-    <row r="133" spans="1:10" ht="17.399999999999999">
-      <c r="A133" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B133" s="59"/>
-      <c r="C133" s="44"/>
-      <c r="D133" s="45"/>
-      <c r="E133" s="45"/>
-      <c r="F133" s="45"/>
-      <c r="G133" s="45"/>
-      <c r="H133" s="45"/>
-      <c r="I133" s="45"/>
-      <c r="J133" s="46"/>
-    </row>
-    <row r="134" spans="1:10" ht="17.399999999999999">
-      <c r="A134" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C134" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D134" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E134" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F134" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" s="42"/>
-      <c r="H134" s="42"/>
-      <c r="I134" s="42"/>
-      <c r="J134" s="43"/>
-    </row>
-    <row r="135" spans="1:10" ht="17.399999999999999">
-      <c r="A135" s="26"/>
-      <c r="B135" s="26"/>
-      <c r="C135" s="27"/>
-      <c r="D135" s="27"/>
-      <c r="E135" s="20"/>
-      <c r="F135" s="44"/>
+      <c r="B135" s="61"/>
+      <c r="C135" s="44"/>
+      <c r="D135" s="45"/>
+      <c r="E135" s="45"/>
+      <c r="F135" s="45"/>
       <c r="G135" s="45"/>
       <c r="H135" s="45"/>
       <c r="I135" s="45"/>
       <c r="J135" s="46"/>
     </row>
-    <row r="136" spans="1:10">
-      <c r="A136" s="47" t="s">
+    <row r="136" spans="1:10" ht="17.399999999999999">
+      <c r="A136" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B136" s="61"/>
+      <c r="C136" s="44"/>
+      <c r="D136" s="45"/>
+      <c r="E136" s="45"/>
+      <c r="F136" s="45"/>
+      <c r="G136" s="45"/>
+      <c r="H136" s="45"/>
+      <c r="I136" s="45"/>
+      <c r="J136" s="46"/>
+    </row>
+    <row r="137" spans="1:10" ht="17.399999999999999">
+      <c r="A137" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C137" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D137" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E137" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F137" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G137" s="42"/>
+      <c r="H137" s="42"/>
+      <c r="I137" s="42"/>
+      <c r="J137" s="43"/>
+    </row>
+    <row r="138" spans="1:10" ht="17.399999999999999">
+      <c r="A138" s="26"/>
+      <c r="B138" s="26"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="27"/>
+      <c r="E138" s="20"/>
+      <c r="F138" s="44"/>
+      <c r="G138" s="45"/>
+      <c r="H138" s="45"/>
+      <c r="I138" s="45"/>
+      <c r="J138" s="46"/>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B136" s="47" t="s">
+      <c r="B139" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C136" s="47" t="s">
+      <c r="C139" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D136" s="49" t="s">
+      <c r="D139" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E136" s="47" t="s">
+      <c r="E139" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F136" s="47" t="s">
+      <c r="F139" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G136" s="47" t="s">
+      <c r="G139" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H136" s="47" t="s">
+      <c r="H139" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="I136" s="47" t="s">
+      <c r="I139" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J136" s="47" t="s">
+      <c r="J139" s="47" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
-      <c r="A137" s="48"/>
-      <c r="B137" s="48"/>
-      <c r="C137" s="48"/>
-      <c r="D137" s="50"/>
-      <c r="E137" s="48"/>
-      <c r="F137" s="48"/>
-      <c r="G137" s="48"/>
-      <c r="H137" s="48"/>
-      <c r="I137" s="48"/>
-      <c r="J137" s="48"/>
-    </row>
-    <row r="138" spans="1:10">
-      <c r="A138" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E138" s="12"/>
-      <c r="F138" s="12"/>
-      <c r="G138" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="H138" s="29"/>
-      <c r="I138" s="12"/>
-      <c r="J138" s="12"/>
-    </row>
-    <row r="139" spans="1:10">
-      <c r="A139" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E139" s="12"/>
-      <c r="F139" s="12"/>
-      <c r="G139" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="H139" s="29"/>
-      <c r="I139" s="12"/>
-      <c r="J139" s="12"/>
-    </row>
     <row r="140" spans="1:10">
-      <c r="A140" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E140" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F140" s="12"/>
-      <c r="G140" s="12"/>
-      <c r="H140" s="29"/>
-      <c r="I140" s="12"/>
-      <c r="J140" s="12"/>
+      <c r="A140" s="48"/>
+      <c r="B140" s="48"/>
+      <c r="C140" s="48"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="48"/>
+      <c r="F140" s="48"/>
+      <c r="G140" s="48"/>
+      <c r="H140" s="48"/>
+      <c r="I140" s="48"/>
+      <c r="J140" s="48"/>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="12" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
       <c r="D141" s="12" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
-      <c r="G141" s="12"/>
+      <c r="G141" s="12" t="s">
+        <v>171</v>
+      </c>
       <c r="H141" s="29"/>
-      <c r="I141" s="12" t="s">
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H142" s="29"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B143" s="12"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="29"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="29"/>
+      <c r="I144" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="J141" s="12"/>
-    </row>
-    <row r="144" spans="1:10" ht="17.399999999999999">
-      <c r="A144" s="54" t="s">
+      <c r="J144" s="12"/>
+    </row>
+    <row r="147" spans="1:10" ht="17.399999999999999">
+      <c r="A147" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B144" s="55"/>
-      <c r="C144" s="55"/>
-      <c r="D144" s="55"/>
-      <c r="E144" s="56"/>
-      <c r="F144" s="57"/>
-      <c r="G144" s="58"/>
-      <c r="H144" s="58"/>
-      <c r="I144" s="58"/>
-      <c r="J144" s="58"/>
-    </row>
-    <row r="145" spans="1:10" ht="17.399999999999999">
-      <c r="A145" s="31" t="s">
+      <c r="B147" s="52"/>
+      <c r="C147" s="52"/>
+      <c r="D147" s="52"/>
+      <c r="E147" s="53"/>
+      <c r="F147" s="54"/>
+      <c r="G147" s="55"/>
+      <c r="H147" s="55"/>
+      <c r="I147" s="55"/>
+      <c r="J147" s="55"/>
+    </row>
+    <row r="148" spans="1:10" ht="17.399999999999999">
+      <c r="A148" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B145" s="60"/>
-      <c r="C145" s="60"/>
-      <c r="D145" s="60"/>
-      <c r="E145" s="61"/>
-      <c r="F145" s="31" t="s">
+      <c r="B148" s="56"/>
+      <c r="C148" s="56"/>
+      <c r="D148" s="56"/>
+      <c r="E148" s="57"/>
+      <c r="F148" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G145" s="51" t="s">
+      <c r="G148" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="H145" s="52"/>
-      <c r="I145" s="52"/>
-      <c r="J145" s="53"/>
-    </row>
-    <row r="146" spans="1:10" ht="17.399999999999999">
-      <c r="A146" s="41" t="s">
+      <c r="H148" s="59"/>
+      <c r="I148" s="59"/>
+      <c r="J148" s="60"/>
+    </row>
+    <row r="149" spans="1:10" ht="17.399999999999999">
+      <c r="A149" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B146" s="43"/>
-      <c r="C146" s="21"/>
-      <c r="D146" s="21"/>
-      <c r="E146" s="22"/>
-      <c r="F146" s="31" t="s">
+      <c r="B149" s="43"/>
+      <c r="C149" s="21"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="22"/>
+      <c r="F149" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G146" s="51"/>
-      <c r="H146" s="52"/>
-      <c r="I146" s="52"/>
-      <c r="J146" s="53"/>
-    </row>
-    <row r="147" spans="1:10" ht="17.399999999999999">
-      <c r="A147" s="59" t="s">
+      <c r="G149" s="58"/>
+      <c r="H149" s="59"/>
+      <c r="I149" s="59"/>
+      <c r="J149" s="60"/>
+    </row>
+    <row r="150" spans="1:10" ht="17.399999999999999">
+      <c r="A150" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B147" s="59"/>
-      <c r="C147" s="44"/>
-      <c r="D147" s="45"/>
-      <c r="E147" s="45"/>
-      <c r="F147" s="45"/>
-      <c r="G147" s="45"/>
-      <c r="H147" s="45"/>
-      <c r="I147" s="45"/>
-      <c r="J147" s="46"/>
-    </row>
-    <row r="148" spans="1:10" ht="17.399999999999999">
-      <c r="A148" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B148" s="59"/>
-      <c r="C148" s="44"/>
-      <c r="D148" s="45"/>
-      <c r="E148" s="45"/>
-      <c r="F148" s="45"/>
-      <c r="G148" s="45"/>
-      <c r="H148" s="45"/>
-      <c r="I148" s="45"/>
-      <c r="J148" s="46"/>
-    </row>
-    <row r="149" spans="1:10" ht="17.399999999999999">
-      <c r="A149" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B149" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C149" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D149" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E149" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F149" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G149" s="42"/>
-      <c r="H149" s="42"/>
-      <c r="I149" s="42"/>
-      <c r="J149" s="43"/>
-    </row>
-    <row r="150" spans="1:10" ht="17.399999999999999">
-      <c r="A150" s="26"/>
-      <c r="B150" s="26"/>
-      <c r="C150" s="27"/>
-      <c r="D150" s="27"/>
-      <c r="E150" s="20"/>
-      <c r="F150" s="44"/>
+      <c r="B150" s="61"/>
+      <c r="C150" s="44"/>
+      <c r="D150" s="45"/>
+      <c r="E150" s="45"/>
+      <c r="F150" s="45"/>
       <c r="G150" s="45"/>
       <c r="H150" s="45"/>
       <c r="I150" s="45"/>
       <c r="J150" s="46"/>
     </row>
-    <row r="151" spans="1:10">
-      <c r="A151" s="47" t="s">
+    <row r="151" spans="1:10" ht="17.399999999999999">
+      <c r="A151" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B151" s="61"/>
+      <c r="C151" s="44"/>
+      <c r="D151" s="45"/>
+      <c r="E151" s="45"/>
+      <c r="F151" s="45"/>
+      <c r="G151" s="45"/>
+      <c r="H151" s="45"/>
+      <c r="I151" s="45"/>
+      <c r="J151" s="46"/>
+    </row>
+    <row r="152" spans="1:10" ht="17.399999999999999">
+      <c r="A152" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C152" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D152" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E152" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F152" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G152" s="42"/>
+      <c r="H152" s="42"/>
+      <c r="I152" s="42"/>
+      <c r="J152" s="43"/>
+    </row>
+    <row r="153" spans="1:10" ht="17.399999999999999">
+      <c r="A153" s="26"/>
+      <c r="B153" s="26"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="27"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="44"/>
+      <c r="G153" s="45"/>
+      <c r="H153" s="45"/>
+      <c r="I153" s="45"/>
+      <c r="J153" s="46"/>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B151" s="47" t="s">
+      <c r="B154" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C151" s="47" t="s">
+      <c r="C154" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D151" s="49" t="s">
+      <c r="D154" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E151" s="47" t="s">
+      <c r="E154" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F151" s="47" t="s">
+      <c r="F154" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G151" s="47" t="s">
+      <c r="G154" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H151" s="47" t="s">
+      <c r="H154" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="I151" s="47" t="s">
+      <c r="I154" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J151" s="47" t="s">
+      <c r="J154" s="47" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
-      <c r="A152" s="48"/>
-      <c r="B152" s="48"/>
-      <c r="C152" s="48"/>
-      <c r="D152" s="50"/>
-      <c r="E152" s="48"/>
-      <c r="F152" s="48"/>
-      <c r="G152" s="48"/>
-      <c r="H152" s="48"/>
-      <c r="I152" s="48"/>
-      <c r="J152" s="48"/>
-    </row>
-    <row r="153" spans="1:10">
-      <c r="A153" s="12" t="s">
+    <row r="155" spans="1:10">
+      <c r="A155" s="48"/>
+      <c r="B155" s="48"/>
+      <c r="C155" s="48"/>
+      <c r="D155" s="50"/>
+      <c r="E155" s="48"/>
+      <c r="F155" s="48"/>
+      <c r="G155" s="48"/>
+      <c r="H155" s="48"/>
+      <c r="I155" s="48"/>
+      <c r="J155" s="48"/>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B156" s="12"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G156" s="12"/>
+      <c r="H156" s="29"/>
+      <c r="I156" s="12"/>
+      <c r="J156" s="12"/>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B153" s="12"/>
-      <c r="C153" s="12"/>
-      <c r="D153" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E153" s="12"/>
-      <c r="F153" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G153" s="12"/>
-      <c r="H153" s="29"/>
-      <c r="I153" s="12"/>
-      <c r="J153" s="12"/>
-    </row>
-    <row r="154" spans="1:10">
-      <c r="A154" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B154" s="12"/>
-      <c r="C154" s="12"/>
-      <c r="D154" s="12" t="s">
+      <c r="B157" s="12"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="29"/>
+      <c r="I157" s="12"/>
+      <c r="J157" s="12"/>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="E154" s="12"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="12"/>
-      <c r="H154" s="29"/>
-      <c r="I154" s="12"/>
-      <c r="J154" s="12"/>
-    </row>
-    <row r="155" spans="1:10">
-      <c r="A155" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B155" s="12"/>
-      <c r="C155" s="12"/>
-      <c r="D155" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E155" s="12"/>
-      <c r="F155" s="12"/>
-      <c r="G155" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H155" s="29"/>
-      <c r="I155" s="12"/>
-      <c r="J155" s="12"/>
-    </row>
-    <row r="158" spans="1:10" ht="17.399999999999999">
-      <c r="A158" s="54" t="s">
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H158" s="29"/>
+      <c r="I158" s="12"/>
+      <c r="J158" s="12"/>
+    </row>
+    <row r="161" spans="1:10" ht="17.399999999999999">
+      <c r="A161" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B158" s="55"/>
-      <c r="C158" s="55"/>
-      <c r="D158" s="55"/>
-      <c r="E158" s="56"/>
-      <c r="F158" s="57"/>
-      <c r="G158" s="58"/>
-      <c r="H158" s="58"/>
-      <c r="I158" s="58"/>
-      <c r="J158" s="58"/>
-    </row>
-    <row r="159" spans="1:10" ht="17.399999999999999">
-      <c r="A159" s="35" t="s">
+      <c r="B161" s="52"/>
+      <c r="C161" s="52"/>
+      <c r="D161" s="52"/>
+      <c r="E161" s="53"/>
+      <c r="F161" s="54"/>
+      <c r="G161" s="55"/>
+      <c r="H161" s="55"/>
+      <c r="I161" s="55"/>
+      <c r="J161" s="55"/>
+    </row>
+    <row r="162" spans="1:10" ht="17.399999999999999">
+      <c r="A162" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B159" s="60"/>
-      <c r="C159" s="60"/>
-      <c r="D159" s="60"/>
-      <c r="E159" s="61"/>
-      <c r="F159" s="35" t="s">
+      <c r="B162" s="56"/>
+      <c r="C162" s="56"/>
+      <c r="D162" s="56"/>
+      <c r="E162" s="57"/>
+      <c r="F162" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G159" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="H159" s="52"/>
-      <c r="I159" s="52"/>
-      <c r="J159" s="53"/>
-    </row>
-    <row r="160" spans="1:10" ht="17.399999999999999">
-      <c r="A160" s="41" t="s">
+      <c r="G162" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="H162" s="59"/>
+      <c r="I162" s="59"/>
+      <c r="J162" s="60"/>
+    </row>
+    <row r="163" spans="1:10" ht="17.399999999999999">
+      <c r="A163" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B160" s="43"/>
-      <c r="C160" s="21"/>
-      <c r="D160" s="21"/>
-      <c r="E160" s="22"/>
-      <c r="F160" s="35" t="s">
+      <c r="B163" s="43"/>
+      <c r="C163" s="21"/>
+      <c r="D163" s="21"/>
+      <c r="E163" s="22"/>
+      <c r="F163" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G160" s="51"/>
-      <c r="H160" s="52"/>
-      <c r="I160" s="52"/>
-      <c r="J160" s="53"/>
-    </row>
-    <row r="161" spans="1:10" ht="17.399999999999999">
-      <c r="A161" s="59" t="s">
+      <c r="G163" s="58"/>
+      <c r="H163" s="59"/>
+      <c r="I163" s="59"/>
+      <c r="J163" s="60"/>
+    </row>
+    <row r="164" spans="1:10" ht="17.399999999999999">
+      <c r="A164" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B161" s="59"/>
-      <c r="C161" s="44"/>
-      <c r="D161" s="45"/>
-      <c r="E161" s="45"/>
-      <c r="F161" s="45"/>
-      <c r="G161" s="45"/>
-      <c r="H161" s="45"/>
-      <c r="I161" s="45"/>
-      <c r="J161" s="46"/>
-    </row>
-    <row r="162" spans="1:10" ht="17.399999999999999">
-      <c r="A162" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B162" s="59"/>
-      <c r="C162" s="44"/>
-      <c r="D162" s="45"/>
-      <c r="E162" s="45"/>
-      <c r="F162" s="45"/>
-      <c r="G162" s="45"/>
-      <c r="H162" s="45"/>
-      <c r="I162" s="45"/>
-      <c r="J162" s="46"/>
-    </row>
-    <row r="163" spans="1:10" ht="17.399999999999999">
-      <c r="A163" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B163" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C163" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D163" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E163" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="F163" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G163" s="42"/>
-      <c r="H163" s="42"/>
-      <c r="I163" s="42"/>
-      <c r="J163" s="43"/>
-    </row>
-    <row r="164" spans="1:10" ht="17.399999999999999">
-      <c r="A164" s="26"/>
-      <c r="B164" s="26"/>
-      <c r="C164" s="27"/>
-      <c r="D164" s="27"/>
-      <c r="E164" s="20"/>
-      <c r="F164" s="44"/>
+      <c r="B164" s="61"/>
+      <c r="C164" s="44"/>
+      <c r="D164" s="45"/>
+      <c r="E164" s="45"/>
+      <c r="F164" s="45"/>
       <c r="G164" s="45"/>
       <c r="H164" s="45"/>
       <c r="I164" s="45"/>
       <c r="J164" s="46"/>
     </row>
-    <row r="165" spans="1:10">
-      <c r="A165" s="47" t="s">
+    <row r="165" spans="1:10" ht="17.399999999999999">
+      <c r="A165" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B165" s="61"/>
+      <c r="C165" s="44"/>
+      <c r="D165" s="45"/>
+      <c r="E165" s="45"/>
+      <c r="F165" s="45"/>
+      <c r="G165" s="45"/>
+      <c r="H165" s="45"/>
+      <c r="I165" s="45"/>
+      <c r="J165" s="46"/>
+    </row>
+    <row r="166" spans="1:10" ht="17.399999999999999">
+      <c r="A166" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B166" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C166" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D166" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E166" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F166" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G166" s="42"/>
+      <c r="H166" s="42"/>
+      <c r="I166" s="42"/>
+      <c r="J166" s="43"/>
+    </row>
+    <row r="167" spans="1:10" ht="17.399999999999999">
+      <c r="A167" s="26"/>
+      <c r="B167" s="26"/>
+      <c r="C167" s="27"/>
+      <c r="D167" s="27"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="44"/>
+      <c r="G167" s="45"/>
+      <c r="H167" s="45"/>
+      <c r="I167" s="45"/>
+      <c r="J167" s="46"/>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B165" s="47" t="s">
+      <c r="B168" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C165" s="47" t="s">
+      <c r="C168" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D165" s="49" t="s">
+      <c r="D168" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E165" s="47" t="s">
+      <c r="E168" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F165" s="47" t="s">
+      <c r="F168" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G165" s="47" t="s">
+      <c r="G168" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H165" s="47" t="s">
+      <c r="H168" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="I165" s="47" t="s">
+      <c r="I168" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J165" s="47" t="s">
+      <c r="J168" s="47" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
-      <c r="A166" s="48"/>
-      <c r="B166" s="48"/>
-      <c r="C166" s="48"/>
-      <c r="D166" s="50"/>
-      <c r="E166" s="48"/>
-      <c r="F166" s="48"/>
-      <c r="G166" s="48"/>
-      <c r="H166" s="48"/>
-      <c r="I166" s="48"/>
-      <c r="J166" s="48"/>
-    </row>
-    <row r="167" spans="1:10">
-      <c r="A167" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B167" s="12"/>
-      <c r="C167" s="12"/>
-      <c r="D167" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E167" s="12"/>
-      <c r="F167" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G167" s="12"/>
-      <c r="H167" s="29"/>
-      <c r="I167" s="12"/>
-      <c r="J167" s="12"/>
-    </row>
-    <row r="168" spans="1:10">
-      <c r="A168" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B168" s="12"/>
-      <c r="C168" s="12"/>
-      <c r="D168" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E168" s="12"/>
-      <c r="F168" s="12"/>
-      <c r="G168" s="12"/>
-      <c r="H168" s="29"/>
-      <c r="I168" s="12"/>
-      <c r="J168" s="12"/>
-    </row>
     <row r="169" spans="1:10">
-      <c r="A169" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B169" s="12"/>
-      <c r="C169" s="12"/>
-      <c r="D169" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E169" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="F169" s="12"/>
-      <c r="G169" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="H169" s="29"/>
-      <c r="I169" s="12"/>
-      <c r="J169" s="12"/>
+      <c r="A169" s="48"/>
+      <c r="B169" s="48"/>
+      <c r="C169" s="48"/>
+      <c r="D169" s="50"/>
+      <c r="E169" s="48"/>
+      <c r="F169" s="48"/>
+      <c r="G169" s="48"/>
+      <c r="H169" s="48"/>
+      <c r="I169" s="48"/>
+      <c r="J169" s="48"/>
     </row>
     <row r="170" spans="1:10">
       <c r="A170" s="12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
       <c r="D170" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E170" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="F170" s="12"/>
-      <c r="G170" s="12" t="s">
-        <v>200</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G170" s="12"/>
       <c r="H170" s="29"/>
       <c r="I170" s="12"/>
       <c r="J170" s="12"/>
     </row>
+    <row r="171" spans="1:10">
+      <c r="A171" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="29"/>
+      <c r="I171" s="12"/>
+      <c r="J171" s="12"/>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B172" s="12"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E172" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F172" s="12"/>
+      <c r="G172" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="H172" s="29"/>
+      <c r="I172" s="12"/>
+      <c r="J172" s="12"/>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B173" s="12"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F173" s="12"/>
+      <c r="G173" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="H173" s="29"/>
+      <c r="I173" s="12"/>
+      <c r="J173" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="254">
-    <mergeCell ref="F163:J163"/>
-    <mergeCell ref="F164:J164"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="D165:D166"/>
-    <mergeCell ref="E165:E166"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="G165:G166"/>
-    <mergeCell ref="H165:H166"/>
-    <mergeCell ref="I165:I166"/>
-    <mergeCell ref="J165:J166"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="F158:J158"/>
-    <mergeCell ref="B159:E159"/>
-    <mergeCell ref="G159:J159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="G160:J160"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="C161:J161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="C162:J162"/>
-    <mergeCell ref="F150:J150"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="J151:J152"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="C147:J147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="C148:J148"/>
-    <mergeCell ref="F149:J149"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="F144:J144"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="G145:J145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="G146:J146"/>
-    <mergeCell ref="F135:J135"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="H136:H137"/>
-    <mergeCell ref="I136:I137"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C132:J132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C133:J133"/>
-    <mergeCell ref="F134:J134"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="F129:J129"/>
-    <mergeCell ref="B130:E130"/>
-    <mergeCell ref="G130:J130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="G131:J131"/>
-    <mergeCell ref="F119:J119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="I120:I121"/>
-    <mergeCell ref="J120:J121"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="C116:J116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="C117:J117"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="F113:J113"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="G114:J114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="G115:J115"/>
-    <mergeCell ref="F104:J104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:J101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:J102"/>
-    <mergeCell ref="F103:J103"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="F98:J98"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="G99:J99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="G100:J100"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="G81:J81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="G82:J82"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="G66:J66"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="A11:J12"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:J8"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="B28:E28"/>
     <mergeCell ref="A25:J26"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="D16:E16"/>
@@ -5233,28 +5119,214 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A11:J12"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:J8"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="G66:J66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="F89:J89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:J104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:J105"/>
+    <mergeCell ref="F106:J106"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="G102:J102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="G103:J103"/>
+    <mergeCell ref="F107:J107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:J119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:J120"/>
+    <mergeCell ref="F121:J121"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="F116:J116"/>
+    <mergeCell ref="B117:E117"/>
+    <mergeCell ref="G117:J117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="G118:J118"/>
+    <mergeCell ref="F122:J122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:J135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:J136"/>
+    <mergeCell ref="F137:J137"/>
+    <mergeCell ref="A132:E132"/>
+    <mergeCell ref="F132:J132"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="G133:J133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="G134:J134"/>
+    <mergeCell ref="F138:J138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:J150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:J151"/>
+    <mergeCell ref="F152:J152"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="F147:J147"/>
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="G148:J148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="G149:J149"/>
+    <mergeCell ref="F153:J153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="F154:F155"/>
+    <mergeCell ref="G154:G155"/>
+    <mergeCell ref="H154:H155"/>
+    <mergeCell ref="I154:I155"/>
+    <mergeCell ref="J154:J155"/>
+    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="F161:J161"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="G162:J162"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="G163:J163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="C164:J164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="C165:J165"/>
+    <mergeCell ref="F166:J166"/>
+    <mergeCell ref="F167:J167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="F168:F169"/>
+    <mergeCell ref="G168:G169"/>
+    <mergeCell ref="H168:H169"/>
+    <mergeCell ref="I168:I169"/>
+    <mergeCell ref="J168:J169"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5280,1194 +5352,1253 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="87"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
     </row>
     <row r="3" spans="1:10" ht="6" customHeight="1"/>
     <row r="4" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" s="32" customFormat="1" ht="13.2">
       <c r="A6" s="33"/>
     </row>
     <row r="7" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
     </row>
     <row r="8" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
     </row>
     <row r="9" spans="1:10" s="32" customFormat="1" ht="13.2">
       <c r="A9" s="33"/>
     </row>
     <row r="10" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
     </row>
     <row r="11" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
     </row>
     <row r="12" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
     </row>
     <row r="13" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
     </row>
     <row r="14" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
     </row>
     <row r="15" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
     </row>
     <row r="16" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
     </row>
     <row r="17" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
     </row>
     <row r="18" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
     </row>
     <row r="19" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
     </row>
     <row r="20" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
     </row>
     <row r="21" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
     </row>
     <row r="22" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
     </row>
     <row r="23" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A23" s="84" t="s">
+      <c r="A23" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
     </row>
     <row r="24" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
     </row>
     <row r="25" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
     </row>
     <row r="26" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
     </row>
     <row r="27" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
     </row>
     <row r="28" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A28" s="84" t="s">
+      <c r="A28" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
     </row>
     <row r="29" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
     </row>
     <row r="30" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
     </row>
     <row r="31" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
     </row>
     <row r="32" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A32" s="84" t="s">
+      <c r="A32" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
     </row>
     <row r="33" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
     </row>
     <row r="34" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
     </row>
     <row r="35" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
     </row>
     <row r="36" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A36" s="84" t="s">
+      <c r="A36" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="92"/>
     </row>
     <row r="37" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
     </row>
     <row r="38" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A38" s="84" t="s">
+      <c r="A38" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92"/>
     </row>
     <row r="39" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A39" s="84" t="s">
+      <c r="A39" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
     </row>
     <row r="40" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
     </row>
     <row r="41" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A41" s="84" t="s">
+      <c r="A41" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="92"/>
     </row>
     <row r="42" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A42" s="84" t="s">
+      <c r="A42" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="84"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="92"/>
+      <c r="J42" s="92"/>
     </row>
     <row r="43" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="84"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="92"/>
     </row>
     <row r="44" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="84"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="92"/>
     </row>
     <row r="45" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A45" s="84" t="s">
+      <c r="A45" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="84"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
     </row>
     <row r="46" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A46" s="84" t="s">
+      <c r="A46" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="92"/>
+      <c r="H46" s="92"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="92"/>
     </row>
     <row r="47" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A47" s="84" t="s">
+      <c r="A47" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="84"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="92"/>
+      <c r="H47" s="92"/>
+      <c r="I47" s="92"/>
+      <c r="J47" s="92"/>
     </row>
     <row r="48" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="84"/>
-      <c r="J48" s="84"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="92"/>
+      <c r="J48" s="92"/>
     </row>
     <row r="49" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A49" s="84" t="s">
+      <c r="A49" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="84"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="92"/>
+      <c r="I49" s="92"/>
+      <c r="J49" s="92"/>
     </row>
     <row r="50" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A50" s="84" t="s">
+      <c r="A50" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="84"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="84"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="92"/>
+      <c r="G50" s="92"/>
+      <c r="H50" s="92"/>
+      <c r="I50" s="92"/>
+      <c r="J50" s="92"/>
     </row>
     <row r="51" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A51" s="84" t="s">
+      <c r="A51" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="84"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="92"/>
+      <c r="H51" s="92"/>
+      <c r="I51" s="92"/>
+      <c r="J51" s="92"/>
     </row>
     <row r="52" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A52" s="84" t="s">
+      <c r="A52" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="84"/>
-      <c r="C52" s="84"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="92"/>
+      <c r="F52" s="92"/>
+      <c r="G52" s="92"/>
+      <c r="H52" s="92"/>
+      <c r="I52" s="92"/>
+      <c r="J52" s="92"/>
     </row>
     <row r="53" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A53" s="84" t="s">
+      <c r="A53" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="B53" s="84"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="92"/>
+      <c r="G53" s="92"/>
+      <c r="H53" s="92"/>
+      <c r="I53" s="92"/>
+      <c r="J53" s="92"/>
     </row>
     <row r="54" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A54" s="84" t="s">
+      <c r="A54" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="84"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="84"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="92"/>
+      <c r="F54" s="92"/>
+      <c r="G54" s="92"/>
+      <c r="H54" s="92"/>
+      <c r="I54" s="92"/>
+      <c r="J54" s="92"/>
     </row>
     <row r="55" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A55" s="84" t="s">
+      <c r="A55" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="84"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="84"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="84"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="92"/>
+      <c r="F55" s="92"/>
+      <c r="G55" s="92"/>
+      <c r="H55" s="92"/>
+      <c r="I55" s="92"/>
+      <c r="J55" s="92"/>
     </row>
     <row r="56" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A56" s="84" t="s">
+      <c r="A56" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="84"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="84"/>
-      <c r="H56" s="84"/>
-      <c r="I56" s="84"/>
-      <c r="J56" s="84"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="92"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="92"/>
+      <c r="I56" s="92"/>
+      <c r="J56" s="92"/>
     </row>
     <row r="57" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A57" s="84" t="s">
+      <c r="A57" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="84"/>
-      <c r="C57" s="84"/>
-      <c r="D57" s="84"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="84"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="84"/>
-      <c r="J57" s="84"/>
+      <c r="B57" s="92"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="92"/>
+      <c r="H57" s="92"/>
+      <c r="I57" s="92"/>
+      <c r="J57" s="92"/>
     </row>
     <row r="58" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A58" s="84" t="s">
+      <c r="A58" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="84"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="84"/>
-      <c r="H58" s="84"/>
-      <c r="I58" s="84"/>
-      <c r="J58" s="84"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="92"/>
+      <c r="H58" s="92"/>
+      <c r="I58" s="92"/>
+      <c r="J58" s="92"/>
     </row>
     <row r="59" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A59" s="84" t="s">
+      <c r="A59" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="84"/>
-      <c r="C59" s="84"/>
-      <c r="D59" s="84"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="84"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="84"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="92"/>
+      <c r="F59" s="92"/>
+      <c r="G59" s="92"/>
+      <c r="H59" s="92"/>
+      <c r="I59" s="92"/>
+      <c r="J59" s="92"/>
     </row>
     <row r="60" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A60" s="84" t="s">
+      <c r="A60" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="84"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="84"/>
-      <c r="H60" s="84"/>
-      <c r="I60" s="84"/>
-      <c r="J60" s="84"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="92"/>
+      <c r="E60" s="92"/>
+      <c r="F60" s="92"/>
+      <c r="G60" s="92"/>
+      <c r="H60" s="92"/>
+      <c r="I60" s="92"/>
+      <c r="J60" s="92"/>
     </row>
     <row r="61" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A61" s="84" t="s">
+      <c r="A61" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="B61" s="84"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="84"/>
-      <c r="E61" s="84"/>
-      <c r="F61" s="84"/>
-      <c r="G61" s="84"/>
-      <c r="H61" s="84"/>
-      <c r="I61" s="84"/>
-      <c r="J61" s="84"/>
+      <c r="B61" s="92"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="92"/>
+      <c r="G61" s="92"/>
+      <c r="H61" s="92"/>
+      <c r="I61" s="92"/>
+      <c r="J61" s="92"/>
     </row>
     <row r="62" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A62" s="84" t="s">
+      <c r="A62" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="84"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="84"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="84"/>
-      <c r="H62" s="84"/>
-      <c r="I62" s="84"/>
-      <c r="J62" s="84"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="92"/>
+      <c r="F62" s="92"/>
+      <c r="G62" s="92"/>
+      <c r="H62" s="92"/>
+      <c r="I62" s="92"/>
+      <c r="J62" s="92"/>
     </row>
     <row r="63" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A63" s="84" t="s">
+      <c r="A63" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="B63" s="84"/>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="84"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="84"/>
-      <c r="J63" s="84"/>
+      <c r="B63" s="92"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="92"/>
+      <c r="G63" s="92"/>
+      <c r="H63" s="92"/>
+      <c r="I63" s="92"/>
+      <c r="J63" s="92"/>
     </row>
     <row r="64" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A64" s="84" t="s">
+      <c r="A64" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="B64" s="84"/>
-      <c r="C64" s="84"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="84"/>
-      <c r="H64" s="84"/>
-      <c r="I64" s="84"/>
-      <c r="J64" s="84"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="92"/>
+      <c r="F64" s="92"/>
+      <c r="G64" s="92"/>
+      <c r="H64" s="92"/>
+      <c r="I64" s="92"/>
+      <c r="J64" s="92"/>
     </row>
     <row r="65" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A65" s="84" t="s">
+      <c r="A65" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="B65" s="84"/>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="84"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="84"/>
-      <c r="J65" s="84"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="92"/>
+      <c r="H65" s="92"/>
+      <c r="I65" s="92"/>
+      <c r="J65" s="92"/>
     </row>
     <row r="66" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A66" s="84" t="s">
+      <c r="A66" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="B66" s="84"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="84"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="84"/>
-      <c r="H66" s="84"/>
-      <c r="I66" s="84"/>
-      <c r="J66" s="84"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="92"/>
+      <c r="F66" s="92"/>
+      <c r="G66" s="92"/>
+      <c r="H66" s="92"/>
+      <c r="I66" s="92"/>
+      <c r="J66" s="92"/>
     </row>
     <row r="67" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A67" s="84" t="s">
+      <c r="A67" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="B67" s="84"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="84"/>
-      <c r="F67" s="84"/>
-      <c r="G67" s="84"/>
-      <c r="H67" s="84"/>
-      <c r="I67" s="84"/>
-      <c r="J67" s="84"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="92"/>
+      <c r="G67" s="92"/>
+      <c r="H67" s="92"/>
+      <c r="I67" s="92"/>
+      <c r="J67" s="92"/>
     </row>
     <row r="68" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A68" s="84" t="s">
+      <c r="A68" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="B68" s="84"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="84"/>
-      <c r="F68" s="84"/>
-      <c r="G68" s="84"/>
-      <c r="H68" s="84"/>
-      <c r="I68" s="84"/>
-      <c r="J68" s="84"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="92"/>
+      <c r="H68" s="92"/>
+      <c r="I68" s="92"/>
+      <c r="J68" s="92"/>
     </row>
     <row r="69" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A69" s="84" t="s">
+      <c r="A69" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="B69" s="84"/>
-      <c r="C69" s="84"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="84"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="84"/>
-      <c r="J69" s="84"/>
+      <c r="B69" s="92"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="92"/>
+      <c r="E69" s="92"/>
+      <c r="F69" s="92"/>
+      <c r="G69" s="92"/>
+      <c r="H69" s="92"/>
+      <c r="I69" s="92"/>
+      <c r="J69" s="92"/>
     </row>
     <row r="70" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A70" s="84" t="s">
+      <c r="A70" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="B70" s="84"/>
-      <c r="C70" s="84"/>
-      <c r="D70" s="84"/>
-      <c r="E70" s="84"/>
-      <c r="F70" s="84"/>
-      <c r="G70" s="84"/>
-      <c r="H70" s="84"/>
-      <c r="I70" s="84"/>
-      <c r="J70" s="84"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="92"/>
+      <c r="D70" s="92"/>
+      <c r="E70" s="92"/>
+      <c r="F70" s="92"/>
+      <c r="G70" s="92"/>
+      <c r="H70" s="92"/>
+      <c r="I70" s="92"/>
+      <c r="J70" s="92"/>
     </row>
     <row r="71" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A71" s="84" t="s">
+      <c r="A71" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="B71" s="84"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="84"/>
-      <c r="E71" s="84"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="84"/>
-      <c r="H71" s="84"/>
-      <c r="I71" s="84"/>
-      <c r="J71" s="84"/>
+      <c r="B71" s="92"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="92"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="92"/>
+      <c r="G71" s="92"/>
+      <c r="H71" s="92"/>
+      <c r="I71" s="92"/>
+      <c r="J71" s="92"/>
     </row>
     <row r="72" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A72" s="84" t="s">
+      <c r="A72" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="B72" s="84"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="84"/>
-      <c r="E72" s="84"/>
-      <c r="F72" s="84"/>
-      <c r="G72" s="84"/>
-      <c r="H72" s="84"/>
-      <c r="I72" s="84"/>
-      <c r="J72" s="84"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="92"/>
+      <c r="G72" s="92"/>
+      <c r="H72" s="92"/>
+      <c r="I72" s="92"/>
+      <c r="J72" s="92"/>
     </row>
     <row r="73" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A73" s="84" t="s">
+      <c r="A73" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="B73" s="84"/>
-      <c r="C73" s="84"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="84"/>
-      <c r="F73" s="84"/>
-      <c r="G73" s="84"/>
-      <c r="H73" s="84"/>
-      <c r="I73" s="84"/>
-      <c r="J73" s="84"/>
+      <c r="B73" s="92"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="92"/>
+      <c r="G73" s="92"/>
+      <c r="H73" s="92"/>
+      <c r="I73" s="92"/>
+      <c r="J73" s="92"/>
     </row>
     <row r="74" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A74" s="84" t="s">
+      <c r="A74" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="B74" s="84"/>
-      <c r="C74" s="84"/>
-      <c r="D74" s="84"/>
-      <c r="E74" s="84"/>
-      <c r="F74" s="84"/>
-      <c r="G74" s="84"/>
-      <c r="H74" s="84"/>
-      <c r="I74" s="84"/>
-      <c r="J74" s="84"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="92"/>
+      <c r="G74" s="92"/>
+      <c r="H74" s="92"/>
+      <c r="I74" s="92"/>
+      <c r="J74" s="92"/>
     </row>
     <row r="75" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A75" s="84" t="s">
+      <c r="A75" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B75" s="84"/>
-      <c r="C75" s="84"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="84"/>
-      <c r="F75" s="84"/>
-      <c r="G75" s="84"/>
-      <c r="H75" s="84"/>
-      <c r="I75" s="84"/>
-      <c r="J75" s="84"/>
+      <c r="B75" s="92"/>
+      <c r="C75" s="92"/>
+      <c r="D75" s="92"/>
+      <c r="E75" s="92"/>
+      <c r="F75" s="92"/>
+      <c r="G75" s="92"/>
+      <c r="H75" s="92"/>
+      <c r="I75" s="92"/>
+      <c r="J75" s="92"/>
     </row>
     <row r="76" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A76" s="84" t="s">
+      <c r="A76" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="B76" s="84"/>
-      <c r="C76" s="84"/>
-      <c r="D76" s="84"/>
-      <c r="E76" s="84"/>
-      <c r="F76" s="84"/>
-      <c r="G76" s="84"/>
-      <c r="H76" s="84"/>
-      <c r="I76" s="84"/>
-      <c r="J76" s="84"/>
+      <c r="B76" s="92"/>
+      <c r="C76" s="92"/>
+      <c r="D76" s="92"/>
+      <c r="E76" s="92"/>
+      <c r="F76" s="92"/>
+      <c r="G76" s="92"/>
+      <c r="H76" s="92"/>
+      <c r="I76" s="92"/>
+      <c r="J76" s="92"/>
     </row>
     <row r="77" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A77" s="84" t="s">
+      <c r="A77" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="B77" s="84"/>
-      <c r="C77" s="84"/>
-      <c r="D77" s="84"/>
-      <c r="E77" s="84"/>
-      <c r="F77" s="84"/>
-      <c r="G77" s="84"/>
-      <c r="H77" s="84"/>
-      <c r="I77" s="84"/>
-      <c r="J77" s="84"/>
+      <c r="B77" s="92"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="92"/>
+      <c r="G77" s="92"/>
+      <c r="H77" s="92"/>
+      <c r="I77" s="92"/>
+      <c r="J77" s="92"/>
     </row>
     <row r="78" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A78" s="84" t="s">
+      <c r="A78" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="B78" s="84"/>
-      <c r="C78" s="84"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="84"/>
-      <c r="F78" s="84"/>
-      <c r="G78" s="84"/>
-      <c r="H78" s="84"/>
-      <c r="I78" s="84"/>
-      <c r="J78" s="84"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="92"/>
+      <c r="E78" s="92"/>
+      <c r="F78" s="92"/>
+      <c r="G78" s="92"/>
+      <c r="H78" s="92"/>
+      <c r="I78" s="92"/>
+      <c r="J78" s="92"/>
     </row>
     <row r="79" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A79" s="84" t="s">
+      <c r="A79" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="B79" s="84"/>
-      <c r="C79" s="84"/>
-      <c r="D79" s="84"/>
-      <c r="E79" s="84"/>
-      <c r="F79" s="84"/>
-      <c r="G79" s="84"/>
-      <c r="H79" s="84"/>
-      <c r="I79" s="84"/>
-      <c r="J79" s="84"/>
+      <c r="B79" s="92"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="92"/>
+      <c r="F79" s="92"/>
+      <c r="G79" s="92"/>
+      <c r="H79" s="92"/>
+      <c r="I79" s="92"/>
+      <c r="J79" s="92"/>
     </row>
     <row r="80" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A80" s="84" t="s">
+      <c r="A80" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="B80" s="84"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="84"/>
-      <c r="E80" s="84"/>
-      <c r="F80" s="84"/>
-      <c r="G80" s="84"/>
-      <c r="H80" s="84"/>
-      <c r="I80" s="84"/>
-      <c r="J80" s="84"/>
+      <c r="B80" s="92"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="92"/>
+      <c r="E80" s="92"/>
+      <c r="F80" s="92"/>
+      <c r="G80" s="92"/>
+      <c r="H80" s="92"/>
+      <c r="I80" s="92"/>
+      <c r="J80" s="92"/>
     </row>
     <row r="81" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A81" s="84" t="s">
+      <c r="A81" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="B81" s="84"/>
-      <c r="C81" s="84"/>
-      <c r="D81" s="84"/>
-      <c r="E81" s="84"/>
-      <c r="F81" s="84"/>
-      <c r="G81" s="84"/>
-      <c r="H81" s="84"/>
-      <c r="I81" s="84"/>
-      <c r="J81" s="84"/>
+      <c r="B81" s="92"/>
+      <c r="C81" s="92"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="92"/>
+      <c r="F81" s="92"/>
+      <c r="G81" s="92"/>
+      <c r="H81" s="92"/>
+      <c r="I81" s="92"/>
+      <c r="J81" s="92"/>
     </row>
     <row r="82" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A82" s="84" t="s">
+      <c r="A82" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="B82" s="84"/>
-      <c r="C82" s="84"/>
-      <c r="D82" s="84"/>
-      <c r="E82" s="84"/>
-      <c r="F82" s="84"/>
-      <c r="G82" s="84"/>
-      <c r="H82" s="84"/>
-      <c r="I82" s="84"/>
-      <c r="J82" s="84"/>
+      <c r="B82" s="92"/>
+      <c r="C82" s="92"/>
+      <c r="D82" s="92"/>
+      <c r="E82" s="92"/>
+      <c r="F82" s="92"/>
+      <c r="G82" s="92"/>
+      <c r="H82" s="92"/>
+      <c r="I82" s="92"/>
+      <c r="J82" s="92"/>
     </row>
     <row r="83" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A83" s="84" t="s">
+      <c r="A83" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="B83" s="84"/>
-      <c r="C83" s="84"/>
-      <c r="D83" s="84"/>
-      <c r="E83" s="84"/>
-      <c r="F83" s="84"/>
-      <c r="G83" s="84"/>
-      <c r="H83" s="84"/>
-      <c r="I83" s="84"/>
-      <c r="J83" s="84"/>
+      <c r="B83" s="92"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="92"/>
+      <c r="E83" s="92"/>
+      <c r="F83" s="92"/>
+      <c r="G83" s="92"/>
+      <c r="H83" s="92"/>
+      <c r="I83" s="92"/>
+      <c r="J83" s="92"/>
     </row>
     <row r="84" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A84" s="84" t="s">
+      <c r="A84" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="B84" s="84"/>
-      <c r="C84" s="84"/>
-      <c r="D84" s="84"/>
-      <c r="E84" s="84"/>
-      <c r="F84" s="84"/>
-      <c r="G84" s="84"/>
-      <c r="H84" s="84"/>
-      <c r="I84" s="84"/>
-      <c r="J84" s="84"/>
+      <c r="B84" s="92"/>
+      <c r="C84" s="92"/>
+      <c r="D84" s="92"/>
+      <c r="E84" s="92"/>
+      <c r="F84" s="92"/>
+      <c r="G84" s="92"/>
+      <c r="H84" s="92"/>
+      <c r="I84" s="92"/>
+      <c r="J84" s="92"/>
     </row>
     <row r="85" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A85" s="84" t="s">
+      <c r="A85" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="B85" s="84"/>
-      <c r="C85" s="84"/>
-      <c r="D85" s="84"/>
-      <c r="E85" s="84"/>
-      <c r="F85" s="84"/>
-      <c r="G85" s="84"/>
-      <c r="H85" s="84"/>
-      <c r="I85" s="84"/>
-      <c r="J85" s="84"/>
+      <c r="B85" s="92"/>
+      <c r="C85" s="92"/>
+      <c r="D85" s="92"/>
+      <c r="E85" s="92"/>
+      <c r="F85" s="92"/>
+      <c r="G85" s="92"/>
+      <c r="H85" s="92"/>
+      <c r="I85" s="92"/>
+      <c r="J85" s="92"/>
     </row>
     <row r="86" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A86" s="84" t="s">
+      <c r="A86" s="92" t="s">
         <v>126</v>
       </c>
-      <c r="B86" s="84"/>
-      <c r="C86" s="84"/>
-      <c r="D86" s="84"/>
-      <c r="E86" s="84"/>
-      <c r="F86" s="84"/>
-      <c r="G86" s="84"/>
-      <c r="H86" s="84"/>
-      <c r="I86" s="84"/>
-      <c r="J86" s="84"/>
+      <c r="B86" s="92"/>
+      <c r="C86" s="92"/>
+      <c r="D86" s="92"/>
+      <c r="E86" s="92"/>
+      <c r="F86" s="92"/>
+      <c r="G86" s="92"/>
+      <c r="H86" s="92"/>
+      <c r="I86" s="92"/>
+      <c r="J86" s="92"/>
     </row>
     <row r="87" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A87" s="84" t="s">
+      <c r="A87" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="B87" s="84"/>
-      <c r="C87" s="84"/>
-      <c r="D87" s="84"/>
-      <c r="E87" s="84"/>
-      <c r="F87" s="84"/>
-      <c r="G87" s="84"/>
-      <c r="H87" s="84"/>
-      <c r="I87" s="84"/>
-      <c r="J87" s="84"/>
+      <c r="B87" s="92"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="92"/>
+      <c r="E87" s="92"/>
+      <c r="F87" s="92"/>
+      <c r="G87" s="92"/>
+      <c r="H87" s="92"/>
+      <c r="I87" s="92"/>
+      <c r="J87" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A83:J83"/>
+    <mergeCell ref="A84:J84"/>
+    <mergeCell ref="A85:J85"/>
+    <mergeCell ref="A86:J86"/>
+    <mergeCell ref="A87:J87"/>
+    <mergeCell ref="A82:J82"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A76:J76"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="A79:J79"/>
+    <mergeCell ref="A80:J80"/>
+    <mergeCell ref="A81:J81"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A33:J33"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A12:J12"/>
@@ -6480,71 +6611,12 @@
     <mergeCell ref="A19:J19"/>
     <mergeCell ref="A20:J20"/>
     <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A82:J82"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A72:J72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A74:J74"/>
-    <mergeCell ref="A75:J75"/>
-    <mergeCell ref="A76:J76"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="A79:J79"/>
-    <mergeCell ref="A80:J80"/>
-    <mergeCell ref="A81:J81"/>
-    <mergeCell ref="A83:J83"/>
-    <mergeCell ref="A84:J84"/>
-    <mergeCell ref="A85:J85"/>
-    <mergeCell ref="A86:J86"/>
-    <mergeCell ref="A87:J87"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/05. 설계 - 데이터베이스_설계서.xlsx
+++ b/05. 설계 - 데이터베이스_설계서.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="219">
   <si>
     <t>내용</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -884,10 +884,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>varchar2(8)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>group_codedate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -897,6 +893,62 @@
   </si>
   <si>
     <t>sysdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupinvite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invite_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invite_receiver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invite_check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(500)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert_receiver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert_check</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1464,7 +1516,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1545,21 +1597,27 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1590,6 +1648,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1605,22 +1672,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1632,9 +1711,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1647,24 +1723,12 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1683,12 +1747,10 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1713,10 +1775,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2226,133 +2284,123 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A7" s="6"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A8" s="6"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A9" s="6"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A10" s="6"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A11" s="6"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A12" s="6"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A13" s="6"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A14" s="6"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A15" s="6"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A16" s="6"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A17" s="6"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
     </row>
     <row r="18" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A18" s="6"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A19" s="6"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="16.2" thickBot="1">
       <c r="A20" s="4"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
@@ -2361,6 +2409,16 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2375,10 +2433,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J173"/>
+  <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C178" sqref="C178"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F196" sqref="F196:J196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2394,54 +2452,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="64"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="73"/>
     </row>
     <row r="2" spans="1:10" ht="17.399999999999999">
       <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="74"/>
     </row>
     <row r="3" spans="1:10" ht="18" thickBot="1">
       <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
       <c r="F3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="H3" s="68"/>
+      <c r="H3" s="76"/>
       <c r="I3" s="16" t="s">
         <v>10</v>
       </c>
@@ -2450,58 +2508,58 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="17.399999999999999">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76" t="s">
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="78"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="82"/>
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999">
       <c r="A8" s="61" t="s">
@@ -2513,109 +2571,109 @@
       </c>
       <c r="D8" s="61"/>
       <c r="E8" s="61"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="81"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="85"/>
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999">
-      <c r="A9" s="69"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="46"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="46"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="48"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="75"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="75"/>
+      <c r="E14" s="68"/>
       <c r="F14" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="60"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999">
       <c r="A15" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="61"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="41" t="s">
+      <c r="C15" s="70"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="43"/>
+      <c r="H15" s="45"/>
       <c r="I15" s="23"/>
       <c r="J15" s="24"/>
     </row>
@@ -2629,235 +2687,235 @@
       <c r="C16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="83" t="s">
+      <c r="D16" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="83"/>
+      <c r="E16" s="65"/>
       <c r="F16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="83" t="s">
+      <c r="G16" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83" t="s">
+      <c r="H16" s="65"/>
+      <c r="I16" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="83"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="65"/>
+      <c r="E17" s="66"/>
       <c r="F17" s="27"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="65"/>
+      <c r="E18" s="66"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="65"/>
+      <c r="E19" s="66"/>
       <c r="F19" s="27"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="27"/>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="65"/>
+      <c r="E20" s="66"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="27"/>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="65"/>
+      <c r="E21" s="66"/>
       <c r="F21" s="27"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="65"/>
+      <c r="E22" s="66"/>
       <c r="F22" s="27"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="E23" s="65"/>
+      <c r="E23" s="66"/>
       <c r="F23" s="27"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="E24" s="65"/>
+      <c r="E24" s="66"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
     </row>
     <row r="27" spans="1:10" ht="17.399999999999999">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
     </row>
     <row r="28" spans="1:10" ht="17.399999999999999">
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="63"/>
       <c r="F28" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="58" t="s">
+      <c r="G28" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="60"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" spans="1:10" ht="17.399999999999999">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="43"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
       <c r="E29" s="22"/>
       <c r="F29" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="58"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="60"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="55"/>
     </row>
     <row r="30" spans="1:10" ht="17.399999999999999">
       <c r="A30" s="61" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="61"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="48"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1">
       <c r="A31" s="61" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="61"/>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="46"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="48"/>
     </row>
     <row r="32" spans="1:10" ht="17.399999999999999">
       <c r="A32" s="13" t="s">
@@ -2875,13 +2933,13 @@
       <c r="E32" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="41" t="s">
+      <c r="F32" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="43"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="45"/>
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1">
       <c r="A33" s="26"/>
@@ -2889,55 +2947,55 @@
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="48"/>
     </row>
     <row r="34" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="49" t="s">
+      <c r="D34" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="47" t="s">
+      <c r="F34" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="47" t="s">
+      <c r="G34" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="47" t="s">
+      <c r="H34" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I34" s="47" t="s">
+      <c r="I34" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="47" t="s">
+      <c r="J34" s="49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="12" t="s">
@@ -3148,80 +3206,80 @@
       <c r="J47" s="12"/>
     </row>
     <row r="50" spans="1:10" ht="17.399999999999999">
-      <c r="A50" s="51" t="s">
+      <c r="A50" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="52"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
     </row>
     <row r="51" spans="1:10" ht="17.399999999999999">
       <c r="A51" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="57"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="63"/>
       <c r="F51" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G51" s="58" t="s">
+      <c r="G51" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="60"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="55"/>
     </row>
     <row r="52" spans="1:10" ht="17.399999999999999">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="43"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
       <c r="E52" s="22"/>
       <c r="F52" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G52" s="58"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="60"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="55"/>
     </row>
     <row r="53" spans="1:10" ht="17.399999999999999">
       <c r="A53" s="61" t="s">
         <v>38</v>
       </c>
       <c r="B53" s="61"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="48"/>
     </row>
     <row r="54" spans="1:10" ht="17.399999999999999">
       <c r="A54" s="61" t="s">
         <v>39</v>
       </c>
       <c r="B54" s="61"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="48"/>
     </row>
     <row r="55" spans="1:10" ht="17.399999999999999">
       <c r="A55" s="31" t="s">
@@ -3239,13 +3297,13 @@
       <c r="E55" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F55" s="41" t="s">
+      <c r="F55" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="43"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="45"/>
     </row>
     <row r="56" spans="1:10" ht="17.399999999999999">
       <c r="A56" s="26"/>
@@ -3253,55 +3311,55 @@
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
       <c r="E56" s="20"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="48"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="47" t="s">
+      <c r="C57" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="49" t="s">
+      <c r="D57" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E57" s="47" t="s">
+      <c r="E57" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F57" s="47" t="s">
+      <c r="F57" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G57" s="47" t="s">
+      <c r="G57" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="47" t="s">
+      <c r="H57" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I57" s="47" t="s">
+      <c r="I57" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J57" s="47" t="s">
+      <c r="J57" s="49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="48"/>
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="48"/>
+      <c r="A58" s="50"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="12" t="s">
@@ -3374,80 +3432,80 @@
       <c r="J62" s="12"/>
     </row>
     <row r="65" spans="1:10" ht="17.399999999999999">
-      <c r="A65" s="51" t="s">
+      <c r="A65" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B65" s="52"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="52"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
     </row>
     <row r="66" spans="1:10" ht="17.399999999999999">
       <c r="A66" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="56"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="57"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="63"/>
       <c r="F66" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G66" s="58" t="s">
+      <c r="G66" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="60"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="55"/>
     </row>
     <row r="67" spans="1:10" ht="17.399999999999999">
-      <c r="A67" s="41" t="s">
+      <c r="A67" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B67" s="43"/>
+      <c r="B67" s="45"/>
       <c r="C67" s="21"/>
       <c r="D67" s="21"/>
       <c r="E67" s="22"/>
       <c r="F67" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G67" s="58"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="60"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="55"/>
     </row>
     <row r="68" spans="1:10" ht="17.399999999999999">
       <c r="A68" s="61" t="s">
         <v>38</v>
       </c>
       <c r="B68" s="61"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="45"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="45"/>
-      <c r="J68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="48"/>
     </row>
     <row r="69" spans="1:10" ht="17.399999999999999">
       <c r="A69" s="61" t="s">
         <v>39</v>
       </c>
       <c r="B69" s="61"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="46"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="48"/>
     </row>
     <row r="70" spans="1:10" ht="17.399999999999999">
       <c r="A70" s="31" t="s">
@@ -3465,13 +3523,13 @@
       <c r="E70" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F70" s="41" t="s">
+      <c r="F70" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="43"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="45"/>
     </row>
     <row r="71" spans="1:10" ht="17.399999999999999">
       <c r="A71" s="26"/>
@@ -3479,55 +3537,55 @@
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
       <c r="E71" s="20"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="45"/>
-      <c r="H71" s="45"/>
-      <c r="I71" s="45"/>
-      <c r="J71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="48"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="47" t="s">
+      <c r="A72" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B72" s="47" t="s">
+      <c r="B72" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C72" s="47" t="s">
+      <c r="C72" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D72" s="49" t="s">
+      <c r="D72" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E72" s="47" t="s">
+      <c r="E72" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F72" s="47" t="s">
+      <c r="F72" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G72" s="47" t="s">
+      <c r="G72" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H72" s="47" t="s">
+      <c r="H72" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I72" s="47" t="s">
+      <c r="I72" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J72" s="47" t="s">
+      <c r="J72" s="49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="48"/>
-      <c r="B73" s="48"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="48"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="48"/>
-      <c r="I73" s="48"/>
-      <c r="J73" s="48"/>
+      <c r="A73" s="50"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="52"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="12" t="s">
@@ -3624,7 +3682,7 @@
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
@@ -3635,97 +3693,97 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
       <c r="H80" s="29"/>
       <c r="I80" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J80" s="12"/>
     </row>
     <row r="83" spans="1:10" ht="17.399999999999999">
-      <c r="A83" s="51" t="s">
+      <c r="A83" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B83" s="52"/>
-      <c r="C83" s="52"/>
-      <c r="D83" s="52"/>
-      <c r="E83" s="53"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="55"/>
-      <c r="J83" s="55"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="60"/>
     </row>
     <row r="84" spans="1:10" ht="17.399999999999999">
       <c r="A84" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="56"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="57"/>
+      <c r="B84" s="62"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="63"/>
       <c r="F84" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G84" s="58" t="s">
+      <c r="G84" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="H84" s="59"/>
-      <c r="I84" s="59"/>
-      <c r="J84" s="60"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="54"/>
+      <c r="J84" s="55"/>
     </row>
     <row r="85" spans="1:10" ht="17.399999999999999">
-      <c r="A85" s="41" t="s">
+      <c r="A85" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B85" s="43"/>
+      <c r="B85" s="45"/>
       <c r="C85" s="21"/>
       <c r="D85" s="21"/>
       <c r="E85" s="22"/>
       <c r="F85" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G85" s="58"/>
-      <c r="H85" s="59"/>
-      <c r="I85" s="59"/>
-      <c r="J85" s="60"/>
+      <c r="G85" s="53"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="54"/>
+      <c r="J85" s="55"/>
     </row>
     <row r="86" spans="1:10" ht="17.399999999999999">
       <c r="A86" s="61" t="s">
         <v>38</v>
       </c>
       <c r="B86" s="61"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="45"/>
-      <c r="G86" s="45"/>
-      <c r="H86" s="45"/>
-      <c r="I86" s="45"/>
-      <c r="J86" s="46"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="47"/>
+      <c r="I86" s="47"/>
+      <c r="J86" s="48"/>
     </row>
     <row r="87" spans="1:10" ht="17.399999999999999">
       <c r="A87" s="61" t="s">
         <v>39</v>
       </c>
       <c r="B87" s="61"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="45"/>
-      <c r="F87" s="45"/>
-      <c r="G87" s="45"/>
-      <c r="H87" s="45"/>
-      <c r="I87" s="45"/>
-      <c r="J87" s="46"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="47"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="47"/>
+      <c r="I87" s="47"/>
+      <c r="J87" s="48"/>
     </row>
     <row r="88" spans="1:10" ht="17.399999999999999">
       <c r="A88" s="31" t="s">
@@ -3743,13 +3801,13 @@
       <c r="E88" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F88" s="41" t="s">
+      <c r="F88" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G88" s="42"/>
-      <c r="H88" s="42"/>
-      <c r="I88" s="42"/>
-      <c r="J88" s="43"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="45"/>
     </row>
     <row r="89" spans="1:10" ht="17.399999999999999">
       <c r="A89" s="26"/>
@@ -3757,55 +3815,55 @@
       <c r="C89" s="27"/>
       <c r="D89" s="27"/>
       <c r="E89" s="20"/>
-      <c r="F89" s="44"/>
-      <c r="G89" s="45"/>
-      <c r="H89" s="45"/>
-      <c r="I89" s="45"/>
-      <c r="J89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="47"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="48"/>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="47" t="s">
+      <c r="A90" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B90" s="47" t="s">
+      <c r="B90" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C90" s="47" t="s">
+      <c r="C90" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D90" s="49" t="s">
+      <c r="D90" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E90" s="47" t="s">
+      <c r="E90" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F90" s="47" t="s">
+      <c r="F90" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G90" s="47" t="s">
+      <c r="G90" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H90" s="47" t="s">
+      <c r="H90" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I90" s="47" t="s">
+      <c r="I90" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J90" s="47" t="s">
+      <c r="J90" s="49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="48"/>
-      <c r="B91" s="48"/>
-      <c r="C91" s="48"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="48"/>
-      <c r="F91" s="48"/>
-      <c r="G91" s="48"/>
-      <c r="H91" s="48"/>
-      <c r="I91" s="48"/>
-      <c r="J91" s="48"/>
+      <c r="A91" s="50"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="50"/>
+      <c r="I91" s="50"/>
+      <c r="J91" s="50"/>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="12" t="s">
@@ -3934,80 +3992,80 @@
       <c r="J98" s="12"/>
     </row>
     <row r="101" spans="1:10" ht="17.399999999999999">
-      <c r="A101" s="51" t="s">
+      <c r="A101" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B101" s="52"/>
-      <c r="C101" s="52"/>
-      <c r="D101" s="52"/>
-      <c r="E101" s="53"/>
-      <c r="F101" s="54"/>
-      <c r="G101" s="55"/>
-      <c r="H101" s="55"/>
-      <c r="I101" s="55"/>
-      <c r="J101" s="55"/>
+      <c r="B101" s="57"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="58"/>
+      <c r="F101" s="59"/>
+      <c r="G101" s="60"/>
+      <c r="H101" s="60"/>
+      <c r="I101" s="60"/>
+      <c r="J101" s="60"/>
     </row>
     <row r="102" spans="1:10" ht="17.399999999999999">
       <c r="A102" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B102" s="56"/>
-      <c r="C102" s="56"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="57"/>
+      <c r="B102" s="62"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="62"/>
+      <c r="E102" s="63"/>
       <c r="F102" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G102" s="58" t="s">
+      <c r="G102" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="H102" s="59"/>
-      <c r="I102" s="59"/>
-      <c r="J102" s="60"/>
+      <c r="H102" s="54"/>
+      <c r="I102" s="54"/>
+      <c r="J102" s="55"/>
     </row>
     <row r="103" spans="1:10" ht="17.399999999999999">
-      <c r="A103" s="41" t="s">
+      <c r="A103" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B103" s="43"/>
+      <c r="B103" s="45"/>
       <c r="C103" s="21"/>
       <c r="D103" s="21"/>
       <c r="E103" s="22"/>
       <c r="F103" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G103" s="58"/>
-      <c r="H103" s="59"/>
-      <c r="I103" s="59"/>
-      <c r="J103" s="60"/>
+      <c r="G103" s="53"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="54"/>
+      <c r="J103" s="55"/>
     </row>
     <row r="104" spans="1:10" ht="17.399999999999999">
       <c r="A104" s="61" t="s">
         <v>38</v>
       </c>
       <c r="B104" s="61"/>
-      <c r="C104" s="44"/>
-      <c r="D104" s="45"/>
-      <c r="E104" s="45"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="45"/>
-      <c r="H104" s="45"/>
-      <c r="I104" s="45"/>
-      <c r="J104" s="46"/>
+      <c r="C104" s="46"/>
+      <c r="D104" s="47"/>
+      <c r="E104" s="47"/>
+      <c r="F104" s="47"/>
+      <c r="G104" s="47"/>
+      <c r="H104" s="47"/>
+      <c r="I104" s="47"/>
+      <c r="J104" s="48"/>
     </row>
     <row r="105" spans="1:10" ht="17.399999999999999">
       <c r="A105" s="61" t="s">
         <v>39</v>
       </c>
       <c r="B105" s="61"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="45"/>
-      <c r="E105" s="45"/>
-      <c r="F105" s="45"/>
-      <c r="G105" s="45"/>
-      <c r="H105" s="45"/>
-      <c r="I105" s="45"/>
-      <c r="J105" s="46"/>
+      <c r="C105" s="46"/>
+      <c r="D105" s="47"/>
+      <c r="E105" s="47"/>
+      <c r="F105" s="47"/>
+      <c r="G105" s="47"/>
+      <c r="H105" s="47"/>
+      <c r="I105" s="47"/>
+      <c r="J105" s="48"/>
     </row>
     <row r="106" spans="1:10" ht="17.399999999999999">
       <c r="A106" s="31" t="s">
@@ -4025,13 +4083,13 @@
       <c r="E106" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F106" s="41" t="s">
+      <c r="F106" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G106" s="42"/>
-      <c r="H106" s="42"/>
-      <c r="I106" s="42"/>
-      <c r="J106" s="43"/>
+      <c r="G106" s="44"/>
+      <c r="H106" s="44"/>
+      <c r="I106" s="44"/>
+      <c r="J106" s="45"/>
     </row>
     <row r="107" spans="1:10" ht="17.399999999999999">
       <c r="A107" s="26"/>
@@ -4039,55 +4097,55 @@
       <c r="C107" s="27"/>
       <c r="D107" s="27"/>
       <c r="E107" s="20"/>
-      <c r="F107" s="44"/>
-      <c r="G107" s="45"/>
-      <c r="H107" s="45"/>
-      <c r="I107" s="45"/>
-      <c r="J107" s="46"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="47"/>
+      <c r="H107" s="47"/>
+      <c r="I107" s="47"/>
+      <c r="J107" s="48"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="47" t="s">
+      <c r="A108" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B108" s="47" t="s">
+      <c r="B108" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C108" s="47" t="s">
+      <c r="C108" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D108" s="49" t="s">
+      <c r="D108" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E108" s="47" t="s">
+      <c r="E108" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F108" s="47" t="s">
+      <c r="F108" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G108" s="47" t="s">
+      <c r="G108" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H108" s="47" t="s">
+      <c r="H108" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I108" s="47" t="s">
+      <c r="I108" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J108" s="47" t="s">
+      <c r="J108" s="49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="48"/>
-      <c r="B109" s="48"/>
-      <c r="C109" s="48"/>
-      <c r="D109" s="50"/>
-      <c r="E109" s="48"/>
-      <c r="F109" s="48"/>
-      <c r="G109" s="48"/>
-      <c r="H109" s="48"/>
-      <c r="I109" s="48"/>
-      <c r="J109" s="48"/>
+      <c r="A109" s="50"/>
+      <c r="B109" s="50"/>
+      <c r="C109" s="50"/>
+      <c r="D109" s="52"/>
+      <c r="E109" s="50"/>
+      <c r="F109" s="50"/>
+      <c r="G109" s="50"/>
+      <c r="H109" s="50"/>
+      <c r="I109" s="50"/>
+      <c r="J109" s="50"/>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="12" t="s">
@@ -4162,80 +4220,80 @@
       <c r="J113" s="12"/>
     </row>
     <row r="116" spans="1:10" ht="17.399999999999999">
-      <c r="A116" s="51" t="s">
+      <c r="A116" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B116" s="52"/>
-      <c r="C116" s="52"/>
-      <c r="D116" s="52"/>
-      <c r="E116" s="53"/>
-      <c r="F116" s="54"/>
-      <c r="G116" s="55"/>
-      <c r="H116" s="55"/>
-      <c r="I116" s="55"/>
-      <c r="J116" s="55"/>
+      <c r="B116" s="57"/>
+      <c r="C116" s="57"/>
+      <c r="D116" s="57"/>
+      <c r="E116" s="58"/>
+      <c r="F116" s="59"/>
+      <c r="G116" s="60"/>
+      <c r="H116" s="60"/>
+      <c r="I116" s="60"/>
+      <c r="J116" s="60"/>
     </row>
     <row r="117" spans="1:10" ht="17.399999999999999">
       <c r="A117" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B117" s="56"/>
-      <c r="C117" s="56"/>
-      <c r="D117" s="56"/>
-      <c r="E117" s="57"/>
+      <c r="B117" s="62"/>
+      <c r="C117" s="62"/>
+      <c r="D117" s="62"/>
+      <c r="E117" s="63"/>
       <c r="F117" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G117" s="58" t="s">
+      <c r="G117" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="H117" s="59"/>
-      <c r="I117" s="59"/>
-      <c r="J117" s="60"/>
+      <c r="H117" s="54"/>
+      <c r="I117" s="54"/>
+      <c r="J117" s="55"/>
     </row>
     <row r="118" spans="1:10" ht="17.399999999999999">
-      <c r="A118" s="41" t="s">
+      <c r="A118" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B118" s="43"/>
+      <c r="B118" s="45"/>
       <c r="C118" s="21"/>
       <c r="D118" s="21"/>
       <c r="E118" s="22"/>
       <c r="F118" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G118" s="58"/>
-      <c r="H118" s="59"/>
-      <c r="I118" s="59"/>
-      <c r="J118" s="60"/>
+      <c r="G118" s="53"/>
+      <c r="H118" s="54"/>
+      <c r="I118" s="54"/>
+      <c r="J118" s="55"/>
     </row>
     <row r="119" spans="1:10" ht="17.399999999999999">
       <c r="A119" s="61" t="s">
         <v>38</v>
       </c>
       <c r="B119" s="61"/>
-      <c r="C119" s="44"/>
-      <c r="D119" s="45"/>
-      <c r="E119" s="45"/>
-      <c r="F119" s="45"/>
-      <c r="G119" s="45"/>
-      <c r="H119" s="45"/>
-      <c r="I119" s="45"/>
-      <c r="J119" s="46"/>
+      <c r="C119" s="46"/>
+      <c r="D119" s="47"/>
+      <c r="E119" s="47"/>
+      <c r="F119" s="47"/>
+      <c r="G119" s="47"/>
+      <c r="H119" s="47"/>
+      <c r="I119" s="47"/>
+      <c r="J119" s="48"/>
     </row>
     <row r="120" spans="1:10" ht="17.399999999999999">
       <c r="A120" s="61" t="s">
         <v>39</v>
       </c>
       <c r="B120" s="61"/>
-      <c r="C120" s="44"/>
-      <c r="D120" s="45"/>
-      <c r="E120" s="45"/>
-      <c r="F120" s="45"/>
-      <c r="G120" s="45"/>
-      <c r="H120" s="45"/>
-      <c r="I120" s="45"/>
-      <c r="J120" s="46"/>
+      <c r="C120" s="46"/>
+      <c r="D120" s="47"/>
+      <c r="E120" s="47"/>
+      <c r="F120" s="47"/>
+      <c r="G120" s="47"/>
+      <c r="H120" s="47"/>
+      <c r="I120" s="47"/>
+      <c r="J120" s="48"/>
     </row>
     <row r="121" spans="1:10" ht="17.399999999999999">
       <c r="A121" s="31" t="s">
@@ -4253,13 +4311,13 @@
       <c r="E121" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F121" s="41" t="s">
+      <c r="F121" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G121" s="42"/>
-      <c r="H121" s="42"/>
-      <c r="I121" s="42"/>
-      <c r="J121" s="43"/>
+      <c r="G121" s="44"/>
+      <c r="H121" s="44"/>
+      <c r="I121" s="44"/>
+      <c r="J121" s="45"/>
     </row>
     <row r="122" spans="1:10" ht="17.399999999999999">
       <c r="A122" s="26"/>
@@ -4267,55 +4325,55 @@
       <c r="C122" s="27"/>
       <c r="D122" s="27"/>
       <c r="E122" s="20"/>
-      <c r="F122" s="44"/>
-      <c r="G122" s="45"/>
-      <c r="H122" s="45"/>
-      <c r="I122" s="45"/>
-      <c r="J122" s="46"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="47"/>
+      <c r="H122" s="47"/>
+      <c r="I122" s="47"/>
+      <c r="J122" s="48"/>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123" s="47" t="s">
+      <c r="A123" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B123" s="47" t="s">
+      <c r="B123" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C123" s="47" t="s">
+      <c r="C123" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D123" s="49" t="s">
+      <c r="D123" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E123" s="47" t="s">
+      <c r="E123" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F123" s="47" t="s">
+      <c r="F123" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G123" s="47" t="s">
+      <c r="G123" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H123" s="47" t="s">
+      <c r="H123" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I123" s="47" t="s">
+      <c r="I123" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J123" s="47" t="s">
+      <c r="J123" s="49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="48"/>
-      <c r="B124" s="48"/>
-      <c r="C124" s="48"/>
-      <c r="D124" s="50"/>
-      <c r="E124" s="48"/>
-      <c r="F124" s="48"/>
-      <c r="G124" s="48"/>
-      <c r="H124" s="48"/>
-      <c r="I124" s="48"/>
-      <c r="J124" s="48"/>
+      <c r="A124" s="50"/>
+      <c r="B124" s="50"/>
+      <c r="C124" s="50"/>
+      <c r="D124" s="52"/>
+      <c r="E124" s="50"/>
+      <c r="F124" s="50"/>
+      <c r="G124" s="50"/>
+      <c r="H124" s="50"/>
+      <c r="I124" s="50"/>
+      <c r="J124" s="50"/>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="12" t="s">
@@ -4406,80 +4464,80 @@
       <c r="J129" s="12"/>
     </row>
     <row r="132" spans="1:10" ht="17.399999999999999">
-      <c r="A132" s="51" t="s">
+      <c r="A132" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B132" s="52"/>
-      <c r="C132" s="52"/>
-      <c r="D132" s="52"/>
-      <c r="E132" s="53"/>
-      <c r="F132" s="54"/>
-      <c r="G132" s="55"/>
-      <c r="H132" s="55"/>
-      <c r="I132" s="55"/>
-      <c r="J132" s="55"/>
+      <c r="B132" s="57"/>
+      <c r="C132" s="57"/>
+      <c r="D132" s="57"/>
+      <c r="E132" s="58"/>
+      <c r="F132" s="59"/>
+      <c r="G132" s="60"/>
+      <c r="H132" s="60"/>
+      <c r="I132" s="60"/>
+      <c r="J132" s="60"/>
     </row>
     <row r="133" spans="1:10" ht="17.399999999999999">
       <c r="A133" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B133" s="56"/>
-      <c r="C133" s="56"/>
-      <c r="D133" s="56"/>
-      <c r="E133" s="57"/>
+      <c r="B133" s="62"/>
+      <c r="C133" s="62"/>
+      <c r="D133" s="62"/>
+      <c r="E133" s="63"/>
       <c r="F133" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G133" s="58" t="s">
+      <c r="G133" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="H133" s="59"/>
-      <c r="I133" s="59"/>
-      <c r="J133" s="60"/>
+      <c r="H133" s="54"/>
+      <c r="I133" s="54"/>
+      <c r="J133" s="55"/>
     </row>
     <row r="134" spans="1:10" ht="17.399999999999999">
-      <c r="A134" s="41" t="s">
+      <c r="A134" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B134" s="43"/>
+      <c r="B134" s="45"/>
       <c r="C134" s="21"/>
       <c r="D134" s="21"/>
       <c r="E134" s="22"/>
       <c r="F134" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G134" s="58"/>
-      <c r="H134" s="59"/>
-      <c r="I134" s="59"/>
-      <c r="J134" s="60"/>
+      <c r="G134" s="53"/>
+      <c r="H134" s="54"/>
+      <c r="I134" s="54"/>
+      <c r="J134" s="55"/>
     </row>
     <row r="135" spans="1:10" ht="17.399999999999999">
       <c r="A135" s="61" t="s">
         <v>38</v>
       </c>
       <c r="B135" s="61"/>
-      <c r="C135" s="44"/>
-      <c r="D135" s="45"/>
-      <c r="E135" s="45"/>
-      <c r="F135" s="45"/>
-      <c r="G135" s="45"/>
-      <c r="H135" s="45"/>
-      <c r="I135" s="45"/>
-      <c r="J135" s="46"/>
+      <c r="C135" s="46"/>
+      <c r="D135" s="47"/>
+      <c r="E135" s="47"/>
+      <c r="F135" s="47"/>
+      <c r="G135" s="47"/>
+      <c r="H135" s="47"/>
+      <c r="I135" s="47"/>
+      <c r="J135" s="48"/>
     </row>
     <row r="136" spans="1:10" ht="17.399999999999999">
       <c r="A136" s="61" t="s">
         <v>39</v>
       </c>
       <c r="B136" s="61"/>
-      <c r="C136" s="44"/>
-      <c r="D136" s="45"/>
-      <c r="E136" s="45"/>
-      <c r="F136" s="45"/>
-      <c r="G136" s="45"/>
-      <c r="H136" s="45"/>
-      <c r="I136" s="45"/>
-      <c r="J136" s="46"/>
+      <c r="C136" s="46"/>
+      <c r="D136" s="47"/>
+      <c r="E136" s="47"/>
+      <c r="F136" s="47"/>
+      <c r="G136" s="47"/>
+      <c r="H136" s="47"/>
+      <c r="I136" s="47"/>
+      <c r="J136" s="48"/>
     </row>
     <row r="137" spans="1:10" ht="17.399999999999999">
       <c r="A137" s="31" t="s">
@@ -4497,13 +4555,13 @@
       <c r="E137" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F137" s="41" t="s">
+      <c r="F137" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G137" s="42"/>
-      <c r="H137" s="42"/>
-      <c r="I137" s="42"/>
-      <c r="J137" s="43"/>
+      <c r="G137" s="44"/>
+      <c r="H137" s="44"/>
+      <c r="I137" s="44"/>
+      <c r="J137" s="45"/>
     </row>
     <row r="138" spans="1:10" ht="17.399999999999999">
       <c r="A138" s="26"/>
@@ -4511,55 +4569,55 @@
       <c r="C138" s="27"/>
       <c r="D138" s="27"/>
       <c r="E138" s="20"/>
-      <c r="F138" s="44"/>
-      <c r="G138" s="45"/>
-      <c r="H138" s="45"/>
-      <c r="I138" s="45"/>
-      <c r="J138" s="46"/>
+      <c r="F138" s="46"/>
+      <c r="G138" s="47"/>
+      <c r="H138" s="47"/>
+      <c r="I138" s="47"/>
+      <c r="J138" s="48"/>
     </row>
     <row r="139" spans="1:10">
-      <c r="A139" s="47" t="s">
+      <c r="A139" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B139" s="47" t="s">
+      <c r="B139" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C139" s="47" t="s">
+      <c r="C139" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D139" s="49" t="s">
+      <c r="D139" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E139" s="47" t="s">
+      <c r="E139" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F139" s="47" t="s">
+      <c r="F139" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G139" s="47" t="s">
+      <c r="G139" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H139" s="47" t="s">
+      <c r="H139" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I139" s="47" t="s">
+      <c r="I139" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J139" s="47" t="s">
+      <c r="J139" s="49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:10">
-      <c r="A140" s="48"/>
-      <c r="B140" s="48"/>
-      <c r="C140" s="48"/>
-      <c r="D140" s="50"/>
-      <c r="E140" s="48"/>
-      <c r="F140" s="48"/>
-      <c r="G140" s="48"/>
-      <c r="H140" s="48"/>
-      <c r="I140" s="48"/>
-      <c r="J140" s="48"/>
+      <c r="A140" s="50"/>
+      <c r="B140" s="50"/>
+      <c r="C140" s="50"/>
+      <c r="D140" s="52"/>
+      <c r="E140" s="50"/>
+      <c r="F140" s="50"/>
+      <c r="G140" s="50"/>
+      <c r="H140" s="50"/>
+      <c r="I140" s="50"/>
+      <c r="J140" s="50"/>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="12" t="s">
@@ -4634,80 +4692,80 @@
       <c r="J144" s="12"/>
     </row>
     <row r="147" spans="1:10" ht="17.399999999999999">
-      <c r="A147" s="51" t="s">
+      <c r="A147" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B147" s="52"/>
-      <c r="C147" s="52"/>
-      <c r="D147" s="52"/>
-      <c r="E147" s="53"/>
-      <c r="F147" s="54"/>
-      <c r="G147" s="55"/>
-      <c r="H147" s="55"/>
-      <c r="I147" s="55"/>
-      <c r="J147" s="55"/>
+      <c r="B147" s="57"/>
+      <c r="C147" s="57"/>
+      <c r="D147" s="57"/>
+      <c r="E147" s="58"/>
+      <c r="F147" s="59"/>
+      <c r="G147" s="60"/>
+      <c r="H147" s="60"/>
+      <c r="I147" s="60"/>
+      <c r="J147" s="60"/>
     </row>
     <row r="148" spans="1:10" ht="17.399999999999999">
       <c r="A148" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B148" s="56"/>
-      <c r="C148" s="56"/>
-      <c r="D148" s="56"/>
-      <c r="E148" s="57"/>
+      <c r="B148" s="62"/>
+      <c r="C148" s="62"/>
+      <c r="D148" s="62"/>
+      <c r="E148" s="63"/>
       <c r="F148" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G148" s="58" t="s">
+      <c r="G148" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="H148" s="59"/>
-      <c r="I148" s="59"/>
-      <c r="J148" s="60"/>
+      <c r="H148" s="54"/>
+      <c r="I148" s="54"/>
+      <c r="J148" s="55"/>
     </row>
     <row r="149" spans="1:10" ht="17.399999999999999">
-      <c r="A149" s="41" t="s">
+      <c r="A149" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B149" s="43"/>
+      <c r="B149" s="45"/>
       <c r="C149" s="21"/>
       <c r="D149" s="21"/>
       <c r="E149" s="22"/>
       <c r="F149" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G149" s="58"/>
-      <c r="H149" s="59"/>
-      <c r="I149" s="59"/>
-      <c r="J149" s="60"/>
+      <c r="G149" s="53"/>
+      <c r="H149" s="54"/>
+      <c r="I149" s="54"/>
+      <c r="J149" s="55"/>
     </row>
     <row r="150" spans="1:10" ht="17.399999999999999">
       <c r="A150" s="61" t="s">
         <v>38</v>
       </c>
       <c r="B150" s="61"/>
-      <c r="C150" s="44"/>
-      <c r="D150" s="45"/>
-      <c r="E150" s="45"/>
-      <c r="F150" s="45"/>
-      <c r="G150" s="45"/>
-      <c r="H150" s="45"/>
-      <c r="I150" s="45"/>
-      <c r="J150" s="46"/>
+      <c r="C150" s="46"/>
+      <c r="D150" s="47"/>
+      <c r="E150" s="47"/>
+      <c r="F150" s="47"/>
+      <c r="G150" s="47"/>
+      <c r="H150" s="47"/>
+      <c r="I150" s="47"/>
+      <c r="J150" s="48"/>
     </row>
     <row r="151" spans="1:10" ht="17.399999999999999">
       <c r="A151" s="61" t="s">
         <v>39</v>
       </c>
       <c r="B151" s="61"/>
-      <c r="C151" s="44"/>
-      <c r="D151" s="45"/>
-      <c r="E151" s="45"/>
-      <c r="F151" s="45"/>
-      <c r="G151" s="45"/>
-      <c r="H151" s="45"/>
-      <c r="I151" s="45"/>
-      <c r="J151" s="46"/>
+      <c r="C151" s="46"/>
+      <c r="D151" s="47"/>
+      <c r="E151" s="47"/>
+      <c r="F151" s="47"/>
+      <c r="G151" s="47"/>
+      <c r="H151" s="47"/>
+      <c r="I151" s="47"/>
+      <c r="J151" s="48"/>
     </row>
     <row r="152" spans="1:10" ht="17.399999999999999">
       <c r="A152" s="31" t="s">
@@ -4725,13 +4783,13 @@
       <c r="E152" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F152" s="41" t="s">
+      <c r="F152" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G152" s="42"/>
-      <c r="H152" s="42"/>
-      <c r="I152" s="42"/>
-      <c r="J152" s="43"/>
+      <c r="G152" s="44"/>
+      <c r="H152" s="44"/>
+      <c r="I152" s="44"/>
+      <c r="J152" s="45"/>
     </row>
     <row r="153" spans="1:10" ht="17.399999999999999">
       <c r="A153" s="26"/>
@@ -4739,55 +4797,55 @@
       <c r="C153" s="27"/>
       <c r="D153" s="27"/>
       <c r="E153" s="20"/>
-      <c r="F153" s="44"/>
-      <c r="G153" s="45"/>
-      <c r="H153" s="45"/>
-      <c r="I153" s="45"/>
-      <c r="J153" s="46"/>
+      <c r="F153" s="46"/>
+      <c r="G153" s="47"/>
+      <c r="H153" s="47"/>
+      <c r="I153" s="47"/>
+      <c r="J153" s="48"/>
     </row>
     <row r="154" spans="1:10">
-      <c r="A154" s="47" t="s">
+      <c r="A154" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B154" s="47" t="s">
+      <c r="B154" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C154" s="47" t="s">
+      <c r="C154" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D154" s="49" t="s">
+      <c r="D154" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E154" s="47" t="s">
+      <c r="E154" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F154" s="47" t="s">
+      <c r="F154" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G154" s="47" t="s">
+      <c r="G154" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H154" s="47" t="s">
+      <c r="H154" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I154" s="47" t="s">
+      <c r="I154" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J154" s="47" t="s">
+      <c r="J154" s="49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:10">
-      <c r="A155" s="48"/>
-      <c r="B155" s="48"/>
-      <c r="C155" s="48"/>
-      <c r="D155" s="50"/>
-      <c r="E155" s="48"/>
-      <c r="F155" s="48"/>
-      <c r="G155" s="48"/>
-      <c r="H155" s="48"/>
-      <c r="I155" s="48"/>
-      <c r="J155" s="48"/>
+      <c r="A155" s="50"/>
+      <c r="B155" s="50"/>
+      <c r="C155" s="50"/>
+      <c r="D155" s="52"/>
+      <c r="E155" s="50"/>
+      <c r="F155" s="50"/>
+      <c r="G155" s="50"/>
+      <c r="H155" s="50"/>
+      <c r="I155" s="50"/>
+      <c r="J155" s="50"/>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="12" t="s">
@@ -4842,80 +4900,80 @@
       <c r="J158" s="12"/>
     </row>
     <row r="161" spans="1:10" ht="17.399999999999999">
-      <c r="A161" s="51" t="s">
+      <c r="A161" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B161" s="52"/>
-      <c r="C161" s="52"/>
-      <c r="D161" s="52"/>
-      <c r="E161" s="53"/>
-      <c r="F161" s="54"/>
-      <c r="G161" s="55"/>
-      <c r="H161" s="55"/>
-      <c r="I161" s="55"/>
-      <c r="J161" s="55"/>
+      <c r="B161" s="57"/>
+      <c r="C161" s="57"/>
+      <c r="D161" s="57"/>
+      <c r="E161" s="58"/>
+      <c r="F161" s="59"/>
+      <c r="G161" s="60"/>
+      <c r="H161" s="60"/>
+      <c r="I161" s="60"/>
+      <c r="J161" s="60"/>
     </row>
     <row r="162" spans="1:10" ht="17.399999999999999">
       <c r="A162" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B162" s="56"/>
-      <c r="C162" s="56"/>
-      <c r="D162" s="56"/>
-      <c r="E162" s="57"/>
+      <c r="B162" s="62"/>
+      <c r="C162" s="62"/>
+      <c r="D162" s="62"/>
+      <c r="E162" s="63"/>
       <c r="F162" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G162" s="58" t="s">
+      <c r="G162" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="H162" s="59"/>
-      <c r="I162" s="59"/>
-      <c r="J162" s="60"/>
+      <c r="H162" s="54"/>
+      <c r="I162" s="54"/>
+      <c r="J162" s="55"/>
     </row>
     <row r="163" spans="1:10" ht="17.399999999999999">
-      <c r="A163" s="41" t="s">
+      <c r="A163" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B163" s="43"/>
+      <c r="B163" s="45"/>
       <c r="C163" s="21"/>
       <c r="D163" s="21"/>
       <c r="E163" s="22"/>
       <c r="F163" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G163" s="58"/>
-      <c r="H163" s="59"/>
-      <c r="I163" s="59"/>
-      <c r="J163" s="60"/>
+      <c r="G163" s="53"/>
+      <c r="H163" s="54"/>
+      <c r="I163" s="54"/>
+      <c r="J163" s="55"/>
     </row>
     <row r="164" spans="1:10" ht="17.399999999999999">
       <c r="A164" s="61" t="s">
         <v>38</v>
       </c>
       <c r="B164" s="61"/>
-      <c r="C164" s="44"/>
-      <c r="D164" s="45"/>
-      <c r="E164" s="45"/>
-      <c r="F164" s="45"/>
-      <c r="G164" s="45"/>
-      <c r="H164" s="45"/>
-      <c r="I164" s="45"/>
-      <c r="J164" s="46"/>
+      <c r="C164" s="46"/>
+      <c r="D164" s="47"/>
+      <c r="E164" s="47"/>
+      <c r="F164" s="47"/>
+      <c r="G164" s="47"/>
+      <c r="H164" s="47"/>
+      <c r="I164" s="47"/>
+      <c r="J164" s="48"/>
     </row>
     <row r="165" spans="1:10" ht="17.399999999999999">
       <c r="A165" s="61" t="s">
         <v>39</v>
       </c>
       <c r="B165" s="61"/>
-      <c r="C165" s="44"/>
-      <c r="D165" s="45"/>
-      <c r="E165" s="45"/>
-      <c r="F165" s="45"/>
-      <c r="G165" s="45"/>
-      <c r="H165" s="45"/>
-      <c r="I165" s="45"/>
-      <c r="J165" s="46"/>
+      <c r="C165" s="46"/>
+      <c r="D165" s="47"/>
+      <c r="E165" s="47"/>
+      <c r="F165" s="47"/>
+      <c r="G165" s="47"/>
+      <c r="H165" s="47"/>
+      <c r="I165" s="47"/>
+      <c r="J165" s="48"/>
     </row>
     <row r="166" spans="1:10" ht="17.399999999999999">
       <c r="A166" s="35" t="s">
@@ -4933,13 +4991,13 @@
       <c r="E166" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F166" s="41" t="s">
+      <c r="F166" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G166" s="42"/>
-      <c r="H166" s="42"/>
-      <c r="I166" s="42"/>
-      <c r="J166" s="43"/>
+      <c r="G166" s="44"/>
+      <c r="H166" s="44"/>
+      <c r="I166" s="44"/>
+      <c r="J166" s="45"/>
     </row>
     <row r="167" spans="1:10" ht="17.399999999999999">
       <c r="A167" s="26"/>
@@ -4947,55 +5005,55 @@
       <c r="C167" s="27"/>
       <c r="D167" s="27"/>
       <c r="E167" s="20"/>
-      <c r="F167" s="44"/>
-      <c r="G167" s="45"/>
-      <c r="H167" s="45"/>
-      <c r="I167" s="45"/>
-      <c r="J167" s="46"/>
+      <c r="F167" s="46"/>
+      <c r="G167" s="47"/>
+      <c r="H167" s="47"/>
+      <c r="I167" s="47"/>
+      <c r="J167" s="48"/>
     </row>
     <row r="168" spans="1:10">
-      <c r="A168" s="47" t="s">
+      <c r="A168" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B168" s="47" t="s">
+      <c r="B168" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C168" s="47" t="s">
+      <c r="C168" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D168" s="49" t="s">
+      <c r="D168" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E168" s="47" t="s">
+      <c r="E168" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F168" s="47" t="s">
+      <c r="F168" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G168" s="47" t="s">
+      <c r="G168" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H168" s="47" t="s">
+      <c r="H168" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I168" s="47" t="s">
+      <c r="I168" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J168" s="47" t="s">
+      <c r="J168" s="49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:10">
-      <c r="A169" s="48"/>
-      <c r="B169" s="48"/>
-      <c r="C169" s="48"/>
-      <c r="D169" s="50"/>
-      <c r="E169" s="48"/>
-      <c r="F169" s="48"/>
-      <c r="G169" s="48"/>
-      <c r="H169" s="48"/>
-      <c r="I169" s="48"/>
-      <c r="J169" s="48"/>
+      <c r="A169" s="50"/>
+      <c r="B169" s="50"/>
+      <c r="C169" s="50"/>
+      <c r="D169" s="52"/>
+      <c r="E169" s="50"/>
+      <c r="F169" s="50"/>
+      <c r="G169" s="50"/>
+      <c r="H169" s="50"/>
+      <c r="I169" s="50"/>
+      <c r="J169" s="50"/>
     </row>
     <row r="170" spans="1:10">
       <c r="A170" s="12" t="s">
@@ -5071,30 +5129,696 @@
       <c r="I173" s="12"/>
       <c r="J173" s="12"/>
     </row>
+    <row r="176" spans="1:10" ht="17.399999999999999">
+      <c r="A176" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B176" s="57"/>
+      <c r="C176" s="57"/>
+      <c r="D176" s="57"/>
+      <c r="E176" s="58"/>
+      <c r="F176" s="59"/>
+      <c r="G176" s="60"/>
+      <c r="H176" s="60"/>
+      <c r="I176" s="60"/>
+      <c r="J176" s="60"/>
+    </row>
+    <row r="177" spans="1:10" ht="17.399999999999999">
+      <c r="A177" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B177" s="62"/>
+      <c r="C177" s="62"/>
+      <c r="D177" s="62"/>
+      <c r="E177" s="63"/>
+      <c r="F177" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G177" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="H177" s="54"/>
+      <c r="I177" s="54"/>
+      <c r="J177" s="55"/>
+    </row>
+    <row r="178" spans="1:10" ht="17.399999999999999">
+      <c r="A178" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B178" s="45"/>
+      <c r="C178" s="21"/>
+      <c r="D178" s="21"/>
+      <c r="E178" s="22"/>
+      <c r="F178" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G178" s="53"/>
+      <c r="H178" s="54"/>
+      <c r="I178" s="54"/>
+      <c r="J178" s="55"/>
+    </row>
+    <row r="179" spans="1:10" ht="17.399999999999999">
+      <c r="A179" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B179" s="61"/>
+      <c r="C179" s="46"/>
+      <c r="D179" s="47"/>
+      <c r="E179" s="47"/>
+      <c r="F179" s="47"/>
+      <c r="G179" s="47"/>
+      <c r="H179" s="47"/>
+      <c r="I179" s="47"/>
+      <c r="J179" s="48"/>
+    </row>
+    <row r="180" spans="1:10" ht="17.399999999999999">
+      <c r="A180" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B180" s="61"/>
+      <c r="C180" s="46"/>
+      <c r="D180" s="47"/>
+      <c r="E180" s="47"/>
+      <c r="F180" s="47"/>
+      <c r="G180" s="47"/>
+      <c r="H180" s="47"/>
+      <c r="I180" s="47"/>
+      <c r="J180" s="48"/>
+    </row>
+    <row r="181" spans="1:10" ht="17.399999999999999">
+      <c r="A181" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B181" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C181" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D181" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E181" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F181" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G181" s="44"/>
+      <c r="H181" s="44"/>
+      <c r="I181" s="44"/>
+      <c r="J181" s="45"/>
+    </row>
+    <row r="182" spans="1:10" ht="17.399999999999999">
+      <c r="A182" s="26"/>
+      <c r="B182" s="26"/>
+      <c r="C182" s="27"/>
+      <c r="D182" s="27"/>
+      <c r="E182" s="20"/>
+      <c r="F182" s="46"/>
+      <c r="G182" s="47"/>
+      <c r="H182" s="47"/>
+      <c r="I182" s="47"/>
+      <c r="J182" s="48"/>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B183" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C183" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D183" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E183" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F183" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G183" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="H183" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="I183" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="J183" s="49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184" s="50"/>
+      <c r="B184" s="50"/>
+      <c r="C184" s="50"/>
+      <c r="D184" s="52"/>
+      <c r="E184" s="50"/>
+      <c r="F184" s="50"/>
+      <c r="G184" s="50"/>
+      <c r="H184" s="50"/>
+      <c r="I184" s="50"/>
+      <c r="J184" s="50"/>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B185" s="12"/>
+      <c r="C185" s="12"/>
+      <c r="D185" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="29"/>
+      <c r="I185" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="J185" s="12"/>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B186" s="12"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E186" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F186" s="12"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="29"/>
+      <c r="I186" s="12"/>
+      <c r="J186" s="12"/>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B187" s="12"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="29"/>
+      <c r="I187" s="12">
+        <v>0</v>
+      </c>
+      <c r="J187" s="12"/>
+    </row>
+    <row r="190" spans="1:10" ht="17.399999999999999">
+      <c r="A190" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B190" s="57"/>
+      <c r="C190" s="57"/>
+      <c r="D190" s="57"/>
+      <c r="E190" s="58"/>
+      <c r="F190" s="59"/>
+      <c r="G190" s="60"/>
+      <c r="H190" s="60"/>
+      <c r="I190" s="60"/>
+      <c r="J190" s="60"/>
+    </row>
+    <row r="191" spans="1:10" ht="17.399999999999999">
+      <c r="A191" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B191" s="62"/>
+      <c r="C191" s="62"/>
+      <c r="D191" s="62"/>
+      <c r="E191" s="63"/>
+      <c r="F191" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G191" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="H191" s="54"/>
+      <c r="I191" s="54"/>
+      <c r="J191" s="55"/>
+    </row>
+    <row r="192" spans="1:10" ht="17.399999999999999">
+      <c r="A192" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B192" s="45"/>
+      <c r="C192" s="21"/>
+      <c r="D192" s="21"/>
+      <c r="E192" s="22"/>
+      <c r="F192" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G192" s="53"/>
+      <c r="H192" s="54"/>
+      <c r="I192" s="54"/>
+      <c r="J192" s="55"/>
+    </row>
+    <row r="193" spans="1:10" ht="17.399999999999999">
+      <c r="A193" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B193" s="61"/>
+      <c r="C193" s="46"/>
+      <c r="D193" s="47"/>
+      <c r="E193" s="47"/>
+      <c r="F193" s="47"/>
+      <c r="G193" s="47"/>
+      <c r="H193" s="47"/>
+      <c r="I193" s="47"/>
+      <c r="J193" s="48"/>
+    </row>
+    <row r="194" spans="1:10" ht="17.399999999999999">
+      <c r="A194" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B194" s="61"/>
+      <c r="C194" s="46"/>
+      <c r="D194" s="47"/>
+      <c r="E194" s="47"/>
+      <c r="F194" s="47"/>
+      <c r="G194" s="47"/>
+      <c r="H194" s="47"/>
+      <c r="I194" s="47"/>
+      <c r="J194" s="48"/>
+    </row>
+    <row r="195" spans="1:10" ht="17.399999999999999">
+      <c r="A195" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B195" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C195" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D195" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E195" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F195" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G195" s="44"/>
+      <c r="H195" s="44"/>
+      <c r="I195" s="44"/>
+      <c r="J195" s="45"/>
+    </row>
+    <row r="196" spans="1:10" ht="17.399999999999999">
+      <c r="A196" s="26"/>
+      <c r="B196" s="26"/>
+      <c r="C196" s="27"/>
+      <c r="D196" s="27"/>
+      <c r="E196" s="20"/>
+      <c r="F196" s="46"/>
+      <c r="G196" s="47"/>
+      <c r="H196" s="47"/>
+      <c r="I196" s="47"/>
+      <c r="J196" s="48"/>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="A197" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B197" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C197" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D197" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E197" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F197" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G197" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="H197" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="I197" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="J197" s="49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="A198" s="50"/>
+      <c r="B198" s="50"/>
+      <c r="C198" s="50"/>
+      <c r="D198" s="52"/>
+      <c r="E198" s="50"/>
+      <c r="F198" s="50"/>
+      <c r="G198" s="50"/>
+      <c r="H198" s="50"/>
+      <c r="I198" s="50"/>
+      <c r="J198" s="50"/>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="A199" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B199" s="12"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="29"/>
+      <c r="I199" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="J199" s="12"/>
+    </row>
+    <row r="200" spans="1:10">
+      <c r="A200" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B200" s="12"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E200" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="29"/>
+      <c r="I200" s="12"/>
+      <c r="J200" s="12"/>
+    </row>
+    <row r="201" spans="1:10">
+      <c r="A201" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B201" s="12"/>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="29"/>
+      <c r="I201" s="12"/>
+      <c r="J201" s="12"/>
+    </row>
+    <row r="202" spans="1:10">
+      <c r="A202" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B202" s="12"/>
+      <c r="C202" s="12"/>
+      <c r="D202" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E202" s="12"/>
+      <c r="F202" s="12"/>
+      <c r="G202" s="12"/>
+      <c r="H202" s="29"/>
+      <c r="I202" s="12">
+        <v>0</v>
+      </c>
+      <c r="J202" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="254">
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="B28:E28"/>
+  <mergeCells count="298">
+    <mergeCell ref="F195:J195"/>
+    <mergeCell ref="F196:J196"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="D197:D198"/>
+    <mergeCell ref="E197:E198"/>
+    <mergeCell ref="F197:F198"/>
+    <mergeCell ref="G197:G198"/>
+    <mergeCell ref="H197:H198"/>
+    <mergeCell ref="I197:I198"/>
+    <mergeCell ref="J197:J198"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="F190:J190"/>
+    <mergeCell ref="B191:E191"/>
+    <mergeCell ref="G191:J191"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="G192:J192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="C193:J193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="C194:J194"/>
+    <mergeCell ref="F181:J181"/>
+    <mergeCell ref="F182:J182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="F183:F184"/>
+    <mergeCell ref="G183:G184"/>
+    <mergeCell ref="H183:H184"/>
+    <mergeCell ref="I183:I184"/>
+    <mergeCell ref="J183:J184"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="F176:J176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="G177:J177"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="G178:J178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="C179:J179"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="C180:J180"/>
+    <mergeCell ref="F166:J166"/>
+    <mergeCell ref="F167:J167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="F168:F169"/>
+    <mergeCell ref="G168:G169"/>
+    <mergeCell ref="H168:H169"/>
+    <mergeCell ref="I168:I169"/>
+    <mergeCell ref="J168:J169"/>
+    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="F161:J161"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="G162:J162"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="G163:J163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="C164:J164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="C165:J165"/>
+    <mergeCell ref="F153:J153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="F154:F155"/>
+    <mergeCell ref="G154:G155"/>
+    <mergeCell ref="H154:H155"/>
+    <mergeCell ref="I154:I155"/>
+    <mergeCell ref="J154:J155"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:J150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:J151"/>
+    <mergeCell ref="F152:J152"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="F147:J147"/>
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="G148:J148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="G149:J149"/>
+    <mergeCell ref="F138:J138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:J135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:J136"/>
+    <mergeCell ref="F137:J137"/>
+    <mergeCell ref="A132:E132"/>
+    <mergeCell ref="F132:J132"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="G133:J133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="G134:J134"/>
+    <mergeCell ref="F122:J122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:J119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:J120"/>
+    <mergeCell ref="F121:J121"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="F116:J116"/>
+    <mergeCell ref="B117:E117"/>
+    <mergeCell ref="G117:J117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="G118:J118"/>
+    <mergeCell ref="F107:J107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:J104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:J105"/>
+    <mergeCell ref="F106:J106"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="G102:J102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="G103:J103"/>
+    <mergeCell ref="F89:J89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="G66:J66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A11:J12"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:J8"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
     <mergeCell ref="A25:J26"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="D16:E16"/>
@@ -5119,214 +5843,28 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="A11:J12"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:J8"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="G66:J66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="F89:J89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="J90:J91"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:J104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:J105"/>
-    <mergeCell ref="F106:J106"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="G102:J102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="G103:J103"/>
-    <mergeCell ref="F107:J107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="C119:J119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="C120:J120"/>
-    <mergeCell ref="F121:J121"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="F116:J116"/>
-    <mergeCell ref="B117:E117"/>
-    <mergeCell ref="G117:J117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="G118:J118"/>
-    <mergeCell ref="F122:J122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="J123:J124"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:J135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="C136:J136"/>
-    <mergeCell ref="F137:J137"/>
-    <mergeCell ref="A132:E132"/>
-    <mergeCell ref="F132:J132"/>
-    <mergeCell ref="B133:E133"/>
-    <mergeCell ref="G133:J133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="G134:J134"/>
-    <mergeCell ref="F138:J138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="C150:J150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="C151:J151"/>
-    <mergeCell ref="F152:J152"/>
-    <mergeCell ref="A147:E147"/>
-    <mergeCell ref="F147:J147"/>
-    <mergeCell ref="B148:E148"/>
-    <mergeCell ref="G148:J148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="G149:J149"/>
-    <mergeCell ref="F153:J153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="F154:F155"/>
-    <mergeCell ref="G154:G155"/>
-    <mergeCell ref="H154:H155"/>
-    <mergeCell ref="I154:I155"/>
-    <mergeCell ref="J154:J155"/>
-    <mergeCell ref="A161:E161"/>
-    <mergeCell ref="F161:J161"/>
-    <mergeCell ref="B162:E162"/>
-    <mergeCell ref="G162:J162"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="G163:J163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="C164:J164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="C165:J165"/>
-    <mergeCell ref="F166:J166"/>
-    <mergeCell ref="F167:J167"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="F168:F169"/>
-    <mergeCell ref="G168:G169"/>
-    <mergeCell ref="H168:H169"/>
-    <mergeCell ref="I168:I169"/>
-    <mergeCell ref="J168:J169"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="J34:J35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5352,1193 +5890,1254 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="91"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94"/>
     </row>
     <row r="3" spans="1:10" ht="6" customHeight="1"/>
     <row r="4" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
     </row>
     <row r="5" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
     </row>
     <row r="6" spans="1:10" s="32" customFormat="1" ht="13.2">
       <c r="A6" s="33"/>
     </row>
     <row r="7" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
     </row>
     <row r="8" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
     </row>
     <row r="9" spans="1:10" s="32" customFormat="1" ht="13.2">
       <c r="A9" s="33"/>
     </row>
     <row r="10" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
     </row>
     <row r="11" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
     </row>
     <row r="13" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A24" s="92" t="s">
+      <c r="A24" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
     </row>
     <row r="25" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A25" s="92" t="s">
+      <c r="A25" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
     </row>
     <row r="26" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A26" s="92" t="s">
+      <c r="A26" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="92"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
     </row>
     <row r="27" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
     </row>
     <row r="28" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
     </row>
     <row r="29" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A29" s="92" t="s">
+      <c r="A29" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A30" s="92" t="s">
+      <c r="A30" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="92"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A31" s="92" t="s">
+      <c r="A31" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A32" s="92" t="s">
+      <c r="A32" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A33" s="92" t="s">
+      <c r="A33" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A34" s="92" t="s">
+      <c r="A34" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A35" s="92" t="s">
+      <c r="A35" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A36" s="92" t="s">
+      <c r="A36" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="92"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
     </row>
     <row r="37" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A37" s="92" t="s">
+      <c r="A37" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="92"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="86"/>
     </row>
     <row r="38" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A38" s="92" t="s">
+      <c r="A38" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="92"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
     </row>
     <row r="39" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A39" s="92" t="s">
+      <c r="A39" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="86"/>
     </row>
     <row r="40" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A40" s="92" t="s">
+      <c r="A40" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
     </row>
     <row r="41" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A41" s="92" t="s">
+      <c r="A41" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="92"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="92"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="86"/>
     </row>
     <row r="42" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A42" s="92" t="s">
+      <c r="A42" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="92"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="92"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="92"/>
-      <c r="J42" s="92"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
     </row>
     <row r="43" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A43" s="92" t="s">
+      <c r="A43" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="92"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="92"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="86"/>
     </row>
     <row r="44" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A44" s="92" t="s">
+      <c r="A44" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="92"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="92"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="86"/>
     </row>
     <row r="45" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A45" s="92" t="s">
+      <c r="A45" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="92"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="86"/>
     </row>
     <row r="46" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A46" s="92" t="s">
+      <c r="A46" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="92"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="92"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="86"/>
     </row>
     <row r="47" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A47" s="92" t="s">
+      <c r="A47" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="92"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="92"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="86"/>
     </row>
     <row r="48" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A48" s="92" t="s">
+      <c r="A48" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="92"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="92"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="92"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="86"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="86"/>
+      <c r="J48" s="86"/>
     </row>
     <row r="49" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A49" s="92" t="s">
+      <c r="A49" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="92"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92"/>
-      <c r="G49" s="92"/>
-      <c r="H49" s="92"/>
-      <c r="I49" s="92"/>
-      <c r="J49" s="92"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
+      <c r="H49" s="86"/>
+      <c r="I49" s="86"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A50" s="92" t="s">
+      <c r="A50" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="92"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
-      <c r="G50" s="92"/>
-      <c r="H50" s="92"/>
-      <c r="I50" s="92"/>
-      <c r="J50" s="92"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="86"/>
+      <c r="J50" s="86"/>
     </row>
     <row r="51" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A51" s="92" t="s">
+      <c r="A51" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="92"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="92"/>
-      <c r="G51" s="92"/>
-      <c r="H51" s="92"/>
-      <c r="I51" s="92"/>
-      <c r="J51" s="92"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="86"/>
+      <c r="H51" s="86"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="86"/>
     </row>
     <row r="52" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A52" s="92" t="s">
+      <c r="A52" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="92"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="92"/>
-      <c r="G52" s="92"/>
-      <c r="H52" s="92"/>
-      <c r="I52" s="92"/>
-      <c r="J52" s="92"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="H52" s="86"/>
+      <c r="I52" s="86"/>
+      <c r="J52" s="86"/>
     </row>
     <row r="53" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A53" s="92" t="s">
+      <c r="A53" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="B53" s="92"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="92"/>
-      <c r="J53" s="92"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="86"/>
+      <c r="I53" s="86"/>
+      <c r="J53" s="86"/>
     </row>
     <row r="54" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A54" s="92" t="s">
+      <c r="A54" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="92"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="92"/>
-      <c r="G54" s="92"/>
-      <c r="H54" s="92"/>
-      <c r="I54" s="92"/>
-      <c r="J54" s="92"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="H54" s="86"/>
+      <c r="I54" s="86"/>
+      <c r="J54" s="86"/>
     </row>
     <row r="55" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A55" s="92" t="s">
+      <c r="A55" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="92"/>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="92"/>
-      <c r="G55" s="92"/>
-      <c r="H55" s="92"/>
-      <c r="I55" s="92"/>
-      <c r="J55" s="92"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="86"/>
+      <c r="J55" s="86"/>
     </row>
     <row r="56" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A56" s="92" t="s">
+      <c r="A56" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="92"/>
-      <c r="C56" s="92"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="92"/>
-      <c r="F56" s="92"/>
-      <c r="G56" s="92"/>
-      <c r="H56" s="92"/>
-      <c r="I56" s="92"/>
-      <c r="J56" s="92"/>
+      <c r="B56" s="86"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="86"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="86"/>
+      <c r="J56" s="86"/>
     </row>
     <row r="57" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A57" s="92" t="s">
+      <c r="A57" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="92"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="92"/>
-      <c r="G57" s="92"/>
-      <c r="H57" s="92"/>
-      <c r="I57" s="92"/>
-      <c r="J57" s="92"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="86"/>
+      <c r="G57" s="86"/>
+      <c r="H57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="J57" s="86"/>
     </row>
     <row r="58" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A58" s="92" t="s">
+      <c r="A58" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="92"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="92"/>
-      <c r="G58" s="92"/>
-      <c r="H58" s="92"/>
-      <c r="I58" s="92"/>
-      <c r="J58" s="92"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="86"/>
+      <c r="I58" s="86"/>
+      <c r="J58" s="86"/>
     </row>
     <row r="59" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A59" s="92" t="s">
+      <c r="A59" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="92"/>
-      <c r="C59" s="92"/>
-      <c r="D59" s="92"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="92"/>
-      <c r="G59" s="92"/>
-      <c r="H59" s="92"/>
-      <c r="I59" s="92"/>
-      <c r="J59" s="92"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="H59" s="86"/>
+      <c r="I59" s="86"/>
+      <c r="J59" s="86"/>
     </row>
     <row r="60" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A60" s="92" t="s">
+      <c r="A60" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="92"/>
-      <c r="C60" s="92"/>
-      <c r="D60" s="92"/>
-      <c r="E60" s="92"/>
-      <c r="F60" s="92"/>
-      <c r="G60" s="92"/>
-      <c r="H60" s="92"/>
-      <c r="I60" s="92"/>
-      <c r="J60" s="92"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="86"/>
+      <c r="E60" s="86"/>
+      <c r="F60" s="86"/>
+      <c r="G60" s="86"/>
+      <c r="H60" s="86"/>
+      <c r="I60" s="86"/>
+      <c r="J60" s="86"/>
     </row>
     <row r="61" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A61" s="92" t="s">
+      <c r="A61" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="B61" s="92"/>
-      <c r="C61" s="92"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="92"/>
-      <c r="F61" s="92"/>
-      <c r="G61" s="92"/>
-      <c r="H61" s="92"/>
-      <c r="I61" s="92"/>
-      <c r="J61" s="92"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="H61" s="86"/>
+      <c r="I61" s="86"/>
+      <c r="J61" s="86"/>
     </row>
     <row r="62" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A62" s="92" t="s">
+      <c r="A62" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="92"/>
-      <c r="C62" s="92"/>
-      <c r="D62" s="92"/>
-      <c r="E62" s="92"/>
-      <c r="F62" s="92"/>
-      <c r="G62" s="92"/>
-      <c r="H62" s="92"/>
-      <c r="I62" s="92"/>
-      <c r="J62" s="92"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="86"/>
+      <c r="I62" s="86"/>
+      <c r="J62" s="86"/>
     </row>
     <row r="63" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A63" s="92" t="s">
+      <c r="A63" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="B63" s="92"/>
-      <c r="C63" s="92"/>
-      <c r="D63" s="92"/>
-      <c r="E63" s="92"/>
-      <c r="F63" s="92"/>
-      <c r="G63" s="92"/>
-      <c r="H63" s="92"/>
-      <c r="I63" s="92"/>
-      <c r="J63" s="92"/>
+      <c r="B63" s="86"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="86"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="H63" s="86"/>
+      <c r="I63" s="86"/>
+      <c r="J63" s="86"/>
     </row>
     <row r="64" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A64" s="92" t="s">
+      <c r="A64" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="B64" s="92"/>
-      <c r="C64" s="92"/>
-      <c r="D64" s="92"/>
-      <c r="E64" s="92"/>
-      <c r="F64" s="92"/>
-      <c r="G64" s="92"/>
-      <c r="H64" s="92"/>
-      <c r="I64" s="92"/>
-      <c r="J64" s="92"/>
+      <c r="B64" s="86"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="86"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="H64" s="86"/>
+      <c r="I64" s="86"/>
+      <c r="J64" s="86"/>
     </row>
     <row r="65" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A65" s="92" t="s">
+      <c r="A65" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="B65" s="92"/>
-      <c r="C65" s="92"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="92"/>
-      <c r="F65" s="92"/>
-      <c r="G65" s="92"/>
-      <c r="H65" s="92"/>
-      <c r="I65" s="92"/>
-      <c r="J65" s="92"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="86"/>
+      <c r="E65" s="86"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="H65" s="86"/>
+      <c r="I65" s="86"/>
+      <c r="J65" s="86"/>
     </row>
     <row r="66" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A66" s="92" t="s">
+      <c r="A66" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="B66" s="92"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="92"/>
-      <c r="G66" s="92"/>
-      <c r="H66" s="92"/>
-      <c r="I66" s="92"/>
-      <c r="J66" s="92"/>
+      <c r="B66" s="86"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="86"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="H66" s="86"/>
+      <c r="I66" s="86"/>
+      <c r="J66" s="86"/>
     </row>
     <row r="67" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A67" s="92" t="s">
+      <c r="A67" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="B67" s="92"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="92"/>
-      <c r="G67" s="92"/>
-      <c r="H67" s="92"/>
-      <c r="I67" s="92"/>
-      <c r="J67" s="92"/>
+      <c r="B67" s="86"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="86"/>
+      <c r="E67" s="86"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="H67" s="86"/>
+      <c r="I67" s="86"/>
+      <c r="J67" s="86"/>
     </row>
     <row r="68" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A68" s="92" t="s">
+      <c r="A68" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="B68" s="92"/>
-      <c r="C68" s="92"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="92"/>
-      <c r="F68" s="92"/>
-      <c r="G68" s="92"/>
-      <c r="H68" s="92"/>
-      <c r="I68" s="92"/>
-      <c r="J68" s="92"/>
+      <c r="B68" s="86"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="86"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="H68" s="86"/>
+      <c r="I68" s="86"/>
+      <c r="J68" s="86"/>
     </row>
     <row r="69" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A69" s="92" t="s">
+      <c r="A69" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="B69" s="92"/>
-      <c r="C69" s="92"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="92"/>
-      <c r="F69" s="92"/>
-      <c r="G69" s="92"/>
-      <c r="H69" s="92"/>
-      <c r="I69" s="92"/>
-      <c r="J69" s="92"/>
+      <c r="B69" s="86"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="86"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="H69" s="86"/>
+      <c r="I69" s="86"/>
+      <c r="J69" s="86"/>
     </row>
     <row r="70" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A70" s="92" t="s">
+      <c r="A70" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="B70" s="92"/>
-      <c r="C70" s="92"/>
-      <c r="D70" s="92"/>
-      <c r="E70" s="92"/>
-      <c r="F70" s="92"/>
-      <c r="G70" s="92"/>
-      <c r="H70" s="92"/>
-      <c r="I70" s="92"/>
-      <c r="J70" s="92"/>
+      <c r="B70" s="86"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="86"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="H70" s="86"/>
+      <c r="I70" s="86"/>
+      <c r="J70" s="86"/>
     </row>
     <row r="71" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A71" s="92" t="s">
+      <c r="A71" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="B71" s="92"/>
-      <c r="C71" s="92"/>
-      <c r="D71" s="92"/>
-      <c r="E71" s="92"/>
-      <c r="F71" s="92"/>
-      <c r="G71" s="92"/>
-      <c r="H71" s="92"/>
-      <c r="I71" s="92"/>
-      <c r="J71" s="92"/>
+      <c r="B71" s="86"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="86"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="86"/>
+      <c r="I71" s="86"/>
+      <c r="J71" s="86"/>
     </row>
     <row r="72" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A72" s="92" t="s">
+      <c r="A72" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="B72" s="92"/>
-      <c r="C72" s="92"/>
-      <c r="D72" s="92"/>
-      <c r="E72" s="92"/>
-      <c r="F72" s="92"/>
-      <c r="G72" s="92"/>
-      <c r="H72" s="92"/>
-      <c r="I72" s="92"/>
-      <c r="J72" s="92"/>
+      <c r="B72" s="86"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="86"/>
+      <c r="E72" s="86"/>
+      <c r="F72" s="86"/>
+      <c r="G72" s="86"/>
+      <c r="H72" s="86"/>
+      <c r="I72" s="86"/>
+      <c r="J72" s="86"/>
     </row>
     <row r="73" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A73" s="92" t="s">
+      <c r="A73" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="B73" s="92"/>
-      <c r="C73" s="92"/>
-      <c r="D73" s="92"/>
-      <c r="E73" s="92"/>
-      <c r="F73" s="92"/>
-      <c r="G73" s="92"/>
-      <c r="H73" s="92"/>
-      <c r="I73" s="92"/>
-      <c r="J73" s="92"/>
+      <c r="B73" s="86"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="86"/>
+      <c r="E73" s="86"/>
+      <c r="F73" s="86"/>
+      <c r="G73" s="86"/>
+      <c r="H73" s="86"/>
+      <c r="I73" s="86"/>
+      <c r="J73" s="86"/>
     </row>
     <row r="74" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A74" s="92" t="s">
+      <c r="A74" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="B74" s="92"/>
-      <c r="C74" s="92"/>
-      <c r="D74" s="92"/>
-      <c r="E74" s="92"/>
-      <c r="F74" s="92"/>
-      <c r="G74" s="92"/>
-      <c r="H74" s="92"/>
-      <c r="I74" s="92"/>
-      <c r="J74" s="92"/>
+      <c r="B74" s="86"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="86"/>
+      <c r="E74" s="86"/>
+      <c r="F74" s="86"/>
+      <c r="G74" s="86"/>
+      <c r="H74" s="86"/>
+      <c r="I74" s="86"/>
+      <c r="J74" s="86"/>
     </row>
     <row r="75" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A75" s="92" t="s">
+      <c r="A75" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="B75" s="92"/>
-      <c r="C75" s="92"/>
-      <c r="D75" s="92"/>
-      <c r="E75" s="92"/>
-      <c r="F75" s="92"/>
-      <c r="G75" s="92"/>
-      <c r="H75" s="92"/>
-      <c r="I75" s="92"/>
-      <c r="J75" s="92"/>
+      <c r="B75" s="86"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="86"/>
+      <c r="E75" s="86"/>
+      <c r="F75" s="86"/>
+      <c r="G75" s="86"/>
+      <c r="H75" s="86"/>
+      <c r="I75" s="86"/>
+      <c r="J75" s="86"/>
     </row>
     <row r="76" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A76" s="92" t="s">
+      <c r="A76" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="B76" s="92"/>
-      <c r="C76" s="92"/>
-      <c r="D76" s="92"/>
-      <c r="E76" s="92"/>
-      <c r="F76" s="92"/>
-      <c r="G76" s="92"/>
-      <c r="H76" s="92"/>
-      <c r="I76" s="92"/>
-      <c r="J76" s="92"/>
+      <c r="B76" s="86"/>
+      <c r="C76" s="86"/>
+      <c r="D76" s="86"/>
+      <c r="E76" s="86"/>
+      <c r="F76" s="86"/>
+      <c r="G76" s="86"/>
+      <c r="H76" s="86"/>
+      <c r="I76" s="86"/>
+      <c r="J76" s="86"/>
     </row>
     <row r="77" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A77" s="92" t="s">
+      <c r="A77" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="B77" s="92"/>
-      <c r="C77" s="92"/>
-      <c r="D77" s="92"/>
-      <c r="E77" s="92"/>
-      <c r="F77" s="92"/>
-      <c r="G77" s="92"/>
-      <c r="H77" s="92"/>
-      <c r="I77" s="92"/>
-      <c r="J77" s="92"/>
+      <c r="B77" s="86"/>
+      <c r="C77" s="86"/>
+      <c r="D77" s="86"/>
+      <c r="E77" s="86"/>
+      <c r="F77" s="86"/>
+      <c r="G77" s="86"/>
+      <c r="H77" s="86"/>
+      <c r="I77" s="86"/>
+      <c r="J77" s="86"/>
     </row>
     <row r="78" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A78" s="92" t="s">
+      <c r="A78" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="B78" s="92"/>
-      <c r="C78" s="92"/>
-      <c r="D78" s="92"/>
-      <c r="E78" s="92"/>
-      <c r="F78" s="92"/>
-      <c r="G78" s="92"/>
-      <c r="H78" s="92"/>
-      <c r="I78" s="92"/>
-      <c r="J78" s="92"/>
+      <c r="B78" s="86"/>
+      <c r="C78" s="86"/>
+      <c r="D78" s="86"/>
+      <c r="E78" s="86"/>
+      <c r="F78" s="86"/>
+      <c r="G78" s="86"/>
+      <c r="H78" s="86"/>
+      <c r="I78" s="86"/>
+      <c r="J78" s="86"/>
     </row>
     <row r="79" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A79" s="92" t="s">
+      <c r="A79" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="B79" s="92"/>
-      <c r="C79" s="92"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="92"/>
-      <c r="F79" s="92"/>
-      <c r="G79" s="92"/>
-      <c r="H79" s="92"/>
-      <c r="I79" s="92"/>
-      <c r="J79" s="92"/>
+      <c r="B79" s="86"/>
+      <c r="C79" s="86"/>
+      <c r="D79" s="86"/>
+      <c r="E79" s="86"/>
+      <c r="F79" s="86"/>
+      <c r="G79" s="86"/>
+      <c r="H79" s="86"/>
+      <c r="I79" s="86"/>
+      <c r="J79" s="86"/>
     </row>
     <row r="80" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A80" s="92" t="s">
+      <c r="A80" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="B80" s="92"/>
-      <c r="C80" s="92"/>
-      <c r="D80" s="92"/>
-      <c r="E80" s="92"/>
-      <c r="F80" s="92"/>
-      <c r="G80" s="92"/>
-      <c r="H80" s="92"/>
-      <c r="I80" s="92"/>
-      <c r="J80" s="92"/>
+      <c r="B80" s="86"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="86"/>
+      <c r="E80" s="86"/>
+      <c r="F80" s="86"/>
+      <c r="G80" s="86"/>
+      <c r="H80" s="86"/>
+      <c r="I80" s="86"/>
+      <c r="J80" s="86"/>
     </row>
     <row r="81" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A81" s="92" t="s">
+      <c r="A81" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="B81" s="92"/>
-      <c r="C81" s="92"/>
-      <c r="D81" s="92"/>
-      <c r="E81" s="92"/>
-      <c r="F81" s="92"/>
-      <c r="G81" s="92"/>
-      <c r="H81" s="92"/>
-      <c r="I81" s="92"/>
-      <c r="J81" s="92"/>
+      <c r="B81" s="86"/>
+      <c r="C81" s="86"/>
+      <c r="D81" s="86"/>
+      <c r="E81" s="86"/>
+      <c r="F81" s="86"/>
+      <c r="G81" s="86"/>
+      <c r="H81" s="86"/>
+      <c r="I81" s="86"/>
+      <c r="J81" s="86"/>
     </row>
     <row r="82" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A82" s="92" t="s">
+      <c r="A82" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="B82" s="92"/>
-      <c r="C82" s="92"/>
-      <c r="D82" s="92"/>
-      <c r="E82" s="92"/>
-      <c r="F82" s="92"/>
-      <c r="G82" s="92"/>
-      <c r="H82" s="92"/>
-      <c r="I82" s="92"/>
-      <c r="J82" s="92"/>
+      <c r="B82" s="86"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="86"/>
+      <c r="E82" s="86"/>
+      <c r="F82" s="86"/>
+      <c r="G82" s="86"/>
+      <c r="H82" s="86"/>
+      <c r="I82" s="86"/>
+      <c r="J82" s="86"/>
     </row>
     <row r="83" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A83" s="92" t="s">
+      <c r="A83" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="B83" s="92"/>
-      <c r="C83" s="92"/>
-      <c r="D83" s="92"/>
-      <c r="E83" s="92"/>
-      <c r="F83" s="92"/>
-      <c r="G83" s="92"/>
-      <c r="H83" s="92"/>
-      <c r="I83" s="92"/>
-      <c r="J83" s="92"/>
+      <c r="B83" s="86"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="86"/>
+      <c r="E83" s="86"/>
+      <c r="F83" s="86"/>
+      <c r="G83" s="86"/>
+      <c r="H83" s="86"/>
+      <c r="I83" s="86"/>
+      <c r="J83" s="86"/>
     </row>
     <row r="84" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A84" s="92" t="s">
+      <c r="A84" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="B84" s="92"/>
-      <c r="C84" s="92"/>
-      <c r="D84" s="92"/>
-      <c r="E84" s="92"/>
-      <c r="F84" s="92"/>
-      <c r="G84" s="92"/>
-      <c r="H84" s="92"/>
-      <c r="I84" s="92"/>
-      <c r="J84" s="92"/>
+      <c r="B84" s="86"/>
+      <c r="C84" s="86"/>
+      <c r="D84" s="86"/>
+      <c r="E84" s="86"/>
+      <c r="F84" s="86"/>
+      <c r="G84" s="86"/>
+      <c r="H84" s="86"/>
+      <c r="I84" s="86"/>
+      <c r="J84" s="86"/>
     </row>
     <row r="85" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A85" s="92" t="s">
+      <c r="A85" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="B85" s="92"/>
-      <c r="C85" s="92"/>
-      <c r="D85" s="92"/>
-      <c r="E85" s="92"/>
-      <c r="F85" s="92"/>
-      <c r="G85" s="92"/>
-      <c r="H85" s="92"/>
-      <c r="I85" s="92"/>
-      <c r="J85" s="92"/>
+      <c r="B85" s="86"/>
+      <c r="C85" s="86"/>
+      <c r="D85" s="86"/>
+      <c r="E85" s="86"/>
+      <c r="F85" s="86"/>
+      <c r="G85" s="86"/>
+      <c r="H85" s="86"/>
+      <c r="I85" s="86"/>
+      <c r="J85" s="86"/>
     </row>
     <row r="86" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A86" s="92" t="s">
+      <c r="A86" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="B86" s="92"/>
-      <c r="C86" s="92"/>
-      <c r="D86" s="92"/>
-      <c r="E86" s="92"/>
-      <c r="F86" s="92"/>
-      <c r="G86" s="92"/>
-      <c r="H86" s="92"/>
-      <c r="I86" s="92"/>
-      <c r="J86" s="92"/>
+      <c r="B86" s="86"/>
+      <c r="C86" s="86"/>
+      <c r="D86" s="86"/>
+      <c r="E86" s="86"/>
+      <c r="F86" s="86"/>
+      <c r="G86" s="86"/>
+      <c r="H86" s="86"/>
+      <c r="I86" s="86"/>
+      <c r="J86" s="86"/>
     </row>
     <row r="87" spans="1:10" s="32" customFormat="1" ht="13.2">
-      <c r="A87" s="92" t="s">
+      <c r="A87" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="B87" s="92"/>
-      <c r="C87" s="92"/>
-      <c r="D87" s="92"/>
-      <c r="E87" s="92"/>
-      <c r="F87" s="92"/>
-      <c r="G87" s="92"/>
-      <c r="H87" s="92"/>
-      <c r="I87" s="92"/>
-      <c r="J87" s="92"/>
+      <c r="B87" s="86"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="86"/>
+      <c r="F87" s="86"/>
+      <c r="G87" s="86"/>
+      <c r="H87" s="86"/>
+      <c r="I87" s="86"/>
+      <c r="J87" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A83:J83"/>
-    <mergeCell ref="A84:J84"/>
-    <mergeCell ref="A85:J85"/>
-    <mergeCell ref="A86:J86"/>
-    <mergeCell ref="A87:J87"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="A69:J69"/>
     <mergeCell ref="A82:J82"/>
     <mergeCell ref="A71:J71"/>
     <mergeCell ref="A72:J72"/>
@@ -6551,72 +7150,11 @@
     <mergeCell ref="A79:J79"/>
     <mergeCell ref="A80:J80"/>
     <mergeCell ref="A81:J81"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A83:J83"/>
+    <mergeCell ref="A84:J84"/>
+    <mergeCell ref="A85:J85"/>
+    <mergeCell ref="A86:J86"/>
+    <mergeCell ref="A87:J87"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
